--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/github/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8CCA32-C58F-3B47-9A89-46B2BAEFB6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90248D0A-B8B6-EF4C-ABFC-52A52690441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +737,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -900,12 +906,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1264,7 +1273,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,6 +1285,7 @@
     <col min="12" max="12" width="20.5" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
     <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="180" customHeight="1" x14ac:dyDescent="0.2">
@@ -1327,7 +1337,7 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1364,7 +1374,7 @@
       <c r="O2" t="s">
         <v>115</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>102</v>
       </c>
     </row>
@@ -1405,7 +1415,7 @@
       <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1446,7 +1456,7 @@
       <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1484,7 +1494,7 @@
       <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1532,7 @@
       <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1560,7 +1570,7 @@
       <c r="O7" t="s">
         <v>34</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +1608,7 @@
       <c r="O8" t="s">
         <v>37</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1636,7 +1646,7 @@
       <c r="O9" t="s">
         <v>40</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1674,7 +1684,7 @@
       <c r="O10" t="s">
         <v>43</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1722,7 @@
       <c r="O11" t="s">
         <v>46</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1753,7 +1763,7 @@
       <c r="O12" t="s">
         <v>50</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +1798,7 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +1842,7 @@
       <c r="O14" t="s">
         <v>56</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1870,7 +1880,7 @@
       <c r="O15" t="s">
         <v>58</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1884,7 +1894,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1911,7 +1921,7 @@
       <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/github/AI/config_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90248D0A-B8B6-EF4C-ABFC-52A52690441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3017A2-21E2-624C-86E3-F28472FC5538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>LEVEL</t>
-  </si>
-  <si>
-    <t>Village Level</t>
   </si>
   <si>
     <t>Title</t>
@@ -51,9 +48,6 @@
     <t>Animation-
 Repeat-
 Time</t>
-  </si>
-  <si>
-    <t>Max Ref</t>
   </si>
   <si>
     <t>Target.Type
@@ -85,9 +79,6 @@
     <t>satisfactions</t>
   </si>
   <si>
-    <t>satisfactionsRefusal</t>
-  </si>
-  <si>
     <t>ActorType</t>
   </si>
   <si>
@@ -101,11 +92,6 @@
   </si>
   <si>
     <t>Strong</t>
-  </si>
-  <si>
-    <t>A
-B
-C</t>
   </si>
   <si>
     <t>HP:2</t>
@@ -411,6 +397,113 @@
   </si>
   <si>
     <t>Actors/actor2</t>
+  </si>
+  <si>
+    <t>SM_Env_Road_ParkingLines_01
+SM_Env_Road_ParkingLines_02
+SM_Env_Road_ParkingLines_03</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_34</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_01</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_03 (2)</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_03 (4)</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_03 (6)</t>
+  </si>
+  <si>
+    <t>SM_Env_GrassPath_Straight_05</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_02 (1)</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_02</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_03</t>
+  </si>
+  <si>
+    <t>SM_Env_GrassPath_Corner_03</t>
+  </si>
+  <si>
+    <t>SM_Env_GrassPath_Straight_04</t>
+  </si>
+  <si>
+    <t>isFly</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Script Refusal</t>
+  </si>
+  <si>
+    <t>핫도그 사세요~
+핫도그 맛있어요~
+웰빙 핫도그 드셔보세요~
+핫도그는 살안쪄요~</t>
+  </si>
+  <si>
+    <t>HP Script</t>
+  </si>
+  <si>
+    <t>MP Script</t>
+  </si>
+  <si>
+    <t>Gold Script</t>
+  </si>
+  <si>
+    <t>Ability1 Script</t>
+  </si>
+  <si>
+    <t>Ability2 Script</t>
+  </si>
+  <si>
+    <t>Ability3 Script</t>
+  </si>
+  <si>
+    <t>Resource1 Script</t>
+  </si>
+  <si>
+    <t>Resource2 Script</t>
+  </si>
+  <si>
+    <t>Resource3 Script</t>
+  </si>
+  <si>
+    <t>Sight start</t>
+  </si>
+  <si>
+    <t>Sight chain</t>
+  </si>
+  <si>
+    <t>Leadership1 script</t>
+  </si>
+  <si>
+    <t>Leadership1 reaction script</t>
+  </si>
+  <si>
+    <t>Leadership1 reaction refusal script</t>
+  </si>
+  <si>
+    <t>Village
+Level</t>
+  </si>
+  <si>
+    <t>Max
+Ref</t>
+  </si>
+  <si>
+    <t>satisfactions
+Refusal</t>
   </si>
 </sst>
 </file>
@@ -1270,25 +1363,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="4"/>
+    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="136" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,49 +1400,55 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
+      <c r="R1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1352,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -1366,36 +1471,41 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="4">
         <v>102</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1407,39 +1517,42 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="4">
         <v>1</v>
       </c>
+      <c r="R3" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1450,34 +1563,40 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="4">
         <v>1</v>
       </c>
+      <c r="R4" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1488,34 +1607,40 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="4">
         <v>1</v>
       </c>
+      <c r="R5" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1526,34 +1651,40 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="4">
         <v>1</v>
       </c>
+      <c r="R6" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1564,34 +1695,40 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
+      <c r="R7" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1602,34 +1739,40 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
+      <c r="R8" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1640,34 +1783,40 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
+      <c r="R9" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1678,34 +1827,40 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="4">
         <v>1</v>
       </c>
+      <c r="R10" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1716,37 +1871,43 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
+      <c r="R11" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1757,34 +1918,40 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="4">
         <v>1</v>
       </c>
+      <c r="R12" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1795,31 +1962,37 @@
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <v>1</v>
       </c>
+      <c r="R13" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1831,39 +2004,42 @@
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="4">
         <v>1</v>
       </c>
+      <c r="R14" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1878,10 +2054,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="4">
         <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1908,56 +2090,59 @@
     <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>71</v>
+      <c r="P1" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1969,30 +2154,33 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2004,19 +2192,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2025,12 +2213,15 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2042,19 +2233,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2063,12 +2254,15 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2080,30 +2274,33 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2115,19 +2312,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2136,12 +2333,15 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2153,19 +2353,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2174,12 +2374,15 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2191,30 +2394,33 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>105</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>109</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2226,101 +2432,110 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="K9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>82</v>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>117</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>122</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -5,23 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/Lemmings/Assets/Script/AI/config_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3017A2-21E2-624C-86E3-F28472FC5538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B3FC9-D06E-B647-A770-1E26EC8490BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
     <sheet name="actors" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
   <si>
     <t>ID</t>
   </si>
@@ -94,79 +107,52 @@
     <t>Strong</t>
   </si>
   <si>
-    <t>HP:2</t>
-  </si>
-  <si>
     <t>LD1-B1</t>
   </si>
   <si>
     <t>MP</t>
   </si>
   <si>
-    <t>MP:2</t>
-  </si>
-  <si>
     <t>LD1-C1</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Gold:2</t>
-  </si>
-  <si>
     <t>LD2-A1</t>
   </si>
   <si>
     <t>Ability1</t>
   </si>
   <si>
-    <t>Ability1:2</t>
-  </si>
-  <si>
     <t>LD2-B1</t>
   </si>
   <si>
     <t>Ability2</t>
   </si>
   <si>
-    <t>Ability2:2</t>
-  </si>
-  <si>
     <t>LD2-C1</t>
   </si>
   <si>
     <t>Ability3</t>
   </si>
   <si>
-    <t>Ability3:2</t>
-  </si>
-  <si>
     <t>LD3-A1</t>
   </si>
   <si>
     <t>Resource1</t>
   </si>
   <si>
-    <t>Resource1:2</t>
-  </si>
-  <si>
     <t>LD3-B1</t>
   </si>
   <si>
     <t>Resource2</t>
   </si>
   <si>
-    <t>Resource2:2</t>
-  </si>
-  <si>
     <t>LD3-C1</t>
   </si>
   <si>
     <t>Resource3</t>
-  </si>
-  <si>
-    <t>Resource3:2</t>
   </si>
   <si>
     <t>LD0-1</t>
@@ -432,9 +418,6 @@
   </si>
   <si>
     <t>SM_Env_GrassPath_Corner_03</t>
-  </si>
-  <si>
-    <t>SM_Env_GrassPath_Straight_04</t>
   </si>
   <si>
     <t>isFly</t>
@@ -452,9 +435,6 @@
 핫도그는 살안쪄요~</t>
   </si>
   <si>
-    <t>HP Script</t>
-  </si>
-  <si>
     <t>MP Script</t>
   </si>
   <si>
@@ -504,6 +484,151 @@
   <si>
     <t>satisfactions
 Refusal</t>
+  </si>
+  <si>
+    <t>ACTOR1-3</t>
+  </si>
+  <si>
+    <t>ACTOR1-4</t>
+  </si>
+  <si>
+    <t>ACTOR1-5</t>
+  </si>
+  <si>
+    <t>ACTOR1-6</t>
+  </si>
+  <si>
+    <t>ACTOR1-7</t>
+  </si>
+  <si>
+    <t>ACTOR1-8</t>
+  </si>
+  <si>
+    <t>ACTOR1-9</t>
+  </si>
+  <si>
+    <t>Actors/actor3</t>
+  </si>
+  <si>
+    <t>Actors/actor4</t>
+  </si>
+  <si>
+    <t>Actors/actor6</t>
+  </si>
+  <si>
+    <t>Actors/actor9</t>
+  </si>
+  <si>
+    <t>포그니</t>
+  </si>
+  <si>
+    <t>김밥이</t>
+  </si>
+  <si>
+    <t>인절미</t>
+  </si>
+  <si>
+    <t>성실이</t>
+  </si>
+  <si>
+    <t>쭈녕이</t>
+  </si>
+  <si>
+    <t>고기봉</t>
+  </si>
+  <si>
+    <t>캬옹이</t>
+  </si>
+  <si>
+    <t>HP,27,50,30
+MP,20,50,21
+Gold,20,50,10
+Ability1,20,50,10
+Ability2,20,50,10
+Ability3,20,50,10
+Resource1,20,50,10
+Resource2,20,50,10
+Resource3,20,50,10
+Sight,20,50,10
+Leadership,0,50,10
+Friendship,0,50,10</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>HP:4</t>
+  </si>
+  <si>
+    <t>MP:4</t>
+  </si>
+  <si>
+    <t>Gold:4</t>
+  </si>
+  <si>
+    <t>Ability1:4,HP:-2</t>
+  </si>
+  <si>
+    <t>Ability2:4,MP:-2</t>
+  </si>
+  <si>
+    <t>Ability3:4,HP:-1,MP-1</t>
+  </si>
+  <si>
+    <t>Resource1:4,Ability1:-2</t>
+  </si>
+  <si>
+    <t>Resource2:4,Ability2:-2</t>
+  </si>
+  <si>
+    <t>Resource3:4,Ability3:-2</t>
+  </si>
+  <si>
+    <t>체력이 올라간다~</t>
+  </si>
+  <si>
+    <t>Actors/npc7</t>
+  </si>
+  <si>
+    <t>Actors/npc5</t>
+  </si>
+  <si>
+    <t>Actors/npc8</t>
+  </si>
+  <si>
+    <t>NPC-104</t>
+  </si>
+  <si>
+    <t>맥주 팔기</t>
+  </si>
+  <si>
+    <t>맥주 팝니다~</t>
+  </si>
+  <si>
+    <t>1,100</t>
+  </si>
+  <si>
+    <t>HP,15,90,85
+MP,0,100,10
+Gold,10,20,100</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,6 +1506,7 @@
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="4"/>
     <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
@@ -1401,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1416,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1434,33 +1560,36 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="S1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -1471,70 +1600,67 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="4">
         <v>102</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+        <v>180</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
       </c>
       <c r="J3">
         <v>-1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1546,10 +1672,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -1563,25 +1686,25 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>120</v>
+      <c r="L4" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1593,7 +1716,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -1607,25 +1733,25 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>121</v>
+      <c r="L5" t="s">
+        <v>111</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="4">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1637,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -1652,24 +1778,24 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="4">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1681,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -1696,24 +1822,24 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1725,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -1740,24 +1866,24 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1769,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -1784,24 +1910,24 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1813,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -1828,24 +1954,24 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="4">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1857,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -1872,27 +1998,24 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1904,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -1919,27 +2042,30 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="4">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1948,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -1963,24 +2089,27 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
       <c r="Q13" s="4">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1989,45 +2118,39 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="4">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -2036,34 +2159,81 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>-1</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>147</v>
-      </c>
-      <c r="S15" t="s">
-        <v>148</v>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2073,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2095,54 +2265,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2154,25 +2324,25 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -2180,7 +2350,7 @@
     </row>
     <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2192,19 +2362,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2213,7 +2383,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -2221,7 +2391,7 @@
     </row>
     <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2233,19 +2403,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2254,15 +2424,15 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2274,25 +2444,25 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -2300,7 +2470,7 @@
     </row>
     <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2312,19 +2482,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2333,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -2341,7 +2511,7 @@
     </row>
     <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2353,19 +2523,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2374,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -2382,7 +2552,7 @@
     </row>
     <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2394,25 +2564,25 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -2420,7 +2590,7 @@
     </row>
     <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2432,39 +2602,39 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2473,39 +2643,39 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2514,27 +2684,314 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2542,4 +2999,151 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
+  <dimension ref="K1:U11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <f>(M2-L2) / (N2-L2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="P2">
+        <f>IF(O2 &lt; 0, O2*2, O2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q2">
+        <f>POWER(P2-O5,2)</f>
+        <v>0.23901234567901233</v>
+      </c>
+    </row>
+    <row r="3" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="0">(M3-L3) / (N3-L3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="1">IF(O3 &lt; 0, O3*2, O3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>POWER(P3-O5,2)</f>
+        <v>7.9012345679012295E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <f>((M4-L4) / (N4-L4))</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="Q4">
+        <f>POWER(P4-O5,2)</f>
+        <v>0.3338271604938271</v>
+      </c>
+    </row>
+    <row r="5" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5">
+        <f>(P2+P3+P4) / 3</f>
+        <v>-8.8888888888888865E-2</v>
+      </c>
+      <c r="Q5">
+        <f>SQRT((Q2+Q3+Q4) /3)</f>
+        <v>0.4399775527382962</v>
+      </c>
+    </row>
+    <row r="7" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7">
+        <f>O5/Q5</f>
+        <v>-0.20203050891044211</v>
+      </c>
+    </row>
+    <row r="9" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <v>-0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <v>-0.17191799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <v>-0.1867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B3FC9-D06E-B647-A770-1E26EC8490BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C919DA6-203F-7549-A3EF-F1373AF36D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -433,12 +433,6 @@
 핫도그 맛있어요~
 웰빙 핫도그 드셔보세요~
 핫도그는 살안쪄요~</t>
-  </si>
-  <si>
-    <t>MP Script</t>
-  </si>
-  <si>
-    <t>Gold Script</t>
   </si>
   <si>
     <t>Ability1 Script</t>
@@ -623,12 +617,16 @@
     <t>맥주 팝니다~</t>
   </si>
   <si>
-    <t>1,100</t>
-  </si>
-  <si>
     <t>HP,15,90,85
 MP,0,100,10
 Gold,10,20,100</t>
+  </si>
+  <si>
+    <t>정신력이 올라간다~</t>
+  </si>
+  <si>
+    <t>돈이 왠수지
+돈벌기는 왜 항상 힘들지</t>
   </si>
 </sst>
 </file>
@@ -1490,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1542,7 +1540,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1560,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>13</v>
@@ -1572,15 +1570,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>183</v>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1617,19 +1615,19 @@
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>183</v>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
         <v>101</v>
@@ -1655,7 +1653,7 @@
         <v>104</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -1681,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1693,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1728,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1740,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="4">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -1784,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="4">
         <v>1</v>
       </c>
-      <c r="R6" t="s">
-        <v>126</v>
+      <c r="R6" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -1828,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -1872,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -1916,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -1960,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="4">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2004,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2048,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="4">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2101,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2142,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2189,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2230,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -2368,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>62</v>
@@ -2409,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>68</v>
@@ -2450,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>73</v>
@@ -2462,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -2661,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -2702,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -2710,7 +2708,7 @@
     </row>
     <row r="12" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2725,13 +2723,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>106</v>
@@ -2743,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -2751,7 +2749,7 @@
     </row>
     <row r="13" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2766,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>106</v>
@@ -2784,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -2792,7 +2790,7 @@
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2807,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2825,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -2833,7 +2831,7 @@
     </row>
     <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2848,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>106</v>
@@ -2866,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -2874,7 +2872,7 @@
     </row>
     <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2889,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2907,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -2915,7 +2913,7 @@
     </row>
     <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2930,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2948,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -2956,7 +2954,7 @@
     </row>
     <row r="18" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2971,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>106</v>
@@ -2989,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -3013,19 +3011,19 @@
   <sheetData>
     <row r="1" spans="11:21" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
         <v>163</v>
-      </c>
-      <c r="N1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="11:21" x14ac:dyDescent="0.2">
@@ -3068,7 +3066,7 @@
         <v>50</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O4" si="0">(M3-L3) / (N3-L3)</f>
+        <f t="shared" ref="O3" si="0">(M3-L3) / (N3-L3)</f>
         <v>0</v>
       </c>
       <c r="P3">
@@ -3108,7 +3106,7 @@
     </row>
     <row r="5" spans="11:21" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
@@ -3121,7 +3119,7 @@
     </row>
     <row r="7" spans="11:21" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O7">
         <f>O5/Q5</f>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C919DA6-203F-7549-A3EF-F1373AF36D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9E12D-FFC0-3B40-A34D-9A9C54EB9C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
     <sheet name="actors" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="quest" sheetId="4" r:id="rId3"/>
+    <sheet name="item" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="256">
   <si>
     <t>ID</t>
   </si>
@@ -627,6 +629,238 @@
   <si>
     <t>돈이 왠수지
 돈벌기는 왜 항상 힘들지</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>installationKey</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Satisfaction:HP,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:MP,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:Ability1,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:Ability2,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:Ability3,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:Resource1,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:Resource2,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:Resource3,16</t>
+  </si>
+  <si>
+    <t>Satisfaction:Sight,4</t>
+  </si>
+  <si>
+    <t>Q1-1-1</t>
+  </si>
+  <si>
+    <t>Q1-2-1</t>
+  </si>
+  <si>
+    <t>Q1-2-2</t>
+  </si>
+  <si>
+    <t>Q1-2-3</t>
+  </si>
+  <si>
+    <t>Q1-3-1</t>
+  </si>
+  <si>
+    <t>Q1-3-2</t>
+  </si>
+  <si>
+    <t>Q1-3-3</t>
+  </si>
+  <si>
+    <t>Q1-0</t>
+  </si>
+  <si>
+    <t>Q1-4</t>
+  </si>
+  <si>
+    <t>Satisfaction:Leadership,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력 +16 </t>
+  </si>
+  <si>
+    <t>정신력 +16</t>
+  </si>
+  <si>
+    <t>생산력1 +16</t>
+  </si>
+  <si>
+    <t>생산력2 +16</t>
+  </si>
+  <si>
+    <t>생산력3 +16</t>
+  </si>
+  <si>
+    <t>자원3 +16</t>
+  </si>
+  <si>
+    <t>자원1 +16</t>
+  </si>
+  <si>
+    <t>자원2 +16</t>
+  </si>
+  <si>
+    <t>시야 +4</t>
+  </si>
+  <si>
+    <t>리더십 +4</t>
+  </si>
+  <si>
+    <t>I1-1-1</t>
+  </si>
+  <si>
+    <t>I1-2-1</t>
+  </si>
+  <si>
+    <t>I1-2-2</t>
+  </si>
+  <si>
+    <t>I1-2-3</t>
+  </si>
+  <si>
+    <t>I1-3-1</t>
+  </si>
+  <si>
+    <t>I1-3-2</t>
+  </si>
+  <si>
+    <t>I1-3-3</t>
+  </si>
+  <si>
+    <t>I1-0</t>
+  </si>
+  <si>
+    <t>I1-4</t>
+  </si>
+  <si>
+    <t>I1-1-1,1</t>
+  </si>
+  <si>
+    <t>I1-2-1,1</t>
+  </si>
+  <si>
+    <t>I1-2-2,1</t>
+  </si>
+  <si>
+    <t>I1-2-3,1</t>
+  </si>
+  <si>
+    <t>I1-3-1,1</t>
+  </si>
+  <si>
+    <t>I1-3-2,1</t>
+  </si>
+  <si>
+    <t>I1-3-3,1</t>
+  </si>
+  <si>
+    <t>I1-0,1</t>
+  </si>
+  <si>
+    <t>I1-4,1</t>
+  </si>
+  <si>
+    <t>Actor  Type</t>
+  </si>
+  <si>
+    <t>퀘스트 보상</t>
+  </si>
+  <si>
+    <t>Q1-1-2</t>
+  </si>
+  <si>
+    <t>I1-1-2,1</t>
+  </si>
+  <si>
+    <t>satisfaction id</t>
+  </si>
+  <si>
+    <t>invoke.type
+IMMEDIATELY = 0,
+INVENTORY</t>
+  </si>
+  <si>
+    <t>invoke.expire
+FOREVER = 0,
+LIMITED</t>
+  </si>
+  <si>
+    <t>satisfaction.min</t>
+  </si>
+  <si>
+    <t>satisfaction.max</t>
+  </si>
+  <si>
+    <t>satisfaction.value</t>
+  </si>
+  <si>
+    <t>satisfaction measure
+min
+ABSOLUTE  = 0,
+PERCENT = 1,
+INCREASE = 2</t>
+  </si>
+  <si>
+    <t>satisfaction measure
+max
+ABSOLUTE  = 0,
+PERCENT = 1,
+INCREASE = 2</t>
+  </si>
+  <si>
+    <t>satisfaction measure
+value
+ABSOLUTE  = 0,
+PERCENT = 1,
+INCREASE = 2</t>
+  </si>
+  <si>
+    <t>보상: 골드 12</t>
+  </si>
+  <si>
+    <t>I1-1-2</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -3000,6 +3234,739 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025DC94A-5521-FF4C-8090-52444EF3C021}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="17" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
   <dimension ref="K1:U11"/>
   <sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9E12D-FFC0-3B40-A34D-9A9C54EB9C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F944A20C-F0B7-2E43-8C0F-13D9F420E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="actors" sheetId="2" r:id="rId2"/>
     <sheet name="quest" sheetId="4" r:id="rId3"/>
     <sheet name="item" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="level" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="304">
   <si>
     <t>ID</t>
   </si>
@@ -862,12 +863,164 @@
   <si>
     <t>I1-1-2</t>
   </si>
+  <si>
+    <t>actor type</t>
+  </si>
+  <si>
+    <t>lv.1</t>
+  </si>
+  <si>
+    <t>next.threshold</t>
+  </si>
+  <si>
+    <t>next.rewards</t>
+  </si>
+  <si>
+    <t>lv.2</t>
+  </si>
+  <si>
+    <t>lv.3</t>
+  </si>
+  <si>
+    <t>lv.4</t>
+  </si>
+  <si>
+    <t>lv.5</t>
+  </si>
+  <si>
+    <t>lv.6</t>
+  </si>
+  <si>
+    <t>lv.7</t>
+  </si>
+  <si>
+    <t>lv.8</t>
+  </si>
+  <si>
+    <t>lv.9</t>
+  </si>
+  <si>
+    <t>lv.10</t>
+  </si>
+  <si>
+    <t>TaskCounter,10</t>
+  </si>
+  <si>
+    <t>TaskCounter,20</t>
+  </si>
+  <si>
+    <t>TaskCounter,40</t>
+  </si>
+  <si>
+    <t>TaskCounter,80</t>
+  </si>
+  <si>
+    <t>TaskCounter,100</t>
+  </si>
+  <si>
+    <t>TaskCounter,200</t>
+  </si>
+  <si>
+    <t>TaskCounter,300</t>
+  </si>
+  <si>
+    <t>TaskCounter,400</t>
+  </si>
+  <si>
+    <t>TaskCounter,500</t>
+  </si>
+  <si>
+    <t>TaskCounter,600</t>
+  </si>
+  <si>
+    <t>LEVELUP-1</t>
+  </si>
+  <si>
+    <t>레벨업보상</t>
+  </si>
+  <si>
+    <t>LEVELUP-1,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-2,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-3,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-4,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-5,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-6,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-7,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-8,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-9,1</t>
+  </si>
+  <si>
+    <t>LEVELUP-10,1</t>
+  </si>
+  <si>
+    <t>HP
+MP
+Gold</t>
+  </si>
+  <si>
+    <t>0
+0
+0</t>
+  </si>
+  <si>
+    <t>5
+5
+5</t>
+  </si>
+  <si>
+    <t>LEVELUP-2</t>
+  </si>
+  <si>
+    <t>LEVELUP-3</t>
+  </si>
+  <si>
+    <t>LEVELUP-4</t>
+  </si>
+  <si>
+    <t>LEVELUP-5</t>
+  </si>
+  <si>
+    <t>LEVELUP-6</t>
+  </si>
+  <si>
+    <t>LEVELUP-7</t>
+  </si>
+  <si>
+    <t>LEVELUP-8</t>
+  </si>
+  <si>
+    <t>LEVELUP-9</t>
+  </si>
+  <si>
+    <t>LEVELUP-10</t>
+  </si>
+  <si>
+    <t>2
+2
+2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1004,6 +1157,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1356,7 +1516,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1365,6 +1525,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1723,7 +1888,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3476,20 +3641,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.5" customWidth="1"/>
     <col min="15" max="17" width="17.33203125" customWidth="1"/>
   </cols>
@@ -3550,413 +3720,823 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>223</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
         <v>242</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="O12" s="7">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="P12" s="7">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="Q12" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>255</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B13" t="s">
         <v>242</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
         <v>12</v>
       </c>
-      <c r="O3">
+      <c r="O13" s="7">
         <v>2</v>
       </c>
-      <c r="P3">
+      <c r="P13" s="7">
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="Q13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>224</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B14" t="s">
         <v>242</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
         <v>12</v>
       </c>
-      <c r="O4">
+      <c r="O14" s="7">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="P14" s="7">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="Q14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B15" t="s">
         <v>242</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
         <v>12</v>
       </c>
-      <c r="O5">
+      <c r="O15" s="7">
         <v>2</v>
       </c>
-      <c r="P5">
+      <c r="P15" s="7">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="Q15" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>226</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B16" t="s">
         <v>242</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
         <v>12</v>
       </c>
-      <c r="O6">
+      <c r="O16" s="7">
         <v>2</v>
       </c>
-      <c r="P6">
+      <c r="P16" s="7">
         <v>2</v>
       </c>
-      <c r="Q6">
+      <c r="Q16" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>227</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
         <v>242</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
         <v>12</v>
       </c>
-      <c r="O7">
+      <c r="O17" s="7">
         <v>2</v>
       </c>
-      <c r="P7">
+      <c r="P17" s="7">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="Q17" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>228</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B18" t="s">
         <v>242</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
         <v>12</v>
       </c>
-      <c r="O8">
+      <c r="O18" s="7">
         <v>2</v>
       </c>
-      <c r="P8">
+      <c r="P18" s="7">
         <v>2</v>
       </c>
-      <c r="Q8">
+      <c r="Q18" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>229</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
         <v>242</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
         <v>12</v>
       </c>
-      <c r="O9">
+      <c r="O19" s="7">
         <v>2</v>
       </c>
-      <c r="P9">
+      <c r="P19" s="7">
         <v>2</v>
       </c>
-      <c r="Q9">
+      <c r="Q19" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>230</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
         <v>242</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
         <v>12</v>
       </c>
-      <c r="O10">
+      <c r="O20" s="7">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="P20" s="7">
         <v>2</v>
       </c>
-      <c r="Q10">
+      <c r="Q20" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>231</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>242</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
         <v>12</v>
       </c>
-      <c r="O11">
+      <c r="O21" s="7">
         <v>2</v>
       </c>
-      <c r="P11">
+      <c r="P21" s="7">
         <v>2</v>
       </c>
-      <c r="Q11">
+      <c r="Q21" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3967,6 +4547,262 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7873D7B5-42F6-EA4D-BE3A-EF8367D067FD}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
   <dimension ref="K1:U11"/>
   <sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F944A20C-F0B7-2E43-8C0F-13D9F420E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE83816-25D4-6D42-BE26-42B9600A54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -1014,6 +1014,54 @@
     <t>2
 2
 2</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;체력 올리기&lt;/size&gt;
+&lt;size=80%&gt;체력을 올린다 &lt;color=#E4CA44&gt;체력 +4&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;점쟁이에게 내가 여기 왜 왔는지 물어보기&lt;/size&gt;
+&lt;size=80%&gt;점쟁이로 부터 정신적 안정감을 얻는다 &lt;color=#E4CA44&gt;정신력 +4&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;돈벌기&lt;/size&gt;
+&lt;size=80%&gt;골드를 벌기위해 일한다  &lt;color=#E4CA44&gt;골드 +4&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;Ability1&lt;/size&gt;
+&lt;size=80%&gt;Ability1을 올린다 &lt;color=#E4CA44&gt;체력 -2&lt;/color&gt;, &lt;color=#428644&gt;Ability1 +4&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;Ability2&lt;/size&gt;
+&lt;size=80%&gt;Ability2을 올린다 &lt;color=#E4CA44&gt;정신력 -2&lt;/color&gt;, &lt;color=#428644&gt;Ability2 +4&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;Ability3&lt;/size&gt;
+&lt;size=80%&gt;Ability3을 올린다 &lt;color=#E4CA44&gt;체력 -1, 정신력 -1&lt;/color&gt;, &lt;color=#428644&gt;Ability3 +4&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;Resource1&lt;/size&gt;
+&lt;size=80%&gt;Resource1 구하기 &lt;color=#E4CA44&gt;Ability1 -2&lt;/color&gt;, &lt;color=#428644&gt;Resource1 +4&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;Resource2&lt;/size&gt;
+&lt;size=80%&gt;Resource2 구하기 &lt;color=#E4CA44&gt;Ability2 -2&lt;/color&gt;, &lt;color=#428644&gt;Resource2 +4&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;Resource3&lt;/size&gt;
+&lt;size=80%&gt;Resource3 구하기 &lt;color=#E4CA44&gt;Ability3 -2&lt;/color&gt;, &lt;color=#428644&gt;Resource3 +4&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;시야 넓히기&lt;/size&gt;
+&lt;size=80%&gt;다른 마을을 보고 온다 &lt;color=#428644&gt;시야 +2&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;리더십키우기&lt;/size&gt;
+&lt;size=80%&gt;주변에 돈많을 사람한테 괜히 말걸기  &lt;color=#428644&gt;리더십 +2&lt;/color&gt; &lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;괜히 말을 걸어왔습니다.&lt;/size&gt;
+&lt;size=80%&gt;받아주면 &lt;color=#E4CA44&gt;친근감 +1&lt;/color&gt;&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1945,7 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
@@ -2055,7 +2103,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2071,6 +2119,9 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2150,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2113,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
         <v>97</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -2162,6 +2213,9 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -2190,7 +2244,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2206,6 +2260,9 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2250,6 +2307,9 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
@@ -2278,7 +2338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2294,6 +2354,9 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -2322,7 +2385,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2338,6 +2401,9 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
@@ -2366,7 +2432,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2382,6 +2448,9 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
@@ -2410,7 +2479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2426,6 +2495,9 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="H12" t="s">
         <v>17</v>
       </c>
@@ -2454,7 +2526,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2472,6 +2544,9 @@
       </c>
       <c r="F13" t="s">
         <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -2517,6 +2592,7 @@
       <c r="F14" t="s">
         <v>38</v>
       </c>
+      <c r="G14" s="1"/>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -2542,7 +2618,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2558,6 +2634,9 @@
       <c r="F15" t="s">
         <v>40</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="H15" t="s">
         <v>41</v>
       </c>
@@ -2589,7 +2668,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2604,6 +2683,9 @@
       </c>
       <c r="F16" t="s">
         <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="H16" t="s">
         <v>41</v>
@@ -3643,7 +3725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE83816-25D4-6D42-BE26-42B9600A54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733308D-B29C-A143-94FF-FB1EE07FBB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -125,48 +125,27 @@
     <t>LD2-A1</t>
   </si>
   <si>
-    <t>Ability1</t>
-  </si>
-  <si>
     <t>LD2-B1</t>
   </si>
   <si>
-    <t>Ability2</t>
-  </si>
-  <si>
     <t>LD2-C1</t>
   </si>
   <si>
-    <t>Ability3</t>
-  </si>
-  <si>
     <t>LD3-A1</t>
   </si>
   <si>
-    <t>Resource1</t>
-  </si>
-  <si>
     <t>LD3-B1</t>
   </si>
   <si>
-    <t>Resource2</t>
-  </si>
-  <si>
     <t>LD3-C1</t>
   </si>
   <si>
-    <t>Resource3</t>
-  </si>
-  <si>
     <t>LD0-1</t>
   </si>
   <si>
     <t>LD0-1-C</t>
   </si>
   <si>
-    <t>Sight1</t>
-  </si>
-  <si>
     <t>Sight:2</t>
   </si>
   <si>
@@ -176,9 +155,6 @@
     <t>LD4-1</t>
   </si>
   <si>
-    <t>Leadership1</t>
-  </si>
-  <si>
     <t>Greeting</t>
   </si>
   <si>
@@ -186,9 +162,6 @@
   </si>
   <si>
     <t>Leadership:2</t>
-  </si>
-  <si>
-    <t>Leadership1 Interaction</t>
   </si>
   <si>
     <t>Friendship:1</t>
@@ -347,9 +320,6 @@
   </si>
   <si>
     <t>PET1-1</t>
-  </si>
-  <si>
-    <t>무당한테 점보기</t>
   </si>
   <si>
     <t>1.Satisfaction.gold:max</t>
@@ -572,33 +542,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>HP:4</t>
-  </si>
-  <si>
-    <t>MP:4</t>
-  </si>
-  <si>
-    <t>Gold:4</t>
-  </si>
-  <si>
-    <t>Ability1:4,HP:-2</t>
-  </si>
-  <si>
-    <t>Ability2:4,MP:-2</t>
-  </si>
-  <si>
-    <t>Ability3:4,HP:-1,MP-1</t>
-  </si>
-  <si>
-    <t>Resource1:4,Ability1:-2</t>
-  </si>
-  <si>
-    <t>Resource2:4,Ability2:-2</t>
-  </si>
-  <si>
-    <t>Resource3:4,Ability3:-2</t>
-  </si>
-  <si>
     <t>체력이 올라간다~</t>
   </si>
   <si>
@@ -903,18 +846,6 @@
     <t>lv.10</t>
   </si>
   <si>
-    <t>TaskCounter,10</t>
-  </si>
-  <si>
-    <t>TaskCounter,20</t>
-  </si>
-  <si>
-    <t>TaskCounter,40</t>
-  </si>
-  <si>
-    <t>TaskCounter,80</t>
-  </si>
-  <si>
     <t>TaskCounter,100</t>
   </si>
   <si>
@@ -1016,52 +947,227 @@
 2</t>
   </si>
   <si>
-    <t>&lt;size=100%&gt;체력 올리기&lt;/size&gt;
-&lt;size=80%&gt;체력을 올린다 &lt;color=#E4CA44&gt;체력 +4&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;점쟁이에게 내가 여기 왜 왔는지 물어보기&lt;/size&gt;
-&lt;size=80%&gt;점쟁이로 부터 정신적 안정감을 얻는다 &lt;color=#E4CA44&gt;정신력 +4&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;돈벌기&lt;/size&gt;
-&lt;size=80%&gt;골드를 벌기위해 일한다  &lt;color=#E4CA44&gt;골드 +4&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;Ability1&lt;/size&gt;
-&lt;size=80%&gt;Ability1을 올린다 &lt;color=#E4CA44&gt;체력 -2&lt;/color&gt;, &lt;color=#428644&gt;Ability1 +4&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;Ability2&lt;/size&gt;
-&lt;size=80%&gt;Ability2을 올린다 &lt;color=#E4CA44&gt;정신력 -2&lt;/color&gt;, &lt;color=#428644&gt;Ability2 +4&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;Ability3&lt;/size&gt;
-&lt;size=80%&gt;Ability3을 올린다 &lt;color=#E4CA44&gt;체력 -1, 정신력 -1&lt;/color&gt;, &lt;color=#428644&gt;Ability3 +4&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;Resource1&lt;/size&gt;
-&lt;size=80%&gt;Resource1 구하기 &lt;color=#E4CA44&gt;Ability1 -2&lt;/color&gt;, &lt;color=#428644&gt;Resource1 +4&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;Resource2&lt;/size&gt;
-&lt;size=80%&gt;Resource2 구하기 &lt;color=#E4CA44&gt;Ability2 -2&lt;/color&gt;, &lt;color=#428644&gt;Resource2 +4&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;Resource3&lt;/size&gt;
-&lt;size=80%&gt;Resource3 구하기 &lt;color=#E4CA44&gt;Ability3 -2&lt;/color&gt;, &lt;color=#428644&gt;Resource3 +4&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;시야 넓히기&lt;/size&gt;
-&lt;size=80%&gt;다른 마을을 보고 온다 &lt;color=#428644&gt;시야 +2&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;리더십키우기&lt;/size&gt;
-&lt;size=80%&gt;주변에 돈많을 사람한테 괜히 말걸기  &lt;color=#428644&gt;리더십 +2&lt;/color&gt; &lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;괜히 말을 걸어왔습니다.&lt;/size&gt;
-&lt;size=80%&gt;받아주면 &lt;color=#E4CA44&gt;친근감 +1&lt;/color&gt;&lt;/size&gt;</t>
+    <t>체력 올리기</t>
+  </si>
+  <si>
+    <t>체력을 올린다</t>
+  </si>
+  <si>
+    <t>점쟁이에게 내가 여기 왜 왔는지 물어보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">점쟁이로 부터 정신적 안정감을 얻는다 </t>
+  </si>
+  <si>
+    <t>돈벌기</t>
+  </si>
+  <si>
+    <t>골드를 벌기위해 일한다</t>
+  </si>
+  <si>
+    <t>생산력1</t>
+  </si>
+  <si>
+    <t>생산력2</t>
+  </si>
+  <si>
+    <t>생산력3</t>
+  </si>
+  <si>
+    <t>자원1</t>
+  </si>
+  <si>
+    <t>자원2</t>
+  </si>
+  <si>
+    <t>자원3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생산력1을 올린다 </t>
+  </si>
+  <si>
+    <t>자원1 구하기</t>
+  </si>
+  <si>
+    <t>시야 넓히기</t>
+  </si>
+  <si>
+    <t>다른 마을을 보고 온다</t>
+  </si>
+  <si>
+    <t>리더십키우기</t>
+  </si>
+  <si>
+    <t>주변에 돈많을 사람한테 괜히 말걸기</t>
+  </si>
+  <si>
+    <t>괜히 말을 걸어왔습니다</t>
+  </si>
+  <si>
+    <t>받아주면</t>
+  </si>
+  <si>
+    <t>HP:4,Gold:-2</t>
+  </si>
+  <si>
+    <t>MP:4,HP:-2</t>
+  </si>
+  <si>
+    <t>Gold:4,MP:-2</t>
+  </si>
+  <si>
+    <t>Ability1:4,HP:-4</t>
+  </si>
+  <si>
+    <t>Ability2:4,MP:-4</t>
+  </si>
+  <si>
+    <t>Ability3:4,HP:-2,MP:-2</t>
+  </si>
+  <si>
+    <t>Resource1:4,Ability1:-6</t>
+  </si>
+  <si>
+    <t>Resource2:4,Ability2:-6</t>
+  </si>
+  <si>
+    <t>Resource3:4,Ability3:-6</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,1</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,2</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,3</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,4</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,5</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,6</t>
+  </si>
+  <si>
+    <t>HP,27,50,8
+MP,20,50,8
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,7</t>
+  </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>TaskCounter,16</t>
+  </si>
+  <si>
+    <t>TaskCounter,8</t>
+  </si>
+  <si>
+    <t>TaskCounter,32</t>
+  </si>
+  <si>
+    <t>TaskCounter,64</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1951,7 +2057,7 @@
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="4"/>
     <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
@@ -1972,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1987,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2005,21 +2111,21 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="S1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2031,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -2051,18 +2157,18 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="4">
         <v>102</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2074,10 +2180,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -2094,16 +2200,16 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="4">
         <v>104</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2117,10 +2223,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -2129,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2164,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -2176,25 +2282,25 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="4">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="51" x14ac:dyDescent="0.2">
@@ -2211,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -2229,22 +2335,22 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="4">
         <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2252,16 +2358,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -2276,39 +2382,39 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -2323,39 +2429,39 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -2370,39 +2476,39 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -2417,39 +2523,39 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="4">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -2464,39 +2570,39 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -2511,42 +2617,42 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="Q12" s="4">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -2561,36 +2667,36 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="4">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
@@ -2606,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2615,30 +2721,30 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2650,27 +2756,27 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="4">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2682,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2703,19 +2809,20 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="4">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="S16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2724,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2744,54 +2851,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2803,25 +2910,25 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -2829,7 +2936,7 @@
     </row>
     <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2841,19 +2948,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2862,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -2870,7 +2977,7 @@
     </row>
     <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2882,19 +2989,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2903,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -2911,7 +3018,7 @@
     </row>
     <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2923,25 +3030,25 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -2949,7 +3056,7 @@
     </row>
     <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2961,19 +3068,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2982,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -2990,7 +3097,7 @@
     </row>
     <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3002,19 +3109,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3023,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -3031,7 +3138,7 @@
     </row>
     <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3043,25 +3150,25 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -3069,7 +3176,7 @@
     </row>
     <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3081,25 +3188,25 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -3107,13 +3214,13 @@
     </row>
     <row r="10" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3122,25 +3229,25 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>157</v>
+        <v>310</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -3148,13 +3255,13 @@
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3163,25 +3270,25 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -3189,13 +3296,13 @@
     </row>
     <row r="12" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -3204,25 +3311,25 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -3230,13 +3337,13 @@
     </row>
     <row r="13" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -3245,25 +3352,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -3271,13 +3378,13 @@
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3286,25 +3393,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -3312,13 +3419,13 @@
     </row>
     <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3327,25 +3434,25 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -3353,13 +3460,13 @@
     </row>
     <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3368,25 +3475,25 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>157</v>
+        <v>316</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -3394,13 +3501,13 @@
     </row>
     <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -3409,25 +3516,25 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -3435,13 +3542,13 @@
     </row>
     <row r="18" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3450,25 +3557,25 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -3497,39 +3604,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
         <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" t="s">
-        <v>232</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3537,19 +3644,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3557,19 +3664,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3577,19 +3684,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3597,19 +3704,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3617,19 +3724,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3637,19 +3744,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3657,19 +3764,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3677,19 +3784,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3697,19 +3804,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3748,476 +3855,476 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="K1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="R1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P2" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P3" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P4" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P5" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P6" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P7" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P8" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P9" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P10" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
         <v>223</v>
-      </c>
-      <c r="B12" t="s">
-        <v>242</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4255,10 +4362,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4296,10 +4403,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4337,10 +4444,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4378,10 +4485,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4419,10 +4526,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4460,10 +4567,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4501,10 +4608,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4542,10 +4649,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4583,10 +4690,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4632,8 +4739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7873D7B5-42F6-EA4D-BE3A-EF8367D067FD}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4645,19 +4752,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4668,13 +4775,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4685,13 +4792,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4702,13 +4809,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4719,13 +4826,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4736,13 +4843,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4753,13 +4860,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4770,13 +4877,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4787,13 +4894,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4804,13 +4911,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4821,13 +4928,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4896,19 +5003,19 @@
   <sheetData>
     <row r="1" spans="11:21" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="O1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="Q1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="11:21" x14ac:dyDescent="0.2">
@@ -4991,7 +5098,7 @@
     </row>
     <row r="5" spans="11:21" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
@@ -5004,7 +5111,7 @@
     </row>
     <row r="7" spans="11:21" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O7">
         <f>O5/Q5</f>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733308D-B29C-A143-94FF-FB1EE07FBB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE482C8-6A45-3648-9092-C9F337AAB7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="336">
   <si>
     <t>ID</t>
   </si>
@@ -1034,7 +1034,82 @@
     <t>Resource3:4,Ability3:-6</t>
   </si>
   <si>
-    <t>HP,27,50,8
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>TaskCounter,16</t>
+  </si>
+  <si>
+    <t>TaskCounter,8</t>
+  </si>
+  <si>
+    <t>TaskCounter,32</t>
+  </si>
+  <si>
+    <t>TaskCounter,64</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>12,8,6</t>
+  </si>
+  <si>
+    <t>16,8,4</t>
+  </si>
+  <si>
+    <t>10,8,10</t>
+  </si>
+  <si>
+    <t>HP,27,50,8</t>
+  </si>
+  <si>
+    <t>MP,20,50,8</t>
+  </si>
+  <si>
+    <t>Gold,20,50,8</t>
+  </si>
+  <si>
+    <t>Ability1,20,50,0</t>
+  </si>
+  <si>
+    <t>Ability2,20,50,0</t>
+  </si>
+  <si>
+    <t>Ability3,20,50,0</t>
+  </si>
+  <si>
+    <t>Resource1,20,50,0</t>
+  </si>
+  <si>
+    <t>Resource2,20,50,0</t>
+  </si>
+  <si>
+    <t>Resource3,20,50,0</t>
+  </si>
+  <si>
+    <t>Sight,20,50,0</t>
+  </si>
+  <si>
+    <t>Leadership,0,50,0</t>
+  </si>
+  <si>
+    <t>Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,20,50,8
 MP,20,50,8
 Gold,20,50,8
 Ability1,20,50,0
@@ -1046,128 +1121,6 @@
 Sight,20,50,0
 Leadership,0,50,0
 Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>HP,27,50,8
-MP,20,50,8
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,1</t>
-  </si>
-  <si>
-    <t>HP,27,50,8
-MP,20,50,8
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,2</t>
-  </si>
-  <si>
-    <t>HP,27,50,8
-MP,20,50,8
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,3</t>
-  </si>
-  <si>
-    <t>HP,27,50,8
-MP,20,50,8
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,4</t>
-  </si>
-  <si>
-    <t>HP,27,50,8
-MP,20,50,8
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,5</t>
-  </si>
-  <si>
-    <t>HP,27,50,8
-MP,20,50,8
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,6</t>
-  </si>
-  <si>
-    <t>HP,27,50,8
-MP,20,50,8
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,7</t>
-  </si>
-  <si>
-    <t>4,10</t>
-  </si>
-  <si>
-    <t>5,10</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
-    <t>3,10</t>
-  </si>
-  <si>
-    <t>TaskCounter,16</t>
-  </si>
-  <si>
-    <t>TaskCounter,8</t>
-  </si>
-  <si>
-    <t>TaskCounter,32</t>
-  </si>
-  <si>
-    <t>TaskCounter,64</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1623,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1682,6 +1635,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2041,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2405,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2452,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2499,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2546,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2593,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2643,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2690,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2724,7 +2680,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2732,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2774,7 +2730,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2831,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -3288,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -3328,8 +3284,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>312</v>
+      <c r="N12" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -3369,8 +3325,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>313</v>
+      <c r="N13" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -3410,8 +3366,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>314</v>
+      <c r="N14" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -3451,8 +3407,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>315</v>
+      <c r="N15" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -3492,8 +3448,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>316</v>
+      <c r="N16" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -3533,8 +3489,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>317</v>
+      <c r="N17" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -4739,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7873D7B5-42F6-EA4D-BE3A-EF8367D067FD}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4778,7 +4734,7 @@
         <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
         <v>258</v>
@@ -4795,7 +4751,7 @@
         <v>241</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
         <v>259</v>
@@ -4812,7 +4768,7 @@
         <v>242</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
         <v>260</v>
@@ -4829,7 +4785,7 @@
         <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
         <v>261</v>
@@ -4993,15 +4949,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
-  <dimension ref="K1:U11"/>
+  <dimension ref="K1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="11:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
         <v>150</v>
       </c>
@@ -5018,7 +4974,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="11:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>16</v>
       </c>
@@ -5026,25 +4982,25 @@
         <v>20</v>
       </c>
       <c r="M2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N2">
         <v>50</v>
       </c>
       <c r="O2">
         <f>(M2-L2) / (N2-L2)</f>
-        <v>0.4</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="P2">
         <f>IF(O2 &lt; 0, O2*2, O2)</f>
-        <v>0.4</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="Q2">
         <f>POWER(P2-O5,2)</f>
-        <v>0.23901234567901233</v>
-      </c>
-    </row>
-    <row r="3" spans="11:21" x14ac:dyDescent="0.2">
+        <v>1.9753086419753143E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>19</v>
       </c>
@@ -5052,25 +5008,25 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>50</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3" si="0">(M3-L3) / (N3-L3)</f>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P4" si="1">IF(O3 &lt; 0, O3*2, O3)</f>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="Q3">
         <f>POWER(P3-O5,2)</f>
-        <v>7.9012345679012295E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="11:21" x14ac:dyDescent="0.2">
+        <v>7.9012345679012382E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>21</v>
       </c>
@@ -5093,44 +5049,144 @@
       </c>
       <c r="Q4">
         <f>POWER(P4-O5,2)</f>
-        <v>0.3338271604938271</v>
-      </c>
-    </row>
-    <row r="5" spans="11:21" x14ac:dyDescent="0.2">
+        <v>1.9753086419753143E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>148</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
-        <v>-8.8888888888888865E-2</v>
+        <v>-0.71111111111111114</v>
+      </c>
+      <c r="P5" t="s">
+        <v>318</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
-        <v>0.4399775527382962</v>
-      </c>
-    </row>
-    <row r="7" spans="11:21" x14ac:dyDescent="0.2">
+        <v>6.2853936105470937E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>154</v>
       </c>
       <c r="O7">
-        <f>O5/Q5</f>
-        <v>-0.20203050891044211</v>
-      </c>
-    </row>
-    <row r="9" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="U9">
-        <v>-0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="U10">
-        <v>-0.17191799999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="U11">
-        <v>-0.1867</v>
+        <f>O5/POWER(Q5,2)</f>
+        <v>-179.99999999999972</v>
+      </c>
+    </row>
+    <row r="8" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q9">
+        <v>-0.8</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q10">
+        <v>-0.755</v>
+      </c>
+      <c r="R10">
+        <v>0.16628999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q11">
+        <v>-0.71099999999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q12">
+        <v>-0.71099999999999997</v>
+      </c>
+      <c r="R12">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE482C8-6A45-3648-9092-C9F337AAB7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C356DCF-344F-CC49-A642-06C27E24FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="342">
   <si>
     <t>ID</t>
   </si>
@@ -356,17 +356,6 @@
   </si>
   <si>
     <t>Actors/actor2</t>
-  </si>
-  <si>
-    <t>SM_Env_Road_ParkingLines_01
-SM_Env_Road_ParkingLines_02
-SM_Env_Road_ParkingLines_03</t>
-  </si>
-  <si>
-    <t>SM_Env_Sidewalk_34</t>
-  </si>
-  <si>
-    <t>SM_Env_Grass_01</t>
   </si>
   <si>
     <t>SM_Env_Grass_03 (2)</t>
@@ -542,12 +531,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>체력이 올라간다~</t>
-  </si>
-  <si>
-    <t>Actors/npc7</t>
-  </si>
-  <si>
     <t>Actors/npc5</t>
   </si>
   <si>
@@ -566,13 +549,6 @@
     <t>HP,15,90,85
 MP,0,100,10
 Gold,10,20,100</t>
-  </si>
-  <si>
-    <t>정신력이 올라간다~</t>
-  </si>
-  <si>
-    <t>돈이 왠수지
-돈벌기는 왜 항상 힘들지</t>
   </si>
   <si>
     <t>id</t>
@@ -947,18 +923,6 @@
 2</t>
   </si>
   <si>
-    <t>체력 올리기</t>
-  </si>
-  <si>
-    <t>체력을 올린다</t>
-  </si>
-  <si>
-    <t>점쟁이에게 내가 여기 왜 왔는지 물어보기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">점쟁이로 부터 정신적 안정감을 얻는다 </t>
-  </si>
-  <si>
     <t>돈벌기</t>
   </si>
   <si>
@@ -1065,12 +1029,6 @@
   </si>
   <si>
     <t>12,8,6</t>
-  </si>
-  <si>
-    <t>16,8,4</t>
-  </si>
-  <si>
-    <t>10,8,10</t>
   </si>
   <si>
     <t>HP,27,50,8</t>
@@ -1121,6 +1079,152 @@
 Sight,20,50,0
 Leadership,0,50,0
 Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>6,8,12</t>
+  </si>
+  <si>
+    <t>HP,20,50,10
+MP,20,50,6
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,20,50,8
+MP,20,50,10
+Gold,20,50,6
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,20,50,6
+MP,20,50,8
+Gold,20,50,10
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,20,50,12
+MP,20,50,4
+Gold,20,50,8
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,20,50,8
+MP,20,50,12
+Gold,20,50,4
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,20,50,4
+MP,20,50,8
+Gold,20,50,12
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>HP,20,50,6
+MP,20,50,6
+Gold,20,50,12
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,0
+Resource2,20,50,0
+Resource3,20,50,0
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>핫도그 사먹기</t>
+  </si>
+  <si>
+    <t>핫도그는 맛잇옹!
+핫도그 하나 주세요~
+어서 핫도그 주세요! \n현기증 나요~
+ 핫!핫!핫도그 주세요!</t>
+  </si>
+  <si>
+    <t>Actors/npc6</t>
+  </si>
+  <si>
+    <t>고래 보고 힐링하기</t>
+  </si>
+  <si>
+    <t>하늘을 나는 고래를 보며 힐링한다</t>
+  </si>
+  <si>
+    <t>HandUp</t>
+  </si>
+  <si>
+    <t>102.5,0,-80
+106,9,-120</t>
+  </si>
+  <si>
+    <t>와~ 고래다~                
+ 고래야~ 내 소원 꼭 들어줘~
+고래야 행복해야해~
+오~ 하늘을 나는 고래다~ \n완전 신기해~</t>
+  </si>
+  <si>
+    <t>땅파서 부자될거야
+돈땜에 한다..
+돈...돈..</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_Panel_03
+SM_Env_Sidewalk_48
+SM_Env_Sidewalk_61
+SM_Env_Sidewalk_Straight_94</t>
+  </si>
+  <si>
+    <t>Digging</t>
   </si>
 </sst>
 </file>
@@ -1997,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2006,17 +2110,17 @@
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
     <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="4"/>
-    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.33203125" customWidth="1"/>
     <col min="19" max="19" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2034,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2049,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2067,16 +2171,16 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,12 +2223,12 @@
         <v>102</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2136,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
         <v>91</v>
@@ -2162,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2179,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -2194,25 +2298,25 @@
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="4">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="R4" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2226,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2241,25 +2345,25 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="4">
         <v>1</v>
       </c>
-      <c r="R5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="R5" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2273,13 +2377,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2291,19 +2395,19 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="4">
         <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2314,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -2338,19 +2442,19 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2361,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -2385,19 +2489,19 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2408,16 +2512,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -2432,19 +2536,19 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -2455,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -2479,19 +2583,19 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="4">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2502,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -2526,19 +2630,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2549,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -2573,19 +2677,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="4">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2599,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -2623,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2635,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2646,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2668,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2677,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2688,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
@@ -2727,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -2744,10 +2848,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H16" t="s">
         <v>33</v>
@@ -2771,10 +2875,10 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2787,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2849,7 +2953,7 @@
         <v>49</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -2910,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>53</v>
@@ -2951,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>59</v>
@@ -2992,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>64</v>
@@ -3004,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -3203,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -3244,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -3252,7 +3356,7 @@
     </row>
     <row r="12" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3267,13 +3371,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>96</v>
@@ -3285,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -3293,7 +3397,7 @@
     </row>
     <row r="13" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3308,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>96</v>
@@ -3326,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -3334,7 +3438,7 @@
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3349,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3367,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -3375,7 +3479,7 @@
     </row>
     <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3390,13 +3494,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>96</v>
@@ -3408,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -3416,7 +3520,7 @@
     </row>
     <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3431,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3449,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -3457,7 +3561,7 @@
     </row>
     <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3472,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3490,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -3498,7 +3602,7 @@
     </row>
     <row r="18" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3513,13 +3617,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>96</v>
@@ -3531,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -3560,39 +3664,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3600,19 +3704,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3620,19 +3724,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3640,19 +3744,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3660,19 +3764,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3680,19 +3784,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3700,19 +3804,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3720,19 +3824,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3740,19 +3844,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3760,19 +3864,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3811,16 +3915,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>40</v>
@@ -3829,48 +3933,48 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="R1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3885,33 +3989,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3926,33 +4030,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3967,74 +4071,74 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="P5" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4049,33 +4153,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4090,33 +4194,33 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4131,33 +4235,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4172,33 +4276,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4213,33 +4317,33 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4254,33 +4358,33 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4318,10 +4422,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4359,10 +4463,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4400,10 +4504,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4441,10 +4545,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4482,10 +4586,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4523,10 +4627,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4564,10 +4668,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4605,10 +4709,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4646,10 +4750,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4708,19 +4812,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4731,13 +4835,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4748,13 +4852,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4765,13 +4869,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4782,13 +4886,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4799,13 +4903,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4816,13 +4920,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4833,13 +4937,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4850,13 +4954,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4867,13 +4971,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4884,13 +4988,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4952,26 +5056,26 @@
   <dimension ref="K1:R37"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" t="s">
         <v>150</v>
-      </c>
-      <c r="M1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="11:18" x14ac:dyDescent="0.2">
@@ -4982,22 +5086,22 @@
         <v>20</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O2">
         <f>(M2-L2) / (N2-L2)</f>
-        <v>-0.33333333333333331</v>
+        <v>-0.35</v>
       </c>
       <c r="P2">
         <f>IF(O2 &lt; 0, O2*2, O2)</f>
-        <v>-0.66666666666666663</v>
+        <v>-0.7</v>
       </c>
       <c r="Q2">
         <f>POWER(P2-O5,2)</f>
-        <v>1.9753086419753143E-3</v>
+        <v>4.9382716049382858E-4</v>
       </c>
     </row>
     <row r="3" spans="11:18" x14ac:dyDescent="0.2">
@@ -5023,7 +5127,7 @@
       </c>
       <c r="Q3">
         <f>POWER(P3-O5,2)</f>
-        <v>7.9012345679012382E-3</v>
+        <v>1.49382716049383E-2</v>
       </c>
     </row>
     <row r="4" spans="11:18" x14ac:dyDescent="0.2">
@@ -5034,159 +5138,139 @@
         <v>20</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>50</v>
       </c>
       <c r="O4">
         <f>((M4-L4) / (N4-L4))</f>
-        <v>-0.33333333333333331</v>
+        <v>-0.26666666666666666</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>-0.66666666666666663</v>
+        <v>-0.53333333333333333</v>
       </c>
       <c r="Q4">
         <f>POWER(P4-O5,2)</f>
-        <v>1.9753086419753143E-3</v>
+        <v>2.0864197530864177E-2</v>
       </c>
     </row>
     <row r="5" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
-        <v>-0.71111111111111114</v>
+        <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
-        <v>6.2853936105470937E-2</v>
+        <v>0.10999438818457408</v>
       </c>
     </row>
     <row r="7" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O7">
         <f>O5/POWER(Q5,2)</f>
-        <v>-179.99999999999972</v>
+        <v>-56.02040816326528</v>
       </c>
     </row>
     <row r="8" spans="11:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="11:18" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="Q9">
-        <v>-0.8</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
+        <v>-0.73299999999999998</v>
       </c>
     </row>
     <row r="10" spans="11:18" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="Q10">
-        <v>-0.755</v>
-      </c>
-      <c r="R10">
-        <v>0.16628999999999999</v>
+        <v>-0.71099999999999997</v>
       </c>
     </row>
     <row r="11" spans="11:18" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q11">
-        <v>-0.71099999999999997</v>
-      </c>
-      <c r="R11">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="P12" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q12">
-        <v>-0.71099999999999997</v>
-      </c>
-      <c r="R12">
-        <v>6.2799999999999995E-2</v>
+        <v>-0.67700000000000005</v>
       </c>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K34" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K36" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C356DCF-344F-CC49-A642-06C27E24FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF54D62-A939-6642-871E-4F2F6384A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="item" sheetId="5" r:id="rId4"/>
     <sheet name="level" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="377">
   <si>
     <t>ID</t>
   </si>
@@ -1225,6 +1226,111 @@
   </si>
   <si>
     <t>Digging</t>
+  </si>
+  <si>
+    <t>음식 만들기</t>
+  </si>
+  <si>
+    <t>광장에서 그룹 체조</t>
+  </si>
+  <si>
+    <t>너굴포털 마일리지 적립</t>
+  </si>
+  <si>
+    <t>신상템 확인, 구입</t>
+  </si>
+  <si>
+    <t>재활용함 확인</t>
+  </si>
+  <si>
+    <t>모닝 커피 한잔!</t>
+  </si>
+  <si>
+    <t>토용 조각 캐기</t>
+  </si>
+  <si>
+    <t>각종 재료 구해놓기</t>
+  </si>
+  <si>
+    <t>주민에게 레시피 받기</t>
+  </si>
+  <si>
+    <t>상점에서 신상템 사기</t>
+  </si>
+  <si>
+    <t>파니의 광장 들르기</t>
+  </si>
+  <si>
+    <t>파니의 광장 들르기2</t>
+  </si>
+  <si>
+    <t>해피홈 파라다이스 일하기</t>
+  </si>
+  <si>
+    <t>포키로 신상템 구입하기</t>
+  </si>
+  <si>
+    <t>신상템 배치 해보기</t>
+  </si>
+  <si>
+    <t>집에 온 주민과 놀아주기</t>
+  </si>
+  <si>
+    <t>갑돌이 배 타고 섬 가기</t>
+  </si>
+  <si>
+    <t>농작물과 토용조각에 물 주기</t>
+  </si>
+  <si>
+    <t>오후의 감성 커피타임</t>
+  </si>
+  <si>
+    <t>너굴포털에서 섬 뉴스 읽어보기</t>
+  </si>
+  <si>
+    <t>아이템</t>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>섬 한바퀴 돌아보기(인사하기)</t>
+  </si>
+  <si>
+    <t>채집(랜덤확율)</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>상점, animation, 가챠뽑기</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>다른 actor가 접근할 기회를 제공.</t>
+  </si>
+  <si>
+    <t>던전</t>
+  </si>
+  <si>
+    <t>item-1</t>
+  </si>
+  <si>
+    <t>test item</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>item-1,10,false</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -2551,7 +2657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2891,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2904,6 +3010,7 @@
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3308,6 +3415,9 @@
       </c>
       <c r="N10" s="1" t="s">
         <v>322</v>
+      </c>
+      <c r="O10" t="s">
+        <v>376</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -3890,16 +4000,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
@@ -4786,6 +4896,56 @@
         <v>2</v>
       </c>
       <c r="Q21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22" t="s">
+        <v>374</v>
+      </c>
+      <c r="E22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>12</v>
+      </c>
+      <c r="O22" s="7">
+        <v>2</v>
+      </c>
+      <c r="P22" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="7">
         <v>2</v>
       </c>
     </row>
@@ -5276,4 +5436,186 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C2200-8081-644A-AB13-9EC51CCA238B}">
+  <dimension ref="I2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>349</v>
+      </c>
+      <c r="J10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>355</v>
+      </c>
+      <c r="J16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>357</v>
+      </c>
+      <c r="J18" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF54D62-A939-6642-871E-4F2F6384A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525D1BF-614F-0C4F-9432-1B1915041F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="452">
   <si>
     <t>ID</t>
   </si>
@@ -1330,7 +1330,257 @@
     <t>t</t>
   </si>
   <si>
-    <t>item-1,10,false</t>
+    <t>item-2</t>
+  </si>
+  <si>
+    <t>item-3</t>
+  </si>
+  <si>
+    <t>item-4</t>
+  </si>
+  <si>
+    <t>item-5</t>
+  </si>
+  <si>
+    <t>item-6</t>
+  </si>
+  <si>
+    <t>item-7</t>
+  </si>
+  <si>
+    <t>item-8</t>
+  </si>
+  <si>
+    <t>item-9</t>
+  </si>
+  <si>
+    <t>item-10</t>
+  </si>
+  <si>
+    <t>item-11</t>
+  </si>
+  <si>
+    <t>item-12</t>
+  </si>
+  <si>
+    <t>item-13</t>
+  </si>
+  <si>
+    <t>item-14</t>
+  </si>
+  <si>
+    <t>item-15</t>
+  </si>
+  <si>
+    <t>item-16</t>
+  </si>
+  <si>
+    <t>item-17</t>
+  </si>
+  <si>
+    <t>item-18</t>
+  </si>
+  <si>
+    <t>item-19</t>
+  </si>
+  <si>
+    <t>item-20</t>
+  </si>
+  <si>
+    <t>item-21</t>
+  </si>
+  <si>
+    <t>item-22</t>
+  </si>
+  <si>
+    <t>item-23</t>
+  </si>
+  <si>
+    <t>item-24</t>
+  </si>
+  <si>
+    <t>item-25</t>
+  </si>
+  <si>
+    <t>item-26</t>
+  </si>
+  <si>
+    <t>item-27</t>
+  </si>
+  <si>
+    <t>item-28</t>
+  </si>
+  <si>
+    <t>item-29</t>
+  </si>
+  <si>
+    <t>item-30</t>
+  </si>
+  <si>
+    <t>item-31</t>
+  </si>
+  <si>
+    <t>item-32</t>
+  </si>
+  <si>
+    <t>item-33</t>
+  </si>
+  <si>
+    <t>item-34</t>
+  </si>
+  <si>
+    <t>item-35</t>
+  </si>
+  <si>
+    <t>item-36</t>
+  </si>
+  <si>
+    <t>item-37</t>
+  </si>
+  <si>
+    <t>item-38</t>
+  </si>
+  <si>
+    <t>test item1</t>
+  </si>
+  <si>
+    <t>test item2</t>
+  </si>
+  <si>
+    <t>test item3</t>
+  </si>
+  <si>
+    <t>test item4</t>
+  </si>
+  <si>
+    <t>test item5</t>
+  </si>
+  <si>
+    <t>test item6</t>
+  </si>
+  <si>
+    <t>test item7</t>
+  </si>
+  <si>
+    <t>test item8</t>
+  </si>
+  <si>
+    <t>test item9</t>
+  </si>
+  <si>
+    <t>test item10</t>
+  </si>
+  <si>
+    <t>test item11</t>
+  </si>
+  <si>
+    <t>test item12</t>
+  </si>
+  <si>
+    <t>test item13</t>
+  </si>
+  <si>
+    <t>test item14</t>
+  </si>
+  <si>
+    <t>test item15</t>
+  </si>
+  <si>
+    <t>test item16</t>
+  </si>
+  <si>
+    <t>test item17</t>
+  </si>
+  <si>
+    <t>test item18</t>
+  </si>
+  <si>
+    <t>test item19</t>
+  </si>
+  <si>
+    <t>test item20</t>
+  </si>
+  <si>
+    <t>test item21</t>
+  </si>
+  <si>
+    <t>test item22</t>
+  </si>
+  <si>
+    <t>test item23</t>
+  </si>
+  <si>
+    <t>test item24</t>
+  </si>
+  <si>
+    <t>test item25</t>
+  </si>
+  <si>
+    <t>test item26</t>
+  </si>
+  <si>
+    <t>test item27</t>
+  </si>
+  <si>
+    <t>test item28</t>
+  </si>
+  <si>
+    <t>test item29</t>
+  </si>
+  <si>
+    <t>test item30</t>
+  </si>
+  <si>
+    <t>test item31</t>
+  </si>
+  <si>
+    <t>test item32</t>
+  </si>
+  <si>
+    <t>test item33</t>
+  </si>
+  <si>
+    <t>test item34</t>
+  </si>
+  <si>
+    <t>test item35</t>
+  </si>
+  <si>
+    <t>test item36</t>
+  </si>
+  <si>
+    <t>test item37</t>
+  </si>
+  <si>
+    <t>test item38</t>
+  </si>
+  <si>
+    <t>item-1,10,false
+item-2,10,false
+item-3,10,false
+item-4,10,false
+item-5,10,false
+item-6,10,false
+item-7,10,false
+item-8,10,false
+item-9,10,false
+item-10,10,false
+item-11,10,false
+item-12,10,false
+item-13,10,false
+item-14,10,false
+item-15,10,false
+item-16,10,false
+item-17,10,false
+item-18,10,false
+item-19,10,false
+item-20,10,false
+item-21,10,false
+item-22,10,false
+item-23,10,false
+item-24,10,false
+item-25,10,false
+item-26,10,false</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -2216,8 +2466,8 @@
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
@@ -2226,7 +2476,7 @@
     <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="4"/>
-    <col min="18" max="18" width="50.33203125" customWidth="1"/>
+    <col min="18" max="18" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2997,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3010,7 +3260,7 @@
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3379,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3416,8 +3666,8 @@
       <c r="N10" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="O10" t="s">
-        <v>376</v>
+      <c r="O10" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -4000,10 +4250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4904,7 +5154,7 @@
         <v>372</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="C22" t="s">
         <v>373</v>
@@ -4946,6 +5196,1856 @@
         <v>2</v>
       </c>
       <c r="Q22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12</v>
+      </c>
+      <c r="O23" s="7">
+        <v>2</v>
+      </c>
+      <c r="P23" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>12</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2</v>
+      </c>
+      <c r="P24" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>12</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>12</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>12</v>
+      </c>
+      <c r="O27" s="7">
+        <v>2</v>
+      </c>
+      <c r="P27" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>12</v>
+      </c>
+      <c r="O28" s="7">
+        <v>2</v>
+      </c>
+      <c r="P28" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>382</v>
+      </c>
+      <c r="B29" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>12</v>
+      </c>
+      <c r="O29" s="7">
+        <v>2</v>
+      </c>
+      <c r="P29" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>12</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2</v>
+      </c>
+      <c r="P30" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>12</v>
+      </c>
+      <c r="O31" s="7">
+        <v>2</v>
+      </c>
+      <c r="P31" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32" t="s">
+        <v>375</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>12</v>
+      </c>
+      <c r="O32" s="7">
+        <v>2</v>
+      </c>
+      <c r="P32" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33" t="s">
+        <v>375</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>12</v>
+      </c>
+      <c r="O33" s="7">
+        <v>2</v>
+      </c>
+      <c r="P33" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34" t="s">
+        <v>375</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>12</v>
+      </c>
+      <c r="O34" s="7">
+        <v>2</v>
+      </c>
+      <c r="P34" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>388</v>
+      </c>
+      <c r="B35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" t="s">
+        <v>375</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>12</v>
+      </c>
+      <c r="O35" s="7">
+        <v>2</v>
+      </c>
+      <c r="P35" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" t="s">
+        <v>374</v>
+      </c>
+      <c r="E36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>12</v>
+      </c>
+      <c r="O36" s="7">
+        <v>2</v>
+      </c>
+      <c r="P36" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" t="s">
+        <v>375</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>12</v>
+      </c>
+      <c r="O37" s="7">
+        <v>2</v>
+      </c>
+      <c r="P37" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>12</v>
+      </c>
+      <c r="O38" s="7">
+        <v>2</v>
+      </c>
+      <c r="P38" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>392</v>
+      </c>
+      <c r="B39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" t="s">
+        <v>375</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>12</v>
+      </c>
+      <c r="O39" s="7">
+        <v>2</v>
+      </c>
+      <c r="P39" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
+      <c r="D40" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" t="s">
+        <v>375</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>12</v>
+      </c>
+      <c r="O40" s="7">
+        <v>2</v>
+      </c>
+      <c r="P40" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" t="s">
+        <v>374</v>
+      </c>
+      <c r="E41" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>12</v>
+      </c>
+      <c r="O41" s="7">
+        <v>2</v>
+      </c>
+      <c r="P41" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>395</v>
+      </c>
+      <c r="B42" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" t="s">
+        <v>374</v>
+      </c>
+      <c r="E42" t="s">
+        <v>375</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>12</v>
+      </c>
+      <c r="O42" s="7">
+        <v>2</v>
+      </c>
+      <c r="P42" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>396</v>
+      </c>
+      <c r="B43" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>12</v>
+      </c>
+      <c r="O43" s="7">
+        <v>2</v>
+      </c>
+      <c r="P43" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" t="s">
+        <v>374</v>
+      </c>
+      <c r="E44" t="s">
+        <v>375</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>12</v>
+      </c>
+      <c r="O44" s="7">
+        <v>2</v>
+      </c>
+      <c r="P44" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>398</v>
+      </c>
+      <c r="B45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45" t="s">
+        <v>374</v>
+      </c>
+      <c r="E45" t="s">
+        <v>375</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>12</v>
+      </c>
+      <c r="O45" s="7">
+        <v>2</v>
+      </c>
+      <c r="P45" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>399</v>
+      </c>
+      <c r="B46" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46" t="s">
+        <v>375</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>12</v>
+      </c>
+      <c r="O46" s="7">
+        <v>2</v>
+      </c>
+      <c r="P46" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" t="s">
+        <v>438</v>
+      </c>
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" t="s">
+        <v>374</v>
+      </c>
+      <c r="E47" t="s">
+        <v>375</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>12</v>
+      </c>
+      <c r="O47" s="7">
+        <v>2</v>
+      </c>
+      <c r="P47" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>401</v>
+      </c>
+      <c r="B48" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" t="s">
+        <v>375</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>12</v>
+      </c>
+      <c r="O48" s="7">
+        <v>2</v>
+      </c>
+      <c r="P48" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" t="s">
+        <v>374</v>
+      </c>
+      <c r="E49" t="s">
+        <v>375</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>12</v>
+      </c>
+      <c r="O49" s="7">
+        <v>2</v>
+      </c>
+      <c r="P49" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>403</v>
+      </c>
+      <c r="B50" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50" t="s">
+        <v>374</v>
+      </c>
+      <c r="E50" t="s">
+        <v>375</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>12</v>
+      </c>
+      <c r="O50" s="7">
+        <v>2</v>
+      </c>
+      <c r="P50" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" t="s">
+        <v>374</v>
+      </c>
+      <c r="E51" t="s">
+        <v>375</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>12</v>
+      </c>
+      <c r="O51" s="7">
+        <v>2</v>
+      </c>
+      <c r="P51" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>405</v>
+      </c>
+      <c r="B52" t="s">
+        <v>443</v>
+      </c>
+      <c r="C52" t="s">
+        <v>373</v>
+      </c>
+      <c r="D52" t="s">
+        <v>374</v>
+      </c>
+      <c r="E52" t="s">
+        <v>375</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>12</v>
+      </c>
+      <c r="O52" s="7">
+        <v>2</v>
+      </c>
+      <c r="P52" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" t="s">
+        <v>444</v>
+      </c>
+      <c r="C53" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" t="s">
+        <v>374</v>
+      </c>
+      <c r="E53" t="s">
+        <v>375</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>12</v>
+      </c>
+      <c r="O53" s="7">
+        <v>2</v>
+      </c>
+      <c r="P53" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>407</v>
+      </c>
+      <c r="B54" t="s">
+        <v>445</v>
+      </c>
+      <c r="C54" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>12</v>
+      </c>
+      <c r="O54" s="7">
+        <v>2</v>
+      </c>
+      <c r="P54" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>408</v>
+      </c>
+      <c r="B55" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" t="s">
+        <v>373</v>
+      </c>
+      <c r="D55" t="s">
+        <v>374</v>
+      </c>
+      <c r="E55" t="s">
+        <v>375</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>12</v>
+      </c>
+      <c r="O55" s="7">
+        <v>2</v>
+      </c>
+      <c r="P55" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>409</v>
+      </c>
+      <c r="B56" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" t="s">
+        <v>374</v>
+      </c>
+      <c r="E56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>12</v>
+      </c>
+      <c r="O56" s="7">
+        <v>2</v>
+      </c>
+      <c r="P56" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B57" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" t="s">
+        <v>373</v>
+      </c>
+      <c r="D57" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" t="s">
+        <v>375</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>12</v>
+      </c>
+      <c r="O57" s="7">
+        <v>2</v>
+      </c>
+      <c r="P57" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" t="s">
+        <v>373</v>
+      </c>
+      <c r="D58" t="s">
+        <v>374</v>
+      </c>
+      <c r="E58" t="s">
+        <v>375</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>12</v>
+      </c>
+      <c r="O58" s="7">
+        <v>2</v>
+      </c>
+      <c r="P58" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>412</v>
+      </c>
+      <c r="B59" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>12</v>
+      </c>
+      <c r="O59" s="7">
+        <v>2</v>
+      </c>
+      <c r="P59" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="7">
         <v>2</v>
       </c>
     </row>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525D1BF-614F-0C4F-9432-1B1915041F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCBB3E7-E95A-994F-BAED-2A018E516BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="454">
   <si>
     <t>ID</t>
   </si>
@@ -1581,6 +1581,14 @@
 item-24,10,false
 item-25,10,false
 item-26,10,false</t>
+  </si>
+  <si>
+    <t>Item
+itemid,quantity,당첨범위,전체범위</t>
+  </si>
+  <si>
+    <t>item-1,3,10,10
+item-2,1,50,100</t>
   </si>
 </sst>
 </file>
@@ -2455,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2475,12 +2483,13 @@
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
     <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="4"/>
-    <col min="18" max="18" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="4"/>
+    <col min="19" max="19" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2529,17 +2538,20 @@
       <c r="P1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>109</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -2575,14 +2587,14 @@
       <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>102</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -2618,14 +2630,14 @@
       <c r="O3" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>104</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2665,14 +2677,14 @@
       <c r="O4" t="s">
         <v>290</v>
       </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2712,14 +2724,14 @@
       <c r="O5" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2759,14 +2771,17 @@
       <c r="O6" t="s">
         <v>292</v>
       </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2806,14 +2821,14 @@
       <c r="O7" t="s">
         <v>293</v>
       </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2853,14 +2868,14 @@
       <c r="O8" t="s">
         <v>294</v>
       </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2900,14 +2915,14 @@
       <c r="O9" t="s">
         <v>295</v>
       </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2947,14 +2962,14 @@
       <c r="O10" t="s">
         <v>296</v>
       </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2994,14 +3009,14 @@
       <c r="O11" t="s">
         <v>297</v>
       </c>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3041,14 +3056,14 @@
       <c r="O12" t="s">
         <v>298</v>
       </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3091,14 +3106,14 @@
       <c r="O13" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3133,14 +3148,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="Q14" s="4">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3183,14 +3198,14 @@
       <c r="O15" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3227,13 +3242,13 @@
       <c r="O16" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="4">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
         <v>121</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3247,7 +3262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCBB3E7-E95A-994F-BAED-2A018E516BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C551C0-55B9-A44D-AB6A-49995CBA9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="498">
   <si>
     <t>ID</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>trigger.value</t>
-  </si>
-  <si>
-    <t>inventory</t>
   </si>
   <si>
     <t>NPC2-1</t>
@@ -939,21 +936,9 @@
     <t>생산력3</t>
   </si>
   <si>
-    <t>자원1</t>
-  </si>
-  <si>
-    <t>자원2</t>
-  </si>
-  <si>
-    <t>자원3</t>
-  </si>
-  <si>
     <t xml:space="preserve">생산력1을 올린다 </t>
   </si>
   <si>
-    <t>자원1 구하기</t>
-  </si>
-  <si>
     <t>시야 넓히기</t>
   </si>
   <si>
@@ -990,15 +975,6 @@
     <t>Ability3:4,HP:-2,MP:-2</t>
   </si>
   <si>
-    <t>Resource1:4,Ability1:-6</t>
-  </si>
-  <si>
-    <t>Resource2:4,Ability2:-6</t>
-  </si>
-  <si>
-    <t>Resource3:4,Ability3:-6</t>
-  </si>
-  <si>
     <t>4,10</t>
   </si>
   <si>
@@ -1068,9 +1044,543 @@
     <t>Friendship,0,50,0</t>
   </si>
   <si>
-    <t>HP,20,50,8
+    <t>6,8,12</t>
+  </si>
+  <si>
+    <t>핫도그 사먹기</t>
+  </si>
+  <si>
+    <t>핫도그는 맛잇옹!
+핫도그 하나 주세요~
+어서 핫도그 주세요! \n현기증 나요~
+ 핫!핫!핫도그 주세요!</t>
+  </si>
+  <si>
+    <t>Actors/npc6</t>
+  </si>
+  <si>
+    <t>고래 보고 힐링하기</t>
+  </si>
+  <si>
+    <t>하늘을 나는 고래를 보며 힐링한다</t>
+  </si>
+  <si>
+    <t>HandUp</t>
+  </si>
+  <si>
+    <t>와~ 고래다~                
+ 고래야~ 내 소원 꼭 들어줘~
+고래야 행복해야해~
+오~ 하늘을 나는 고래다~ \n완전 신기해~</t>
+  </si>
+  <si>
+    <t>땅파서 부자될거야
+돈땜에 한다..
+돈...돈..</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_Panel_03
+SM_Env_Sidewalk_48
+SM_Env_Sidewalk_61
+SM_Env_Sidewalk_Straight_94</t>
+  </si>
+  <si>
+    <t>Digging</t>
+  </si>
+  <si>
+    <t>음식 만들기</t>
+  </si>
+  <si>
+    <t>광장에서 그룹 체조</t>
+  </si>
+  <si>
+    <t>너굴포털 마일리지 적립</t>
+  </si>
+  <si>
+    <t>신상템 확인, 구입</t>
+  </si>
+  <si>
+    <t>재활용함 확인</t>
+  </si>
+  <si>
+    <t>모닝 커피 한잔!</t>
+  </si>
+  <si>
+    <t>토용 조각 캐기</t>
+  </si>
+  <si>
+    <t>각종 재료 구해놓기</t>
+  </si>
+  <si>
+    <t>주민에게 레시피 받기</t>
+  </si>
+  <si>
+    <t>상점에서 신상템 사기</t>
+  </si>
+  <si>
+    <t>파니의 광장 들르기</t>
+  </si>
+  <si>
+    <t>파니의 광장 들르기2</t>
+  </si>
+  <si>
+    <t>해피홈 파라다이스 일하기</t>
+  </si>
+  <si>
+    <t>포키로 신상템 구입하기</t>
+  </si>
+  <si>
+    <t>신상템 배치 해보기</t>
+  </si>
+  <si>
+    <t>집에 온 주민과 놀아주기</t>
+  </si>
+  <si>
+    <t>갑돌이 배 타고 섬 가기</t>
+  </si>
+  <si>
+    <t>농작물과 토용조각에 물 주기</t>
+  </si>
+  <si>
+    <t>오후의 감성 커피타임</t>
+  </si>
+  <si>
+    <t>너굴포털에서 섬 뉴스 읽어보기</t>
+  </si>
+  <si>
+    <t>아이템</t>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>섬 한바퀴 돌아보기(인사하기)</t>
+  </si>
+  <si>
+    <t>채집(랜덤확율)</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>상점, animation, 가챠뽑기</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>다른 actor가 접근할 기회를 제공.</t>
+  </si>
+  <si>
+    <t>던전</t>
+  </si>
+  <si>
+    <t>item-1</t>
+  </si>
+  <si>
+    <t>test item</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>item-2</t>
+  </si>
+  <si>
+    <t>item-3</t>
+  </si>
+  <si>
+    <t>item-5</t>
+  </si>
+  <si>
+    <t>item-6</t>
+  </si>
+  <si>
+    <t>item-7</t>
+  </si>
+  <si>
+    <t>item-8</t>
+  </si>
+  <si>
+    <t>item-9</t>
+  </si>
+  <si>
+    <t>item-10</t>
+  </si>
+  <si>
+    <t>item-11</t>
+  </si>
+  <si>
+    <t>item-12</t>
+  </si>
+  <si>
+    <t>item-13</t>
+  </si>
+  <si>
+    <t>item-14</t>
+  </si>
+  <si>
+    <t>item-15</t>
+  </si>
+  <si>
+    <t>item-16</t>
+  </si>
+  <si>
+    <t>item-17</t>
+  </si>
+  <si>
+    <t>item-18</t>
+  </si>
+  <si>
+    <t>item-19</t>
+  </si>
+  <si>
+    <t>item-20</t>
+  </si>
+  <si>
+    <t>item-21</t>
+  </si>
+  <si>
+    <t>item-22</t>
+  </si>
+  <si>
+    <t>item-23</t>
+  </si>
+  <si>
+    <t>item-24</t>
+  </si>
+  <si>
+    <t>item-25</t>
+  </si>
+  <si>
+    <t>item-26</t>
+  </si>
+  <si>
+    <t>item-27</t>
+  </si>
+  <si>
+    <t>item-28</t>
+  </si>
+  <si>
+    <t>item-29</t>
+  </si>
+  <si>
+    <t>item-30</t>
+  </si>
+  <si>
+    <t>item-31</t>
+  </si>
+  <si>
+    <t>item-32</t>
+  </si>
+  <si>
+    <t>item-33</t>
+  </si>
+  <si>
+    <t>item-34</t>
+  </si>
+  <si>
+    <t>item-35</t>
+  </si>
+  <si>
+    <t>item-36</t>
+  </si>
+  <si>
+    <t>item-37</t>
+  </si>
+  <si>
+    <t>item-38</t>
+  </si>
+  <si>
+    <t>test item5</t>
+  </si>
+  <si>
+    <t>test item6</t>
+  </si>
+  <si>
+    <t>test item7</t>
+  </si>
+  <si>
+    <t>test item8</t>
+  </si>
+  <si>
+    <t>test item9</t>
+  </si>
+  <si>
+    <t>test item10</t>
+  </si>
+  <si>
+    <t>test item11</t>
+  </si>
+  <si>
+    <t>test item12</t>
+  </si>
+  <si>
+    <t>test item13</t>
+  </si>
+  <si>
+    <t>test item14</t>
+  </si>
+  <si>
+    <t>test item15</t>
+  </si>
+  <si>
+    <t>test item16</t>
+  </si>
+  <si>
+    <t>test item17</t>
+  </si>
+  <si>
+    <t>test item18</t>
+  </si>
+  <si>
+    <t>test item19</t>
+  </si>
+  <si>
+    <t>test item20</t>
+  </si>
+  <si>
+    <t>test item21</t>
+  </si>
+  <si>
+    <t>test item22</t>
+  </si>
+  <si>
+    <t>test item23</t>
+  </si>
+  <si>
+    <t>test item24</t>
+  </si>
+  <si>
+    <t>test item25</t>
+  </si>
+  <si>
+    <t>test item26</t>
+  </si>
+  <si>
+    <t>test item27</t>
+  </si>
+  <si>
+    <t>test item28</t>
+  </si>
+  <si>
+    <t>test item29</t>
+  </si>
+  <si>
+    <t>test item30</t>
+  </si>
+  <si>
+    <t>test item31</t>
+  </si>
+  <si>
+    <t>test item32</t>
+  </si>
+  <si>
+    <t>test item33</t>
+  </si>
+  <si>
+    <t>test item34</t>
+  </si>
+  <si>
+    <t>test item35</t>
+  </si>
+  <si>
+    <t>test item36</t>
+  </si>
+  <si>
+    <t>test item37</t>
+  </si>
+  <si>
+    <t>test item38</t>
+  </si>
+  <si>
+    <t>Item
+itemid,quantity,당첨범위,전체범위</t>
+  </si>
+  <si>
+    <t>자원1 보따리</t>
+  </si>
+  <si>
+    <t>자원1을 8만큼 얻을 수 있다</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Resource1</t>
+  </si>
+  <si>
+    <t>자원2 보따리</t>
+  </si>
+  <si>
+    <t>자원2를 8만큼 얻을 수 있다</t>
+  </si>
+  <si>
+    <t>자원3을 8만큼 얻을 수 있다</t>
+  </si>
+  <si>
+    <t>자원3 보따리</t>
+  </si>
+  <si>
+    <t>Resource2</t>
+  </si>
+  <si>
+    <t>Resource3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생산력2를 올린다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">생산력3을 올린다 </t>
+  </si>
+  <si>
+    <t>Ability1:-1</t>
+  </si>
+  <si>
+    <t>Ability2:-1</t>
+  </si>
+  <si>
+    <t>Ability3:-1</t>
+  </si>
+  <si>
+    <t>자원1 구하기. 열심히 파다 보면 자원1 보따리를 얻을 수 있다.</t>
+  </si>
+  <si>
+    <t>자원2 구하기. 열심히 파다 보면 자원2 보따리를 얻을 수 있다.</t>
+  </si>
+  <si>
+    <t>자원3 구하기. 열심히 파다 보면 자원3 보따리를 얻을 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자원1 캐기 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">자원2 캐기 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">자원3 캐기 </t>
+  </si>
+  <si>
+    <t>item-1,1,40,100</t>
+  </si>
+  <si>
+    <t>item-2,1,40,100</t>
+  </si>
+  <si>
+    <t>item-3,1,40,100</t>
+  </si>
+  <si>
+    <t>inventory
+itemId,quantity,isInstall</t>
+  </si>
+  <si>
+    <t>item-1,1,False</t>
+  </si>
+  <si>
+    <t>LD1-B2</t>
+  </si>
+  <si>
+    <t>Sitting</t>
+  </si>
+  <si>
+    <t>MP:1</t>
+  </si>
+  <si>
+    <t>의자에 제대로 좀 앉아라</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_Straight_400</t>
+  </si>
+  <si>
+    <t>벤치에서 쉬기</t>
+  </si>
+  <si>
+    <t>13.75,0.155,31
+13.75,0.155,32</t>
+  </si>
+  <si>
+    <t>LD4-2</t>
+  </si>
+  <si>
+    <t>그동안 모은 자원들을 공장에 전달하고 경차를 의뢰한다. 차를 타고 이동하면 당연히 빠르다</t>
+  </si>
+  <si>
+    <t>경차 의뢰하기</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>경차수령증</t>
+  </si>
+  <si>
+    <t>경차를 수령할 수 있다. 차는 주차장에서 찾을 수 있다</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>경차한대 만들어 주세욥!
+여기 작고 소중한 재료 모아왔어요~ 경차 한대만 만들어 주세요</t>
+  </si>
+  <si>
+    <t>vehicle-1</t>
+  </si>
+  <si>
+    <t>vehicle-1,1,1,1</t>
+  </si>
+  <si>
+    <t>Resource1:-8,Resource2:-8,Resource3:-8,Gold:-16</t>
+  </si>
+  <si>
+    <t>NPC8-1</t>
+  </si>
+  <si>
+    <t>-40,0,12.5</t>
+  </si>
+  <si>
+    <t>HP,10,100,90</t>
+  </si>
+  <si>
+    <t>Actors/npc7</t>
+  </si>
+  <si>
+    <t>공장 접수원</t>
+  </si>
+  <si>
+    <t>Gold,20,50,48
+Speed,1,4,2
+HP,20,50,8
 MP,20,50,8
-Gold,20,50,8
+Knowledge,20,50,0
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,40
+Resource2,20,50,40
+Resource3,20,50,40
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>Gold,20,50,8
+Speed,1,4,2
+HP,20,50,8
+MP,20,50,8
+Knowledge,20,50,0
 Ability1,20,50,0
 Ability2,20,50,0
 Ability3,20,50,0
@@ -1082,513 +1592,51 @@
 Friendship,0,50,0</t>
   </si>
   <si>
-    <t>6,8,12</t>
-  </si>
-  <si>
-    <t>HP,20,50,10
-MP,20,50,6
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>HP,20,50,8
-MP,20,50,10
-Gold,20,50,6
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>HP,20,50,6
-MP,20,50,8
-Gold,20,50,10
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>HP,20,50,12
-MP,20,50,4
-Gold,20,50,8
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>HP,20,50,8
-MP,20,50,12
-Gold,20,50,4
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>HP,20,50,4
-MP,20,50,8
-Gold,20,50,12
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>HP,20,50,6
-MP,20,50,6
-Gold,20,50,12
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,0
-Resource2,20,50,0
-Resource3,20,50,0
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>핫도그 사먹기</t>
-  </si>
-  <si>
-    <t>핫도그는 맛잇옹!
-핫도그 하나 주세요~
-어서 핫도그 주세요! \n현기증 나요~
- 핫!핫!핫도그 주세요!</t>
-  </si>
-  <si>
-    <t>Actors/npc6</t>
-  </si>
-  <si>
-    <t>고래 보고 힐링하기</t>
-  </si>
-  <si>
-    <t>하늘을 나는 고래를 보며 힐링한다</t>
-  </si>
-  <si>
-    <t>HandUp</t>
-  </si>
-  <si>
-    <t>102.5,0,-80
-106,9,-120</t>
-  </si>
-  <si>
-    <t>와~ 고래다~                
- 고래야~ 내 소원 꼭 들어줘~
-고래야 행복해야해~
-오~ 하늘을 나는 고래다~ \n완전 신기해~</t>
-  </si>
-  <si>
-    <t>땅파서 부자될거야
-돈땜에 한다..
-돈...돈..</t>
-  </si>
-  <si>
-    <t>SM_Env_Sidewalk_Panel_03
-SM_Env_Sidewalk_48
-SM_Env_Sidewalk_61
-SM_Env_Sidewalk_Straight_94</t>
-  </si>
-  <si>
-    <t>Digging</t>
-  </si>
-  <si>
-    <t>음식 만들기</t>
-  </si>
-  <si>
-    <t>광장에서 그룹 체조</t>
-  </si>
-  <si>
-    <t>너굴포털 마일리지 적립</t>
-  </si>
-  <si>
-    <t>신상템 확인, 구입</t>
-  </si>
-  <si>
-    <t>재활용함 확인</t>
-  </si>
-  <si>
-    <t>모닝 커피 한잔!</t>
-  </si>
-  <si>
-    <t>토용 조각 캐기</t>
-  </si>
-  <si>
-    <t>각종 재료 구해놓기</t>
-  </si>
-  <si>
-    <t>주민에게 레시피 받기</t>
-  </si>
-  <si>
-    <t>상점에서 신상템 사기</t>
-  </si>
-  <si>
-    <t>파니의 광장 들르기</t>
-  </si>
-  <si>
-    <t>파니의 광장 들르기2</t>
-  </si>
-  <si>
-    <t>해피홈 파라다이스 일하기</t>
-  </si>
-  <si>
-    <t>포키로 신상템 구입하기</t>
-  </si>
-  <si>
-    <t>신상템 배치 해보기</t>
-  </si>
-  <si>
-    <t>집에 온 주민과 놀아주기</t>
-  </si>
-  <si>
-    <t>갑돌이 배 타고 섬 가기</t>
-  </si>
-  <si>
-    <t>농작물과 토용조각에 물 주기</t>
-  </si>
-  <si>
-    <t>오후의 감성 커피타임</t>
-  </si>
-  <si>
-    <t>너굴포털에서 섬 뉴스 읽어보기</t>
-  </si>
-  <si>
-    <t>아이템</t>
-  </si>
-  <si>
-    <t>상점</t>
-  </si>
-  <si>
-    <t>animation</t>
-  </si>
-  <si>
-    <t>섬 한바퀴 돌아보기(인사하기)</t>
-  </si>
-  <si>
-    <t>채집(랜덤확율)</t>
-  </si>
-  <si>
-    <t>interaction</t>
-  </si>
-  <si>
-    <t>상점, animation, 가챠뽑기</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>다른 actor가 접근할 기회를 제공.</t>
-  </si>
-  <si>
-    <t>던전</t>
-  </si>
-  <si>
-    <t>item-1</t>
-  </si>
-  <si>
-    <t>test item</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>item-2</t>
-  </si>
-  <si>
-    <t>item-3</t>
-  </si>
-  <si>
-    <t>item-4</t>
-  </si>
-  <si>
-    <t>item-5</t>
-  </si>
-  <si>
-    <t>item-6</t>
-  </si>
-  <si>
-    <t>item-7</t>
-  </si>
-  <si>
-    <t>item-8</t>
-  </si>
-  <si>
-    <t>item-9</t>
-  </si>
-  <si>
-    <t>item-10</t>
-  </si>
-  <si>
-    <t>item-11</t>
-  </si>
-  <si>
-    <t>item-12</t>
-  </si>
-  <si>
-    <t>item-13</t>
-  </si>
-  <si>
-    <t>item-14</t>
-  </si>
-  <si>
-    <t>item-15</t>
-  </si>
-  <si>
-    <t>item-16</t>
-  </si>
-  <si>
-    <t>item-17</t>
-  </si>
-  <si>
-    <t>item-18</t>
-  </si>
-  <si>
-    <t>item-19</t>
-  </si>
-  <si>
-    <t>item-20</t>
-  </si>
-  <si>
-    <t>item-21</t>
-  </si>
-  <si>
-    <t>item-22</t>
-  </si>
-  <si>
-    <t>item-23</t>
-  </si>
-  <si>
-    <t>item-24</t>
-  </si>
-  <si>
-    <t>item-25</t>
-  </si>
-  <si>
-    <t>item-26</t>
-  </si>
-  <si>
-    <t>item-27</t>
-  </si>
-  <si>
-    <t>item-28</t>
-  </si>
-  <si>
-    <t>item-29</t>
-  </si>
-  <si>
-    <t>item-30</t>
-  </si>
-  <si>
-    <t>item-31</t>
-  </si>
-  <si>
-    <t>item-32</t>
-  </si>
-  <si>
-    <t>item-33</t>
-  </si>
-  <si>
-    <t>item-34</t>
-  </si>
-  <si>
-    <t>item-35</t>
-  </si>
-  <si>
-    <t>item-36</t>
-  </si>
-  <si>
-    <t>item-37</t>
-  </si>
-  <si>
-    <t>item-38</t>
-  </si>
-  <si>
-    <t>test item1</t>
-  </si>
-  <si>
-    <t>test item2</t>
-  </si>
-  <si>
-    <t>test item3</t>
-  </si>
-  <si>
-    <t>test item4</t>
-  </si>
-  <si>
-    <t>test item5</t>
-  </si>
-  <si>
-    <t>test item6</t>
-  </si>
-  <si>
-    <t>test item7</t>
-  </si>
-  <si>
-    <t>test item8</t>
-  </si>
-  <si>
-    <t>test item9</t>
-  </si>
-  <si>
-    <t>test item10</t>
-  </si>
-  <si>
-    <t>test item11</t>
-  </si>
-  <si>
-    <t>test item12</t>
-  </si>
-  <si>
-    <t>test item13</t>
-  </si>
-  <si>
-    <t>test item14</t>
-  </si>
-  <si>
-    <t>test item15</t>
-  </si>
-  <si>
-    <t>test item16</t>
-  </si>
-  <si>
-    <t>test item17</t>
-  </si>
-  <si>
-    <t>test item18</t>
-  </si>
-  <si>
-    <t>test item19</t>
-  </si>
-  <si>
-    <t>test item20</t>
-  </si>
-  <si>
-    <t>test item21</t>
-  </si>
-  <si>
-    <t>test item22</t>
-  </si>
-  <si>
-    <t>test item23</t>
-  </si>
-  <si>
-    <t>test item24</t>
-  </si>
-  <si>
-    <t>test item25</t>
-  </si>
-  <si>
-    <t>test item26</t>
-  </si>
-  <si>
-    <t>test item27</t>
-  </si>
-  <si>
-    <t>test item28</t>
-  </si>
-  <si>
-    <t>test item29</t>
-  </si>
-  <si>
-    <t>test item30</t>
-  </si>
-  <si>
-    <t>test item31</t>
-  </si>
-  <si>
-    <t>test item32</t>
-  </si>
-  <si>
-    <t>test item33</t>
-  </si>
-  <si>
-    <t>test item34</t>
-  </si>
-  <si>
-    <t>test item35</t>
-  </si>
-  <si>
-    <t>test item36</t>
-  </si>
-  <si>
-    <t>test item37</t>
-  </si>
-  <si>
-    <t>test item38</t>
-  </si>
-  <si>
-    <t>item-1,10,false
-item-2,10,false
-item-3,10,false
-item-4,10,false
-item-5,10,false
-item-6,10,false
-item-7,10,false
-item-8,10,false
-item-9,10,false
-item-10,10,false
-item-11,10,false
-item-12,10,false
-item-13,10,false
-item-14,10,false
-item-15,10,false
-item-16,10,false
-item-17,10,false
-item-18,10,false
-item-19,10,false
-item-20,10,false
-item-21,10,false
-item-22,10,false
-item-23,10,false
-item-24,10,false
-item-25,10,false
-item-26,10,false</t>
-  </si>
-  <si>
-    <t>Item
-itemid,quantity,당첨범위,전체범위</t>
-  </si>
-  <si>
-    <t>item-1,3,10,10
-item-2,1,50,100</t>
+    <t>LD4-2-C</t>
+  </si>
+  <si>
+    <t>경차 수령</t>
+  </si>
+  <si>
+    <t>SM_Env_Road_ParkingLines_11</t>
+  </si>
+  <si>
+    <t>경차 찾으러 왔어욤</t>
+  </si>
+  <si>
+    <t>laziness</t>
+  </si>
+  <si>
+    <t>LD4-3</t>
+  </si>
+  <si>
+    <t>LD4-3-I</t>
+  </si>
+  <si>
+    <t>주변에 자원1이 많은 사람한테서 시세보다 싸게 구매하기</t>
+  </si>
+  <si>
+    <t>자원1 당근하기</t>
+  </si>
+  <si>
+    <t>1.Satisfaction.Resource1:max</t>
+  </si>
+  <si>
+    <t>Resource1:1,Gold:$|-10|%</t>
+  </si>
+  <si>
+    <t>satisfactions
+$|-10|%: 시세보다 10% 저렴한 비용</t>
+  </si>
+  <si>
+    <t>자원1 $|-10|% 골드에 쿨거래 가능?</t>
+  </si>
+  <si>
+    <t>뭐래 별로 친하지도 않은데
+님 차단</t>
+  </si>
+  <si>
+    <t>좋아 우리 친하잖아</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2139,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2103,9 +2151,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2463,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,14 +2519,14 @@
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.83203125" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" style="4"/>
@@ -2503,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2518,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2532,28 +2577,28 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>12</v>
+      <c r="O1" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
         <v>109</v>
-      </c>
-      <c r="T1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2565,10 +2610,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
         <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -2585,18 +2630,18 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R2" s="4">
         <v>102</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2608,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -2628,13 +2673,13 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R3" s="4">
         <v>104</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -2651,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -2669,19 +2714,19 @@
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="R4" s="4">
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -2698,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="H5" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2713,29 +2758,29 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>337</v>
+        <v>460</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="R5" s="4">
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
+        <v>456</v>
+      </c>
+      <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
@@ -2745,63 +2790,60 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>458</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>341</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2813,39 +2855,40 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>293</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" t="s">
-        <v>112</v>
+      <c r="S7" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -2860,39 +2903,39 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="R8" s="4">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>282</v>
+        <v>440</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -2907,39 +2950,39 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="R9" s="4">
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>283</v>
+        <v>441</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -2954,42 +2997,42 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="R10" s="4">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>448</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>283</v>
+        <v>445</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3001,42 +3044,45 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>297</v>
+        <v>442</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="R11" s="4">
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>449</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>283</v>
+        <v>446</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3048,45 +3094,45 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>298</v>
+        <v>443</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="R12" s="4">
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>450</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3098,38 +3144,46 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>30</v>
+        <v>444</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="R13" s="4">
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -3143,86 +3197,81 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
       <c r="R14" s="4">
         <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4">
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H16" t="s">
         <v>33</v>
@@ -3231,25 +3280,266 @@
         <v>1</v>
       </c>
       <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>-1</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="4">
-        <v>1</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" t="s">
         <v>121</v>
       </c>
-      <c r="T16" t="s">
-        <v>122</v>
+    </row>
+    <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>465</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>474</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>484</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>485</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>491</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>492</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>489</v>
+      </c>
+      <c r="O20" t="s">
+        <v>493</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>497</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -3260,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3275,10 +3565,10 @@
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3321,16 +3611,19 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>49</v>
+      <c r="O1" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="P1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3342,33 +3635,36 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>75</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3380,19 +3676,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3401,15 +3697,18 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>55</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3421,19 +3720,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3442,15 +3741,18 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>60</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>61</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3462,33 +3764,36 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>64</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3500,19 +3805,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3521,15 +3826,18 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3541,19 +3849,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>71</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3562,15 +3870,18 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3582,33 +3893,36 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>81</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3617,402 +3931,476 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>480</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>479</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>100</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="238" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>97</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>98</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="J12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>126</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>137</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="J14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>138</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="J16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>129</v>
       </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>140</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="204" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="204" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="J19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P18" t="b">
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>0</v>
       </c>
     </row>
@@ -4039,39 +4427,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4079,19 +4467,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4099,19 +4487,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4119,19 +4507,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4139,19 +4527,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4159,19 +4547,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4179,19 +4567,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4199,19 +4587,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4219,19 +4607,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4239,19 +4627,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
         <v>185</v>
       </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" t="s">
-        <v>186</v>
-      </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4267,14 +4655,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
@@ -4290,16 +4678,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>40</v>
@@ -4308,49 +4696,49 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" t="s">
         <v>166</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="R1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
         <v>249</v>
       </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -4364,33 +4752,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4405,33 +4793,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4446,33 +4834,33 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4487,33 +4875,33 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4528,33 +4916,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4569,33 +4957,33 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4610,33 +4998,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4651,33 +5039,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4692,74 +5080,74 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4797,10 +5185,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4838,10 +5226,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4879,10 +5267,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4920,10 +5308,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4961,10 +5349,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5002,10 +5390,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5043,10 +5431,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5084,10 +5472,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5125,10 +5513,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5166,19 +5554,16 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
-      </c>
-      <c r="E22" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5193,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -5202,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O22" s="7">
         <v>2</v>
@@ -5216,19 +5601,16 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C23" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
-      </c>
-      <c r="E23" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5243,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -5252,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O23" s="7">
         <v>2</v>
@@ -5266,19 +5648,16 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="C24" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
-      </c>
-      <c r="E24" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5293,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -5302,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O24" s="7">
         <v>2</v>
@@ -5316,19 +5695,19 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>473</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="C25" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="D25" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5336,6 +5715,9 @@
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25" t="s">
+        <v>468</v>
+      </c>
       <c r="I25">
         <v>1</v>
       </c>
@@ -5343,42 +5725,42 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="L25" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B26" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C26" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5416,19 +5798,19 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E27" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5466,19 +5848,19 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C28" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E28" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5516,19 +5898,19 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D29" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E29" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5566,19 +5948,19 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B30" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C30" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5616,19 +5998,19 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E31" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5666,19 +6048,19 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E32" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5716,19 +6098,19 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B33" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5766,19 +6148,19 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C34" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D34" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E34" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5816,19 +6198,19 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D35" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5866,19 +6248,19 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E36" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5916,19 +6298,19 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E37" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5966,19 +6348,19 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C38" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E38" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -6016,19 +6398,19 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6066,19 +6448,19 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="C40" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D40" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -6116,19 +6498,19 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D41" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6166,19 +6548,19 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D42" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6216,19 +6598,19 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E43" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -6266,19 +6648,19 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="C44" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E44" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6316,19 +6698,19 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="C45" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D45" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E45" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6366,19 +6748,19 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C46" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E46" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -6416,19 +6798,19 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D47" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E47" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -6466,19 +6848,19 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D48" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E48" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -6516,19 +6898,19 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C49" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D49" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E49" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6566,19 +6948,19 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C50" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E50" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6616,19 +6998,19 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="C51" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D51" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E51" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -6666,19 +7048,19 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C52" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D52" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E52" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6716,19 +7098,19 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C53" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E53" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -6766,19 +7148,19 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C54" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E54" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -6816,19 +7198,19 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="C55" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D55" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E55" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -6866,19 +7248,19 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="C56" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D56" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -6916,19 +7298,19 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C57" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D57" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E57" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -6966,19 +7348,19 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="C58" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D58" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E58" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -7016,19 +7398,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="C59" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -7087,19 +7469,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
         <v>232</v>
-      </c>
-      <c r="E1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7110,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7127,13 +7509,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7144,13 +7526,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7161,13 +7543,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7178,13 +7560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7195,13 +7577,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7212,13 +7594,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7229,13 +7611,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7246,13 +7628,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7263,13 +7645,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7338,19 +7720,19 @@
   <sheetData>
     <row r="1" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>149</v>
-      </c>
-      <c r="O1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="11:18" x14ac:dyDescent="0.2">
@@ -7433,14 +7815,14 @@
     </row>
     <row r="5" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -7449,7 +7831,7 @@
     </row>
     <row r="7" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O7">
         <f>O5/POWER(Q5,2)</f>
@@ -7458,15 +7840,15 @@
     </row>
     <row r="8" spans="11:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="11:18" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -7474,7 +7856,7 @@
     </row>
     <row r="10" spans="11:18" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -7482,7 +7864,7 @@
     </row>
     <row r="11" spans="11:18" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -7490,62 +7872,62 @@
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K34" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K36" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7570,164 +7952,164 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="J3" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="J5" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="J6" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J7" t="s">
         <v>347</v>
-      </c>
-      <c r="J7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="J8" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="J9" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J10" t="s">
         <v>349</v>
-      </c>
-      <c r="J10" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J11" t="s">
         <v>350</v>
-      </c>
-      <c r="J11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="J12" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="J13" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="J15" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="J16" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="J17" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="J18" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="K18" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="J19" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="J20" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="J21" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C551C0-55B9-A44D-AB6A-49995CBA9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6286418-67CC-AF46-A09B-2497FBD2E535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$V$2:$V$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$W$2:$W$17</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$V$2:$V$17</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$W$2:$W$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="489">
   <si>
     <t>ID</t>
   </si>
@@ -1006,42 +1012,6 @@
   </si>
   <si>
     <t>12,8,6</t>
-  </si>
-  <si>
-    <t>HP,27,50,8</t>
-  </si>
-  <si>
-    <t>MP,20,50,8</t>
-  </si>
-  <si>
-    <t>Gold,20,50,8</t>
-  </si>
-  <si>
-    <t>Ability1,20,50,0</t>
-  </si>
-  <si>
-    <t>Ability2,20,50,0</t>
-  </si>
-  <si>
-    <t>Ability3,20,50,0</t>
-  </si>
-  <si>
-    <t>Resource1,20,50,0</t>
-  </si>
-  <si>
-    <t>Resource2,20,50,0</t>
-  </si>
-  <si>
-    <t>Resource3,20,50,0</t>
-  </si>
-  <si>
-    <t>Sight,20,50,0</t>
-  </si>
-  <si>
-    <t>Leadership,0,50,0</t>
-  </si>
-  <si>
-    <t>Friendship,0,50,0</t>
   </si>
   <si>
     <t>6,8,12</t>
@@ -1622,13 +1592,6 @@
     <t>1.Satisfaction.Resource1:max</t>
   </si>
   <si>
-    <t>Resource1:1,Gold:$|-10|%</t>
-  </si>
-  <si>
-    <t>satisfactions
-$|-10|%: 시세보다 10% 저렴한 비용</t>
-  </si>
-  <si>
     <t>자원1 $|-10|% 골드에 쿨거래 가능?</t>
   </si>
   <si>
@@ -1637,6 +1600,23 @@
   </si>
   <si>
     <t>좋아 우리 친하잖아</t>
+  </si>
+  <si>
+    <t>수요곡선</t>
+  </si>
+  <si>
+    <t>기울기</t>
+  </si>
+  <si>
+    <t>절편</t>
+  </si>
+  <si>
+    <t>Resource1:1,Gold:$|0.9|-%</t>
+  </si>
+  <si>
+    <t>satisfactions
+$|0.9|-%: 시세보다 10% 저렴한 비용 차감
+$|1.1|+%: 시세보다 10% 비싼 비용 획득</t>
   </si>
 </sst>
 </file>
@@ -2211,6 +2191,1008 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>demand curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AE9-A54E-857E-AED173DC1112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140522096"/>
+        <c:axId val="970109215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140522096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970109215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="970109215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140522096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF718A4-DEB4-7D2F-0324-33DC6E1F6624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2510,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2578,13 +3560,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>13</v>
@@ -2696,10 +3678,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -2726,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -2743,13 +3725,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2761,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2773,12 +3755,12 @@
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2790,13 +3772,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H6" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2808,19 +3790,19 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="R6" s="4">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -2843,7 +3825,7 @@
         <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2855,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2868,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2935,7 +3917,7 @@
         <v>276</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -2982,7 +3964,7 @@
         <v>277</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -3026,13 +4008,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3050,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="R11" s="4">
         <v>1</v>
@@ -3076,13 +4058,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3100,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="R12" s="4">
         <v>1</v>
@@ -3126,13 +4108,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3150,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="R13" s="4">
         <v>1</v>
@@ -3353,10 +4335,10 @@
     </row>
     <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3368,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -3386,27 +4368,27 @@
         <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="Q18" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="R18" s="4">
         <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -3418,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -3433,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3442,12 +4424,12 @@
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3459,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="H20" t="s">
         <v>33</v>
@@ -3477,27 +4459,27 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="O20" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="R20" s="4">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3536,10 +4518,10 @@
         <v>1</v>
       </c>
       <c r="S21" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3552,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3612,13 +4594,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="P1" t="s">
         <v>107</v>
       </c>
       <c r="Q1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -3770,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
@@ -3922,7 +4904,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3934,16 +4916,16 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>95</v>
@@ -3955,7 +4937,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -4025,7 +5007,7 @@
         <v>93</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
         <v>94</v>
@@ -4040,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -4087,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -4131,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -4175,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -4219,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -4263,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -4307,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -4351,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -5554,16 +6536,16 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B22" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D22" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5578,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -5601,16 +6583,16 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C23" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D23" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5625,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -5648,16 +6630,16 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C24" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D24" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5672,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -5695,19 +6677,19 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B25" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C25" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D25" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E25" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5716,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5725,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="L25" s="7">
         <v>12</v>
@@ -5748,19 +6730,19 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B26" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C26" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E26" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5798,19 +6780,19 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B27" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5848,19 +6830,19 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B28" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C28" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E28" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5898,19 +6880,19 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E29" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5948,19 +6930,19 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D30" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E30" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5998,19 +6980,19 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B31" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E31" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -6048,19 +7030,19 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C32" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D32" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E32" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -6098,19 +7080,19 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -6148,19 +7130,19 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B34" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C34" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D34" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -6198,19 +7180,19 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C35" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D35" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E35" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6248,19 +7230,19 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C36" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E36" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -6298,19 +7280,19 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E37" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -6348,19 +7330,19 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C38" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D38" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -6398,19 +7380,19 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C39" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E39" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6448,19 +7430,19 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C40" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E40" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -6498,19 +7480,19 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C41" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E41" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6548,19 +7530,19 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C42" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D42" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E42" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6598,19 +7580,19 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E43" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -6648,19 +7630,19 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D44" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E44" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6698,19 +7680,19 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C45" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D45" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E45" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6748,19 +7730,19 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C46" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E46" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -6798,19 +7780,19 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C47" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D47" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E47" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -6848,19 +7830,19 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D48" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E48" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -6898,19 +7880,19 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C49" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E49" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6948,19 +7930,19 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E50" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6998,19 +7980,19 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D51" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E51" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -7048,19 +8030,19 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C52" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E52" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -7098,19 +8080,19 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D53" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -7148,19 +8130,19 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D54" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E54" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -7198,19 +8180,19 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E55" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -7248,19 +8230,19 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C56" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E56" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -7298,19 +8280,19 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C57" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -7348,19 +8330,19 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C58" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D58" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E58" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -7398,19 +8380,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D59" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E59" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -7710,15 +8692,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
-  <dimension ref="K1:R37"/>
+  <dimension ref="K1:Z36"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
         <v>146</v>
       </c>
@@ -7734,8 +8716,17 @@
       <c r="Q1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>16</v>
       </c>
@@ -7760,8 +8751,21 @@
         <f>POWER(P2-O5,2)</f>
         <v>4.9382716049382858E-4</v>
       </c>
-    </row>
-    <row r="3" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>Y2*V2+Z2</f>
+        <v>35</v>
+      </c>
+      <c r="Y2">
+        <v>-2</v>
+      </c>
+      <c r="Z2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>19</v>
       </c>
@@ -7786,8 +8790,15 @@
         <f>POWER(P3-O5,2)</f>
         <v>1.49382716049383E-2</v>
       </c>
-    </row>
-    <row r="4" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <f>Y2*V3+Z2</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>21</v>
       </c>
@@ -7812,8 +8823,15 @@
         <f>POWER(P4-O5,2)</f>
         <v>2.0864197530864177E-2</v>
       </c>
-    </row>
-    <row r="5" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f>Y2*V4+Z2</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>144</v>
       </c>
@@ -7828,8 +8846,24 @@
         <f>SQRT((Q2+Q3+Q4) /3)</f>
         <v>0.10999438818457408</v>
       </c>
-    </row>
-    <row r="7" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <f>Y2*V5+Z2</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f>Y2*V6+Z2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>150</v>
       </c>
@@ -7837,101 +8871,137 @@
         <f>O5/POWER(Q5,2)</f>
         <v>-56.02040816326528</v>
       </c>
-    </row>
-    <row r="8" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <f>Y2*V7+Z2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="11:26" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>144</v>
       </c>
       <c r="R8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="9" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f>Y2*V8+Z2</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
         <v>300</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <f>Y2*V9+Z2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
         <v>301</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <f>Y2*V10+Z2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K37" t="s">
-        <v>313</v>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <f>Y2*V11+Z2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="V12">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <f>Y2*V12+Z2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <f>Y2*V13+Z2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="V14">
+        <v>13</v>
+      </c>
+      <c r="W14">
+        <f>Y2*V14+Z2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="V15">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <f>Y2*V15+Z2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <f>Y2*V16+Z2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="22:23" x14ac:dyDescent="0.2">
+      <c r="V17">
+        <v>16</v>
+      </c>
+      <c r="W17">
+        <f>Y2*V17+Z2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <f>-2*58+512</f>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7952,164 +9022,164 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="J2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="J7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="J9" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J10" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="J11" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" t="s">
         <v>334</v>
-      </c>
-      <c r="J12" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="J13" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="J15" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J16" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J17" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="J18" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K18" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J19" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J20" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="J21" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6286418-67CC-AF46-A09B-2497FBD2E535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1AD390-3B98-9248-A4E2-1ED692AAA1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$V$2:$V$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$W$2:$W$17</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$V$2:$V$17</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$W$2:$W$17</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="496">
   <si>
     <t>ID</t>
   </si>
@@ -258,9 +252,6 @@
   </si>
   <si>
     <t>NPC5-1</t>
-  </si>
-  <si>
-    <t>아이돌경비원</t>
   </si>
   <si>
     <t>Actors/npc1</t>
@@ -1565,9 +1556,6 @@
     <t>LD4-2-C</t>
   </si>
   <si>
-    <t>경차 수령</t>
-  </si>
-  <si>
     <t>SM_Env_Road_ParkingLines_11</t>
   </si>
   <si>
@@ -1617,6 +1605,33 @@
     <t>satisfactions
 $|0.9|-%: 시세보다 10% 저렴한 비용 차감
 $|1.1|+%: 시세보다 10% 비싼 비용 획득</t>
+  </si>
+  <si>
+    <t>LD1-D1</t>
+  </si>
+  <si>
+    <t>갤러리 가기</t>
+  </si>
+  <si>
+    <t>갤러리에서 작품 감상하기</t>
+  </si>
+  <si>
+    <t>갤러리직원</t>
+  </si>
+  <si>
+    <t>작품 감상하러 왔어요</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>Knowledge:2</t>
+  </si>
+  <si>
+    <t>경차 수령하러가기</t>
   </si>
 </sst>
 </file>
@@ -3490,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3511,12 +3526,13 @@
     <col min="15" max="15" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.83203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="4"/>
-    <col min="19" max="19" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="4"/>
+    <col min="20" max="20" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="136" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3545,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -3560,27 +3576,30 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="R1" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" t="s">
         <v>108</v>
       </c>
-      <c r="T1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3592,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
         <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -3612,18 +3631,18 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="4">
+        <v>90</v>
+      </c>
+      <c r="S2" s="4">
         <v>102</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="T2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3635,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -3655,16 +3674,16 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="4">
+        <v>90</v>
+      </c>
+      <c r="S3" s="4">
         <v>104</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="T3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3678,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -3702,16 +3721,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>285</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3725,13 +3744,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
         <v>307</v>
-      </c>
-      <c r="H5" t="s">
-        <v>308</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3743,24 +3762,24 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>286</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3772,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -3790,26 +3809,26 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>445</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
@@ -3819,61 +3838,63 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>488</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
-      </c>
-      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K7">
-        <v>1</v>
+      <c r="K7" s="1">
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>494</v>
+      </c>
+      <c r="R7" t="s">
+        <v>493</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" t="s">
         <v>311</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="4">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3885,39 +3906,41 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>288</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>428</v>
+        <v>277</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -3932,39 +3955,39 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>289</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -3979,42 +4002,42 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>290</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>436</v>
+        <v>276</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H11" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4026,45 +4049,42 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1</v>
-      </c>
-      <c r="S11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4076,45 +4096,46 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="R12" s="4">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4126,48 +4147,46 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="R13" s="4">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>437</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>280</v>
+        <v>434</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4179,38 +4198,47 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1</v>
-      </c>
-      <c r="S14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
@@ -4224,86 +4252,81 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="R15" s="4">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1</v>
-      </c>
-      <c r="S16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -4312,36 +4335,36 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>86</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="4">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>451</v>
-      </c>
-      <c r="B18" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -4350,48 +4373,48 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>453</v>
+        <v>282</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>452</v>
+        <v>283</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>462</v>
-      </c>
-      <c r="R18" s="4">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>471</v>
+        <v>450</v>
+      </c>
+      <c r="B19" t="s">
+        <v>470</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -4400,101 +4423,101 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>472</v>
+        <v>452</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>473</v>
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="R19" s="4">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="O19" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>461</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>495</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>471</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>477</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>479</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20" t="s">
-        <v>480</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>477</v>
-      </c>
-      <c r="O20" t="s">
-        <v>487</v>
-      </c>
-      <c r="R20" s="4">
-        <v>1</v>
-      </c>
-      <c r="S20" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>477</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="H21" t="s">
         <v>33</v>
@@ -4503,25 +4526,75 @@
         <v>1</v>
       </c>
       <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>478</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>475</v>
+      </c>
+      <c r="O21" t="s">
+        <v>485</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>-1</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="4">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
-        <v>483</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>482</v>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>481</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -4535,7 +4608,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4594,18 +4667,18 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -4617,19 +4690,19 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4664,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>52</v>
@@ -4708,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>58</v>
@@ -4752,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
@@ -4764,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -4787,19 +4860,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>65</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4819,7 +4892,7 @@
     </row>
     <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4831,19 +4904,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>70</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4863,7 +4936,7 @@
     </row>
     <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4875,19 +4948,19 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>80</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4904,7 +4977,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4916,19 +4989,19 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -4937,7 +5010,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -4948,7 +5021,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4960,19 +5033,19 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4989,43 +5062,43 @@
     </row>
     <row r="11" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -5036,40 +5109,40 @@
     </row>
     <row r="12" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>96</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>97</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>98</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -5080,13 +5153,13 @@
     </row>
     <row r="13" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -5095,25 +5168,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -5124,13 +5197,13 @@
     </row>
     <row r="14" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5139,25 +5212,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -5168,13 +5241,13 @@
     </row>
     <row r="15" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5183,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -5192,16 +5265,16 @@
         <v>57</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -5212,13 +5285,13 @@
     </row>
     <row r="16" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -5227,25 +5300,25 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -5256,13 +5329,13 @@
     </row>
     <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -5271,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -5280,16 +5353,16 @@
         <v>51</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -5300,13 +5373,13 @@
     </row>
     <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -5315,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5324,16 +5397,16 @@
         <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -5344,13 +5417,13 @@
     </row>
     <row r="19" spans="1:17" ht="204" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -5359,25 +5432,25 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -5409,39 +5482,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
-        <v>161</v>
-      </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5449,19 +5522,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
         <v>216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>217</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5469,19 +5542,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5489,19 +5562,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5509,19 +5582,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5529,19 +5602,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5549,19 +5622,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5569,19 +5642,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5589,19 +5662,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5609,19 +5682,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
         <v>184</v>
       </c>
-      <c r="B11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" t="s">
-        <v>185</v>
-      </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -5660,16 +5733,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>163</v>
       </c>
       <c r="E1" t="s">
         <v>40</v>
@@ -5678,49 +5751,49 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" t="s">
         <v>165</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="R1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
         <v>248</v>
       </c>
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -5734,33 +5807,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5775,33 +5848,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5816,33 +5889,33 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5857,33 +5930,33 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5898,33 +5971,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5939,33 +6012,33 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5980,33 +6053,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6021,33 +6094,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6062,74 +6135,74 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6167,10 +6240,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6208,10 +6281,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6249,10 +6322,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6290,10 +6363,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6331,10 +6404,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6372,10 +6445,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6413,10 +6486,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -6454,10 +6527,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6495,10 +6568,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -6536,31 +6609,31 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" t="s">
         <v>418</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>419</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -6583,16 +6656,16 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" t="s">
         <v>422</v>
       </c>
-      <c r="C23" t="s">
-        <v>423</v>
-      </c>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -6607,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -6630,16 +6703,16 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -6654,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -6677,37 +6750,37 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" t="s">
         <v>457</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>453</v>
+      </c>
+      <c r="E25" t="s">
+        <v>454</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>455</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="D25" t="s">
-        <v>454</v>
-      </c>
-      <c r="E25" t="s">
-        <v>455</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>456</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="L25" s="7">
         <v>12</v>
@@ -6730,19 +6803,19 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" t="s">
         <v>344</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>345</v>
-      </c>
-      <c r="E26" t="s">
-        <v>346</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -6780,19 +6853,19 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" t="s">
         <v>344</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>345</v>
-      </c>
-      <c r="E27" t="s">
-        <v>346</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -6830,19 +6903,19 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" t="s">
         <v>344</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>345</v>
-      </c>
-      <c r="E28" t="s">
-        <v>346</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -6880,19 +6953,19 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" t="s">
         <v>344</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>345</v>
-      </c>
-      <c r="E29" t="s">
-        <v>346</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -6930,19 +7003,19 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" t="s">
         <v>344</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>345</v>
-      </c>
-      <c r="E30" t="s">
-        <v>346</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -6980,19 +7053,19 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C31" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" t="s">
         <v>344</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>345</v>
-      </c>
-      <c r="E31" t="s">
-        <v>346</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -7030,19 +7103,19 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" t="s">
         <v>344</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>345</v>
-      </c>
-      <c r="E32" t="s">
-        <v>346</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -7080,19 +7153,19 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" t="s">
         <v>344</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>345</v>
-      </c>
-      <c r="E33" t="s">
-        <v>346</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -7130,19 +7203,19 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" t="s">
         <v>344</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>345</v>
-      </c>
-      <c r="E34" t="s">
-        <v>346</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -7180,19 +7253,19 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" t="s">
         <v>344</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>345</v>
-      </c>
-      <c r="E35" t="s">
-        <v>346</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -7230,19 +7303,19 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C36" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" t="s">
         <v>344</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>345</v>
-      </c>
-      <c r="E36" t="s">
-        <v>346</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -7280,19 +7353,19 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" t="s">
         <v>344</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>345</v>
-      </c>
-      <c r="E37" t="s">
-        <v>346</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -7330,19 +7403,19 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C38" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" t="s">
         <v>344</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>345</v>
-      </c>
-      <c r="E38" t="s">
-        <v>346</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -7380,19 +7453,19 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C39" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" t="s">
         <v>344</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>345</v>
-      </c>
-      <c r="E39" t="s">
-        <v>346</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -7430,19 +7503,19 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C40" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" t="s">
         <v>344</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>345</v>
-      </c>
-      <c r="E40" t="s">
-        <v>346</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -7480,19 +7553,19 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" t="s">
         <v>344</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>345</v>
-      </c>
-      <c r="E41" t="s">
-        <v>346</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7530,19 +7603,19 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C42" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42" t="s">
         <v>344</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>345</v>
-      </c>
-      <c r="E42" t="s">
-        <v>346</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -7580,19 +7653,19 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C43" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43" t="s">
         <v>344</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>345</v>
-      </c>
-      <c r="E43" t="s">
-        <v>346</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -7630,19 +7703,19 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" t="s">
         <v>344</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>345</v>
-      </c>
-      <c r="E44" t="s">
-        <v>346</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -7680,19 +7753,19 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" t="s">
         <v>344</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>345</v>
-      </c>
-      <c r="E45" t="s">
-        <v>346</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -7730,19 +7803,19 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" t="s">
         <v>344</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>345</v>
-      </c>
-      <c r="E46" t="s">
-        <v>346</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -7780,19 +7853,19 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" t="s">
         <v>344</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>345</v>
-      </c>
-      <c r="E47" t="s">
-        <v>346</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -7830,19 +7903,19 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C48" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" t="s">
         <v>344</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>345</v>
-      </c>
-      <c r="E48" t="s">
-        <v>346</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -7880,19 +7953,19 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C49" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" t="s">
         <v>344</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>345</v>
-      </c>
-      <c r="E49" t="s">
-        <v>346</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -7930,19 +8003,19 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" t="s">
         <v>344</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>345</v>
-      </c>
-      <c r="E50" t="s">
-        <v>346</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -7980,19 +8053,19 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C51" t="s">
+        <v>343</v>
+      </c>
+      <c r="D51" t="s">
         <v>344</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>345</v>
-      </c>
-      <c r="E51" t="s">
-        <v>346</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8030,19 +8103,19 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C52" t="s">
+        <v>343</v>
+      </c>
+      <c r="D52" t="s">
         <v>344</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>345</v>
-      </c>
-      <c r="E52" t="s">
-        <v>346</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -8080,19 +8153,19 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C53" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" t="s">
         <v>344</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>345</v>
-      </c>
-      <c r="E53" t="s">
-        <v>346</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -8130,19 +8203,19 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C54" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" t="s">
         <v>344</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>345</v>
-      </c>
-      <c r="E54" t="s">
-        <v>346</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -8180,19 +8253,19 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
+        <v>343</v>
+      </c>
+      <c r="D55" t="s">
         <v>344</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>345</v>
-      </c>
-      <c r="E55" t="s">
-        <v>346</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -8230,19 +8303,19 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
+        <v>343</v>
+      </c>
+      <c r="D56" t="s">
         <v>344</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>345</v>
-      </c>
-      <c r="E56" t="s">
-        <v>346</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -8280,19 +8353,19 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C57" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" t="s">
         <v>344</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>345</v>
-      </c>
-      <c r="E57" t="s">
-        <v>346</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -8330,19 +8403,19 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C58" t="s">
+        <v>343</v>
+      </c>
+      <c r="D58" t="s">
         <v>344</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>345</v>
-      </c>
-      <c r="E58" t="s">
-        <v>346</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -8380,19 +8453,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
+        <v>343</v>
+      </c>
+      <c r="D59" t="s">
         <v>344</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>345</v>
-      </c>
-      <c r="E59" t="s">
-        <v>346</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -8451,19 +8524,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8474,13 +8547,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8491,13 +8564,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8508,13 +8581,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8525,13 +8598,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8542,13 +8615,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8559,13 +8632,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8576,13 +8649,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8593,13 +8666,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8610,13 +8683,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8627,13 +8700,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8694,7 +8767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
   <dimension ref="K1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
@@ -8702,28 +8775,28 @@
   <sheetData>
     <row r="1" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>149</v>
-      </c>
       <c r="W1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z1" t="s">
         <v>484</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -8833,14 +8906,14 @@
     </row>
     <row r="5" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -8865,7 +8938,7 @@
     </row>
     <row r="7" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O7">
         <f>O5/POWER(Q5,2)</f>
@@ -8881,10 +8954,10 @@
     </row>
     <row r="8" spans="11:26" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -8896,7 +8969,7 @@
     </row>
     <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -8911,7 +8984,7 @@
     </row>
     <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -8926,7 +8999,7 @@
     </row>
     <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -9022,164 +9095,164 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1AD390-3B98-9248-A4E2-1ED692AAA1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B3E52-0959-A54B-9576-659544DB10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="504">
   <si>
     <t>ID</t>
   </si>
@@ -65,16 +65,6 @@
     <t>Animation-
 Repeat-
 Time</t>
-  </si>
-  <si>
-    <t>Target.Type
-NON_TARGET=0
-OBJECT=1
-ACTOR=2
-ACTOR_CONDITION=3
-ACTOR_FROM=4
-POSITION=5
-FLY=6</t>
   </si>
   <si>
     <t>Target
@@ -1632,6 +1622,42 @@
   </si>
   <si>
     <t>경차 수령하러가기</t>
+  </si>
+  <si>
+    <t>택시타기</t>
+  </si>
+  <si>
+    <t>test-get_in</t>
+  </si>
+  <si>
+    <t>test-get_off</t>
+  </si>
+  <si>
+    <t>택시내리기</t>
+  </si>
+  <si>
+    <t>도착</t>
+  </si>
+  <si>
+    <t>Target.Type
+NON_TARGET=0
+OBJECT=1
+ACTOR=2
+ACTOR_CONDITION=3
+ACTOR_FROM=4
+POSITION=5
+FLY=6
+GET_IN_VEHICLE=7
+GET_OFF_VEHICLE=8</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>아저씨 따블~</t>
+  </si>
+  <si>
+    <t>Taxi:90.0.55</t>
   </si>
 </sst>
 </file>
@@ -3505,15 +3531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
@@ -3532,7 +3558,7 @@
     <col min="21" max="21" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3561,60 +3587,60 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" t="s">
         <v>107</v>
-      </c>
-      <c r="U1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>88</v>
-      </c>
-      <c r="H2" t="s">
-        <v>89</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -3631,33 +3657,33 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S2" s="4">
         <v>102</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>153</v>
-      </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -3674,36 +3700,36 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" s="4">
         <v>104</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3715,42 +3741,42 @@
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S4" s="4">
         <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
         <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>307</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3762,42 +3788,42 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H6" t="s">
         <v>443</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>448</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H6" t="s">
-        <v>444</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -3809,42 +3835,42 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>444</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -3856,45 +3882,45 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3906,13 +3932,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3920,30 +3946,30 @@
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3955,42 +3981,42 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S9" s="4">
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4002,42 +4028,42 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4049,42 +4075,42 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4096,46 +4122,46 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="4">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4147,46 +4173,46 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4198,49 +4224,49 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4252,40 +4278,40 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S15" s="4">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4297,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4306,30 +4332,30 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" t="s">
         <v>32</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>291</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4341,45 +4367,45 @@
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" t="s">
         <v>34</v>
       </c>
-      <c r="O17" t="s">
-        <v>35</v>
-      </c>
       <c r="S17" s="4">
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4394,42 +4420,42 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S18" s="4">
         <v>1</v>
       </c>
       <c r="T18" t="s">
+        <v>118</v>
+      </c>
+      <c r="U18" t="s">
         <v>119</v>
-      </c>
-      <c r="U18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>451</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B19" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>452</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19">
         <v>5</v>
@@ -4441,42 +4467,42 @@
         <v>2</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S19" s="4">
         <v>1</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4488,39 +4514,39 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
+        <v>470</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
         <v>471</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1</v>
-      </c>
-      <c r="T20" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4532,45 +4558,45 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
+        <v>477</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>474</v>
+      </c>
+      <c r="O21" t="s">
+        <v>484</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>478</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>475</v>
-      </c>
-      <c r="O21" t="s">
-        <v>485</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4585,16 +4611,136 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>495</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H23" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>501</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>495</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>503</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4628,57 +4774,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -4690,25 +4836,25 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -4719,7 +4865,7 @@
     </row>
     <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4731,19 +4877,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -4752,7 +4898,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -4763,7 +4909,7 @@
     </row>
     <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4775,19 +4921,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4796,7 +4942,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -4807,7 +4953,7 @@
     </row>
     <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4819,25 +4965,25 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -4848,7 +4994,7 @@
     </row>
     <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4860,19 +5006,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4881,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -4892,7 +5038,7 @@
     </row>
     <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4904,19 +5050,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>69</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4925,7 +5071,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -4936,7 +5082,7 @@
     </row>
     <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4948,25 +5094,25 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -4977,7 +5123,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4989,19 +5135,19 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -5010,7 +5156,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5021,7 +5167,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -5033,25 +5179,25 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -5062,43 +5208,43 @@
     </row>
     <row r="11" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>91</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>92</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -5109,40 +5255,40 @@
     </row>
     <row r="12" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>95</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>96</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>97</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -5153,13 +5299,13 @@
     </row>
     <row r="13" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -5168,25 +5314,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -5197,13 +5343,13 @@
     </row>
     <row r="14" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5212,25 +5358,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -5241,13 +5387,13 @@
     </row>
     <row r="15" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5256,25 +5402,25 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -5285,13 +5431,13 @@
     </row>
     <row r="16" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -5300,25 +5446,25 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -5329,13 +5475,13 @@
     </row>
     <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -5344,25 +5490,25 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -5373,13 +5519,13 @@
     </row>
     <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -5388,25 +5534,25 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -5417,13 +5563,13 @@
     </row>
     <row r="19" spans="1:17" ht="204" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -5432,25 +5578,25 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -5482,39 +5628,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>159</v>
       </c>
-      <c r="E1" t="s">
-        <v>160</v>
-      </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5522,19 +5668,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>216</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5542,19 +5688,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5562,19 +5708,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5582,19 +5728,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5602,19 +5748,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5622,19 +5768,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5642,19 +5788,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5662,19 +5808,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5682,19 +5828,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
         <v>183</v>
       </c>
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" t="s">
-        <v>184</v>
-      </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -5733,67 +5879,67 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>163</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" t="s">
         <v>164</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
         <v>247</v>
       </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -5807,33 +5953,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5848,33 +5994,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5889,33 +6035,33 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5930,33 +6076,33 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5971,33 +6117,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6012,33 +6158,33 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6053,33 +6199,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6094,33 +6240,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6135,74 +6281,74 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>271</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6217,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -6240,10 +6386,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6258,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -6281,10 +6427,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6299,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -6322,10 +6468,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6340,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -6363,10 +6509,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6381,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
@@ -6404,10 +6550,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6422,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7">
         <v>0</v>
@@ -6445,10 +6591,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6463,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7">
         <v>0</v>
@@ -6486,10 +6632,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -6504,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19" s="7">
         <v>0</v>
@@ -6527,10 +6673,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6545,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7">
         <v>0</v>
@@ -6568,10 +6714,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -6586,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
@@ -6609,31 +6755,31 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" t="s">
         <v>417</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>418</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -6656,16 +6802,16 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" t="s">
         <v>421</v>
       </c>
-      <c r="C23" t="s">
-        <v>422</v>
-      </c>
       <c r="D23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -6680,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -6703,16 +6849,16 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -6727,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -6750,37 +6896,37 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" t="s">
         <v>456</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" t="s">
+        <v>453</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>454</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="D25" t="s">
-        <v>453</v>
-      </c>
-      <c r="E25" t="s">
-        <v>454</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>455</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="L25" s="7">
         <v>12</v>
@@ -6803,20 +6949,20 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" t="s">
         <v>343</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>344</v>
       </c>
-      <c r="E26" t="s">
-        <v>345</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
@@ -6830,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7">
         <v>0</v>
@@ -6853,20 +6999,20 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" t="s">
         <v>343</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>344</v>
       </c>
-      <c r="E27" t="s">
-        <v>345</v>
-      </c>
       <c r="F27">
         <v>1</v>
       </c>
@@ -6880,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L27" s="7">
         <v>0</v>
@@ -6903,20 +7049,20 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" t="s">
         <v>343</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>344</v>
       </c>
-      <c r="E28" t="s">
-        <v>345</v>
-      </c>
       <c r="F28">
         <v>1</v>
       </c>
@@ -6930,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="7">
         <v>0</v>
@@ -6953,20 +7099,20 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" t="s">
         <v>343</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>344</v>
       </c>
-      <c r="E29" t="s">
-        <v>345</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
@@ -6980,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
@@ -7003,20 +7149,20 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" t="s">
         <v>343</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>344</v>
       </c>
-      <c r="E30" t="s">
-        <v>345</v>
-      </c>
       <c r="F30">
         <v>1</v>
       </c>
@@ -7030,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="7">
         <v>0</v>
@@ -7053,20 +7199,20 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" t="s">
         <v>343</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>344</v>
       </c>
-      <c r="E31" t="s">
-        <v>345</v>
-      </c>
       <c r="F31">
         <v>1</v>
       </c>
@@ -7080,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="7">
         <v>0</v>
@@ -7103,20 +7249,20 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
         <v>343</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>344</v>
       </c>
-      <c r="E32" t="s">
-        <v>345</v>
-      </c>
       <c r="F32">
         <v>1</v>
       </c>
@@ -7130,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
@@ -7153,20 +7299,20 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" t="s">
         <v>343</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>344</v>
       </c>
-      <c r="E33" t="s">
-        <v>345</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
@@ -7180,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" s="7">
         <v>0</v>
@@ -7203,20 +7349,20 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" t="s">
         <v>343</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>344</v>
       </c>
-      <c r="E34" t="s">
-        <v>345</v>
-      </c>
       <c r="F34">
         <v>1</v>
       </c>
@@ -7230,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="7">
         <v>0</v>
@@ -7253,20 +7399,20 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" t="s">
         <v>343</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>344</v>
       </c>
-      <c r="E35" t="s">
-        <v>345</v>
-      </c>
       <c r="F35">
         <v>1</v>
       </c>
@@ -7280,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" s="7">
         <v>0</v>
@@ -7303,20 +7449,20 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" t="s">
         <v>343</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>344</v>
       </c>
-      <c r="E36" t="s">
-        <v>345</v>
-      </c>
       <c r="F36">
         <v>1</v>
       </c>
@@ -7330,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="7">
         <v>0</v>
@@ -7353,20 +7499,20 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" t="s">
         <v>343</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>344</v>
       </c>
-      <c r="E37" t="s">
-        <v>345</v>
-      </c>
       <c r="F37">
         <v>1</v>
       </c>
@@ -7380,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L37" s="7">
         <v>0</v>
@@ -7403,20 +7549,20 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" t="s">
         <v>343</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>344</v>
       </c>
-      <c r="E38" t="s">
-        <v>345</v>
-      </c>
       <c r="F38">
         <v>1</v>
       </c>
@@ -7430,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L38" s="7">
         <v>0</v>
@@ -7453,20 +7599,20 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" t="s">
         <v>343</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>344</v>
       </c>
-      <c r="E39" t="s">
-        <v>345</v>
-      </c>
       <c r="F39">
         <v>1</v>
       </c>
@@ -7480,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" s="7">
         <v>0</v>
@@ -7503,20 +7649,20 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" t="s">
         <v>343</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>344</v>
       </c>
-      <c r="E40" t="s">
-        <v>345</v>
-      </c>
       <c r="F40">
         <v>1</v>
       </c>
@@ -7530,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" s="7">
         <v>0</v>
@@ -7553,20 +7699,20 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" t="s">
         <v>343</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>344</v>
       </c>
-      <c r="E41" t="s">
-        <v>345</v>
-      </c>
       <c r="F41">
         <v>1</v>
       </c>
@@ -7580,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L41" s="7">
         <v>0</v>
@@ -7603,20 +7749,20 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C42" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" t="s">
         <v>343</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>344</v>
       </c>
-      <c r="E42" t="s">
-        <v>345</v>
-      </c>
       <c r="F42">
         <v>1</v>
       </c>
@@ -7630,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L42" s="7">
         <v>0</v>
@@ -7653,20 +7799,20 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" t="s">
         <v>343</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>344</v>
       </c>
-      <c r="E43" t="s">
-        <v>345</v>
-      </c>
       <c r="F43">
         <v>1</v>
       </c>
@@ -7680,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L43" s="7">
         <v>0</v>
@@ -7703,20 +7849,20 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C44" t="s">
+        <v>342</v>
+      </c>
+      <c r="D44" t="s">
         <v>343</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>344</v>
       </c>
-      <c r="E44" t="s">
-        <v>345</v>
-      </c>
       <c r="F44">
         <v>1</v>
       </c>
@@ -7730,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L44" s="7">
         <v>0</v>
@@ -7753,20 +7899,20 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" t="s">
         <v>343</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>344</v>
       </c>
-      <c r="E45" t="s">
-        <v>345</v>
-      </c>
       <c r="F45">
         <v>1</v>
       </c>
@@ -7780,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L45" s="7">
         <v>0</v>
@@ -7803,20 +7949,20 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C46" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" t="s">
         <v>343</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>344</v>
       </c>
-      <c r="E46" t="s">
-        <v>345</v>
-      </c>
       <c r="F46">
         <v>1</v>
       </c>
@@ -7830,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L46" s="7">
         <v>0</v>
@@ -7853,20 +7999,20 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" t="s">
         <v>343</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>344</v>
       </c>
-      <c r="E47" t="s">
-        <v>345</v>
-      </c>
       <c r="F47">
         <v>1</v>
       </c>
@@ -7880,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L47" s="7">
         <v>0</v>
@@ -7903,20 +8049,20 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" t="s">
         <v>343</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="E48" t="s">
-        <v>345</v>
-      </c>
       <c r="F48">
         <v>1</v>
       </c>
@@ -7930,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L48" s="7">
         <v>0</v>
@@ -7953,20 +8099,20 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C49" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" t="s">
         <v>343</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>344</v>
       </c>
-      <c r="E49" t="s">
-        <v>345</v>
-      </c>
       <c r="F49">
         <v>1</v>
       </c>
@@ -7980,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" s="7">
         <v>0</v>
@@ -8003,20 +8149,20 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C50" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" t="s">
         <v>343</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>344</v>
       </c>
-      <c r="E50" t="s">
-        <v>345</v>
-      </c>
       <c r="F50">
         <v>1</v>
       </c>
@@ -8030,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L50" s="7">
         <v>0</v>
@@ -8053,20 +8199,20 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C51" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" t="s">
         <v>343</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>344</v>
       </c>
-      <c r="E51" t="s">
-        <v>345</v>
-      </c>
       <c r="F51">
         <v>1</v>
       </c>
@@ -8080,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L51" s="7">
         <v>0</v>
@@ -8103,20 +8249,20 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C52" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" t="s">
         <v>343</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>344</v>
       </c>
-      <c r="E52" t="s">
-        <v>345</v>
-      </c>
       <c r="F52">
         <v>1</v>
       </c>
@@ -8130,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L52" s="7">
         <v>0</v>
@@ -8153,20 +8299,20 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C53" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" t="s">
         <v>343</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>344</v>
       </c>
-      <c r="E53" t="s">
-        <v>345</v>
-      </c>
       <c r="F53">
         <v>1</v>
       </c>
@@ -8180,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L53" s="7">
         <v>0</v>
@@ -8203,20 +8349,20 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C54" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" t="s">
         <v>343</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>344</v>
       </c>
-      <c r="E54" t="s">
-        <v>345</v>
-      </c>
       <c r="F54">
         <v>1</v>
       </c>
@@ -8230,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L54" s="7">
         <v>0</v>
@@ -8253,20 +8399,20 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C55" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" t="s">
         <v>343</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>344</v>
       </c>
-      <c r="E55" t="s">
-        <v>345</v>
-      </c>
       <c r="F55">
         <v>1</v>
       </c>
@@ -8280,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L55" s="7">
         <v>0</v>
@@ -8303,20 +8449,20 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C56" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" t="s">
         <v>343</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>344</v>
       </c>
-      <c r="E56" t="s">
-        <v>345</v>
-      </c>
       <c r="F56">
         <v>1</v>
       </c>
@@ -8330,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L56" s="7">
         <v>0</v>
@@ -8353,20 +8499,20 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" t="s">
         <v>343</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>344</v>
       </c>
-      <c r="E57" t="s">
-        <v>345</v>
-      </c>
       <c r="F57">
         <v>1</v>
       </c>
@@ -8380,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L57" s="7">
         <v>0</v>
@@ -8403,20 +8549,20 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
+        <v>342</v>
+      </c>
+      <c r="D58" t="s">
         <v>343</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>344</v>
       </c>
-      <c r="E58" t="s">
-        <v>345</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -8430,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L58" s="7">
         <v>0</v>
@@ -8453,20 +8599,20 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C59" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" t="s">
         <v>343</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>344</v>
       </c>
-      <c r="E59" t="s">
-        <v>345</v>
-      </c>
       <c r="F59">
         <v>1</v>
       </c>
@@ -8480,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -8524,19 +8670,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
         <v>230</v>
-      </c>
-      <c r="E1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8547,13 +8693,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8564,13 +8710,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8581,13 +8727,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8598,13 +8744,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8615,13 +8761,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8632,13 +8778,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8649,13 +8795,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8666,13 +8812,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8683,13 +8829,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8700,13 +8846,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8775,33 +8921,33 @@
   <sheetData>
     <row r="1" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>146</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" t="s">
         <v>147</v>
       </c>
-      <c r="O1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>148</v>
-      </c>
       <c r="W1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y1" t="s">
         <v>482</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>483</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <v>20</v>
@@ -8840,7 +8986,7 @@
     </row>
     <row r="3" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>20</v>
@@ -8873,7 +9019,7 @@
     </row>
     <row r="4" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>20</v>
@@ -8906,14 +9052,14 @@
     </row>
     <row r="5" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -8938,7 +9084,7 @@
     </row>
     <row r="7" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O7">
         <f>O5/POWER(Q5,2)</f>
@@ -8954,10 +9100,10 @@
     </row>
     <row r="8" spans="11:26" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -8969,7 +9115,7 @@
     </row>
     <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -8984,7 +9130,7 @@
     </row>
     <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -8999,7 +9145,7 @@
     </row>
     <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -9095,164 +9241,164 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B3E52-0959-A54B-9576-659544DB10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A7B73-ACDF-7C48-98A5-582C9AB69D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="quest" sheetId="4" r:id="rId3"/>
     <sheet name="item" sheetId="5" r:id="rId4"/>
     <sheet name="level" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="vehicle" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="532">
   <si>
     <t>ID</t>
   </si>
@@ -1481,10 +1482,6 @@
   </si>
   <si>
     <t>Speed</t>
-  </si>
-  <si>
-    <t>경차한대 만들어 주세욥!
-여기 작고 소중한 재료 모아왔어요~ 경차 한대만 만들어 주세요</t>
   </si>
   <si>
     <t>vehicle-1</t>
@@ -1627,9 +1624,6 @@
     <t>택시타기</t>
   </si>
   <si>
-    <t>test-get_in</t>
-  </si>
-  <si>
     <t>test-get_off</t>
   </si>
   <si>
@@ -1651,13 +1645,107 @@
 GET_OFF_VEHICLE=8</t>
   </si>
   <si>
-    <t>Taxi</t>
-  </si>
-  <si>
     <t>아저씨 따블~</t>
   </si>
   <si>
-    <t>Taxi:90.0.55</t>
+    <t>경차한대 만들어 주세욥!
+여기 작고 소중한 재료 모아왔어요~ \n경차 한대만 만들어 주세요</t>
+  </si>
+  <si>
+    <t>Gold:16,Resource1:8</t>
+  </si>
+  <si>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>ownable</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>acceleration</t>
+  </si>
+  <si>
+    <t>wating
+대기시간</t>
+  </si>
+  <si>
+    <t>production cost</t>
+  </si>
+  <si>
+    <t>taxi-1</t>
+  </si>
+  <si>
+    <t>택시1</t>
+  </si>
+  <si>
+    <t>Vehicle/Taxi</t>
+  </si>
+  <si>
+    <t>test-get_in1</t>
+  </si>
+  <si>
+    <t>택시잡기1</t>
+  </si>
+  <si>
+    <t>VEH1</t>
+  </si>
+  <si>
+    <t>VEH2</t>
+  </si>
+  <si>
+    <t>test-get_in2</t>
+  </si>
+  <si>
+    <t>VEHICLE.0</t>
+  </si>
+  <si>
+    <t>VEHICLE.0:75,0,0</t>
+  </si>
+  <si>
+    <t>VEHICLE.0:90,0,55</t>
+  </si>
+  <si>
+    <t>택시잡아타기1</t>
+  </si>
+  <si>
+    <t>Gold:-1</t>
+  </si>
+  <si>
+    <t>택시잡기2</t>
+  </si>
+  <si>
+    <t>택시잡아타기2</t>
+  </si>
+  <si>
+    <t>가요?</t>
+  </si>
+  <si>
+    <t>2.5,0,8:0,0,0
+75,0,0:0,0,0</t>
+  </si>
+  <si>
+    <t>경찰차1</t>
+  </si>
+  <si>
+    <t>15,0,-8:0,-90,0
+5,0,70:0,0,0</t>
+  </si>
+  <si>
+    <t>Vehicle/Police_Car</t>
+  </si>
+  <si>
+    <t>police-1</t>
+  </si>
+  <si>
+    <t>TAXI</t>
+  </si>
+  <si>
+    <t>POLICE</t>
   </si>
 </sst>
 </file>
@@ -3531,15 +3619,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
@@ -3590,7 +3678,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3602,7 +3690,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>122</v>
@@ -3611,7 +3699,7 @@
         <v>415</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
@@ -3864,10 +3952,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -3888,21 +3976,21 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4437,7 +4525,7 @@
         <v>449</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4467,27 +4555,27 @@
         <v>2</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S19" s="4">
         <v>1</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4499,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -4514,21 +4602,21 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
+        <v>469</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
         <v>470</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1</v>
-      </c>
-      <c r="T20" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4540,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -4558,27 +4646,27 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
+        <v>476</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>473</v>
+      </c>
+      <c r="O21" t="s">
+        <v>483</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>477</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>474</v>
-      </c>
-      <c r="O21" t="s">
-        <v>484</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4617,33 +4705,33 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>514</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>343</v>
+        <v>520</v>
       </c>
       <c r="H23" t="s">
         <v>306</v>
@@ -4658,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4667,27 +4755,27 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4699,10 +4787,13 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="M24">
         <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>521</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
@@ -4710,19 +4801,19 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4740,7 +4831,95 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>499</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>522</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>517</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>516</v>
+      </c>
+      <c r="B27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>494</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>518</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>521</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4754,7 +4933,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4819,7 +4998,7 @@
         <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -5006,7 +5185,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5123,7 +5302,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -5135,16 +5314,16 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -5156,7 +5335,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5226,7 +5405,7 @@
         <v>91</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>92</v>
@@ -5241,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>441</v>
@@ -5288,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -5332,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -5376,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -5420,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -5464,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -5508,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -5552,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -6896,7 +7075,7 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" t="s">
         <v>455</v>
@@ -8910,6 +9089,122 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B6BC8-09F3-3245-B8D8-73897C533FE3}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>511</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>528</v>
+      </c>
+      <c r="J3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
   <dimension ref="K1:Z36"/>
   <sheetViews>
@@ -8936,13 +9231,13 @@
         <v>147</v>
       </c>
       <c r="W1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y1" t="s">
         <v>481</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>482</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -9224,7 +9519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C2200-8081-644A-AB13-9EC51CCA238B}">
   <dimension ref="I2:K22"/>
   <sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A7B73-ACDF-7C48-98A5-582C9AB69D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28276F0-BAE4-5044-B1D2-318B9B37E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1725,27 +1725,32 @@
     <t>가요?</t>
   </si>
   <si>
+    <t>경찰차1</t>
+  </si>
+  <si>
+    <t>Vehicle/Police_Car</t>
+  </si>
+  <si>
+    <t>police-1</t>
+  </si>
+  <si>
+    <t>TAXI</t>
+  </si>
+  <si>
+    <t>POLICE</t>
+  </si>
+  <si>
     <t>2.5,0,8:0,0,0
-75,0,0:0,0,0</t>
-  </si>
-  <si>
-    <t>경찰차1</t>
+75,0,-2:0,0,0
+82,0,108:0,0,0
+-25,0,69:0,0,0</t>
   </si>
   <si>
     <t>15,0,-8:0,-90,0
-5,0,70:0,0,0</t>
-  </si>
-  <si>
-    <t>Vehicle/Police_Car</t>
-  </si>
-  <si>
-    <t>police-1</t>
-  </si>
-  <si>
-    <t>TAXI</t>
-  </si>
-  <si>
-    <t>POLICE</t>
+3,0,70:0,0,0
+185,0,-9:0,0,0
+103,0,130:0,0,0
+-8,0,107.4:0,0,0</t>
   </si>
 </sst>
 </file>
@@ -9093,7 +9098,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9138,9 +9143,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
         <v>509</v>
@@ -9158,27 +9163,27 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>511</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>526</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9187,16 +9192,16 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J3" t="s">
         <v>501</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28276F0-BAE4-5044-B1D2-318B9B37E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67AAFA4-3A8A-B340-ADED-96A0818CC0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1701,15 +1701,6 @@
     <t>test-get_in2</t>
   </si>
   <si>
-    <t>VEHICLE.0</t>
-  </si>
-  <si>
-    <t>VEHICLE.0:75,0,0</t>
-  </si>
-  <si>
-    <t>VEHICLE.0:90,0,55</t>
-  </si>
-  <si>
     <t>택시잡아타기1</t>
   </si>
   <si>
@@ -1751,6 +1742,15 @@
 185,0,-9:0,0,0
 103,0,130:0,0,0
 -8,0,107.4:0,0,0</t>
+  </si>
+  <si>
+    <t>VEHICLE.TAXI</t>
+  </si>
+  <si>
+    <t>VEHICLE.TAXI:90,0,55</t>
+  </si>
+  <si>
+    <t>VEHICLE.TAXI:75,0,0</t>
   </si>
 </sst>
 </file>
@@ -3626,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4736,7 +4736,7 @@
         <v>513</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H23" t="s">
         <v>306</v>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
@@ -4856,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H26" t="s">
         <v>306</v>
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -4915,13 +4915,13 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
+        <v>531</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>518</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>521</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
@@ -9098,7 +9098,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
         <v>509</v>
@@ -9163,27 +9163,27 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>511</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9195,13 +9195,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J3" t="s">
         <v>501</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67AAFA4-3A8A-B340-ADED-96A0818CC0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB1960-D24F-954E-9A4E-6F92D0E5FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="553">
   <si>
     <t>ID</t>
   </si>
@@ -480,20 +480,6 @@
   </si>
   <si>
     <t>캬옹이</t>
-  </si>
-  <si>
-    <t>HP,27,50,30
-MP,20,50,21
-Gold,20,50,10
-Ability1,20,50,10
-Ability2,20,50,10
-Ability3,20,50,10
-Resource1,20,50,10
-Resource2,20,50,10
-Resource3,20,50,10
-Sight,20,50,10
-Leadership,0,50,10
-Friendship,0,50,10</t>
   </si>
   <si>
     <t>avg</t>
@@ -1633,6 +1619,184 @@
     <t>도착</t>
   </si>
   <si>
+    <t>아저씨 따블~</t>
+  </si>
+  <si>
+    <t>경차한대 만들어 주세욥!
+여기 작고 소중한 재료 모아왔어요~ \n경차 한대만 만들어 주세요</t>
+  </si>
+  <si>
+    <t>Gold:16,Resource1:8</t>
+  </si>
+  <si>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>ownable</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>acceleration</t>
+  </si>
+  <si>
+    <t>wating
+대기시간</t>
+  </si>
+  <si>
+    <t>production cost</t>
+  </si>
+  <si>
+    <t>taxi-1</t>
+  </si>
+  <si>
+    <t>택시1</t>
+  </si>
+  <si>
+    <t>Vehicle/Taxi</t>
+  </si>
+  <si>
+    <t>test-get_in1</t>
+  </si>
+  <si>
+    <t>택시잡기1</t>
+  </si>
+  <si>
+    <t>VEH1</t>
+  </si>
+  <si>
+    <t>VEH2</t>
+  </si>
+  <si>
+    <t>test-get_in2</t>
+  </si>
+  <si>
+    <t>택시잡아타기1</t>
+  </si>
+  <si>
+    <t>Gold:-1</t>
+  </si>
+  <si>
+    <t>택시잡기2</t>
+  </si>
+  <si>
+    <t>택시잡아타기2</t>
+  </si>
+  <si>
+    <t>가요?</t>
+  </si>
+  <si>
+    <t>경찰차1</t>
+  </si>
+  <si>
+    <t>Vehicle/Police_Car</t>
+  </si>
+  <si>
+    <t>police-1</t>
+  </si>
+  <si>
+    <t>TAXI</t>
+  </si>
+  <si>
+    <t>POLICE</t>
+  </si>
+  <si>
+    <t>2.5,0,8:0,0,0
+75,0,-2:0,0,0
+82,0,108:0,0,0
+-25,0,69:0,0,0</t>
+  </si>
+  <si>
+    <t>15,0,-8:0,-90,0
+3,0,70:0,0,0
+185,0,-9:0,0,0
+103,0,130:0,0,0
+-8,0,107.4:0,0,0</t>
+  </si>
+  <si>
+    <t>VEHICLE.TAXI</t>
+  </si>
+  <si>
+    <t>VEHICLE.TAXI:90,0,55</t>
+  </si>
+  <si>
+    <t>VEHICLE.TAXI:75,0,0</t>
+  </si>
+  <si>
+    <t>NPC9-1</t>
+  </si>
+  <si>
+    <t>광부1</t>
+  </si>
+  <si>
+    <t>Actors/npc3</t>
+  </si>
+  <si>
+    <t>-50,0,-90</t>
+  </si>
+  <si>
+    <t>NPC-109</t>
+  </si>
+  <si>
+    <t>자원캐기</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_642</t>
+  </si>
+  <si>
+    <t>Resource1:2</t>
+  </si>
+  <si>
+    <t>오메~ 돈이 얼마여~
+이게 다 돈이여 돈~</t>
+  </si>
+  <si>
+    <t>1,100</t>
+  </si>
+  <si>
+    <t>NI1</t>
+  </si>
+  <si>
+    <t>광부1과 거래하기</t>
+  </si>
+  <si>
+    <t>Bashful</t>
+  </si>
+  <si>
+    <t>광부1에게서 수줍게 자원1 구매</t>
+  </si>
+  <si>
+    <t>NI1-I</t>
+  </si>
+  <si>
+    <t>Gold:$|1.0|-%,Resource1:1</t>
+  </si>
+  <si>
+    <t>자원1 사러 왔어요
+물건 있나요?
+자원1 파실래요?</t>
+  </si>
+  <si>
+    <t>헉..</t>
+  </si>
+  <si>
+    <t>자원1 팔기</t>
+  </si>
+  <si>
+    <t>Gold:$|1.0|+%,Resource1:-1</t>
+  </si>
+  <si>
+    <t>A급 자원1 여깄습니다</t>
+  </si>
+  <si>
+    <t>Gold,0,10000,0
+Resource1,0,10000,50</t>
+  </si>
+  <si>
     <t>Target.Type
 NON_TARGET=0
 OBJECT=1
@@ -1641,116 +1805,9 @@
 ACTOR_FROM=4
 POSITION=5
 FLY=6
-GET_IN_VEHICLE=7
-GET_OFF_VEHICLE=8</t>
-  </si>
-  <si>
-    <t>아저씨 따블~</t>
-  </si>
-  <si>
-    <t>경차한대 만들어 주세욥!
-여기 작고 소중한 재료 모아왔어요~ \n경차 한대만 만들어 주세요</t>
-  </si>
-  <si>
-    <t>Gold:16,Resource1:8</t>
-  </si>
-  <si>
-    <t>positions</t>
-  </si>
-  <si>
-    <t>ownable</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>acceleration</t>
-  </si>
-  <si>
-    <t>wating
-대기시간</t>
-  </si>
-  <si>
-    <t>production cost</t>
-  </si>
-  <si>
-    <t>taxi-1</t>
-  </si>
-  <si>
-    <t>택시1</t>
-  </si>
-  <si>
-    <t>Vehicle/Taxi</t>
-  </si>
-  <si>
-    <t>test-get_in1</t>
-  </si>
-  <si>
-    <t>택시잡기1</t>
-  </si>
-  <si>
-    <t>VEH1</t>
-  </si>
-  <si>
-    <t>VEH2</t>
-  </si>
-  <si>
-    <t>test-get_in2</t>
-  </si>
-  <si>
-    <t>택시잡아타기1</t>
-  </si>
-  <si>
-    <t>Gold:-1</t>
-  </si>
-  <si>
-    <t>택시잡기2</t>
-  </si>
-  <si>
-    <t>택시잡아타기2</t>
-  </si>
-  <si>
-    <t>가요?</t>
-  </si>
-  <si>
-    <t>경찰차1</t>
-  </si>
-  <si>
-    <t>Vehicle/Police_Car</t>
-  </si>
-  <si>
-    <t>police-1</t>
-  </si>
-  <si>
-    <t>TAXI</t>
-  </si>
-  <si>
-    <t>POLICE</t>
-  </si>
-  <si>
-    <t>2.5,0,8:0,0,0
-75,0,-2:0,0,0
-82,0,108:0,0,0
--25,0,69:0,0,0</t>
-  </si>
-  <si>
-    <t>15,0,-8:0,-90,0
-3,0,70:0,0,0
-185,0,-9:0,0,0
-103,0,130:0,0,0
--8,0,107.4:0,0,0</t>
-  </si>
-  <si>
-    <t>VEHICLE.TAXI</t>
-  </si>
-  <si>
-    <t>VEHICLE.TAXI:90,0,55</t>
-  </si>
-  <si>
-    <t>VEHICLE.TAXI:75,0,0</t>
+RESERVE_VEHICLE = 7
+GET_IN_VEHICLE=8
+GET_OFF_VEHICLE=9</t>
   </si>
 </sst>
 </file>
@@ -3624,16 +3681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
@@ -3651,7 +3708,7 @@
     <col min="21" max="21" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="187" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3718,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3683,7 +3740,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3695,16 +3752,16 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
@@ -3723,7 +3780,7 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
@@ -3761,19 +3818,19 @@
     </row>
     <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
       </c>
       <c r="H3" t="s">
         <v>88</v>
@@ -3799,77 +3856,75 @@
         <v>104</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>534</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>301</v>
+        <v>535</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
+        <v>309</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4">
         <v>-1</v>
       </c>
-      <c r="K4">
-        <v>2</v>
+      <c r="K4" s="1">
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>283</v>
+        <v>537</v>
       </c>
       <c r="S4" s="4">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>302</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3878,191 +3933,189 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>282</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>283</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>446</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>284</v>
-      </c>
-      <c r="S5" s="4">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="G7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" t="s">
         <v>442</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>443</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H6" t="s">
-        <v>443</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>444</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>492</v>
-      </c>
-      <c r="R7" t="s">
-        <v>491</v>
-      </c>
-      <c r="S7" s="4">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K8">
-        <v>1</v>
+      <c r="K8" s="1">
+        <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>491</v>
+      </c>
+      <c r="R8" t="s">
+        <v>490</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" t="s">
         <v>309</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="4">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4074,39 +4127,41 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>286</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="4">
         <v>1</v>
       </c>
-      <c r="T9" t="s">
-        <v>109</v>
+      <c r="T9" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>291</v>
+      <c r="D10" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -4121,39 +4176,39 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>291</v>
+      <c r="D11" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4168,42 +4223,42 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>292</v>
+      <c r="D12" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>434</v>
+        <v>274</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H12" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4215,46 +4270,42 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="R12" s="1"/>
+        <v>287</v>
+      </c>
       <c r="S12" s="4">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>292</v>
+      <c r="D13" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4266,46 +4317,46 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>292</v>
+      <c r="D14" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4317,49 +4368,46 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>289</v>
+      <c r="D15" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>277</v>
+        <v>435</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4371,38 +4419,47 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R15" s="1"/>
       <c r="S15" s="4">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>289</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
@@ -4416,86 +4473,81 @@
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
       <c r="S16" s="4">
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>290</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S17" s="4">
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -4504,189 +4556,189 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
       </c>
       <c r="O18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S18" s="4">
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>118</v>
-      </c>
-      <c r="U18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>449</v>
-      </c>
-      <c r="B19" t="s">
-        <v>468</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>451</v>
+        <v>280</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>450</v>
+        <v>281</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>459</v>
+        <v>35</v>
       </c>
       <c r="S19" s="4">
         <v>1</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T19" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>448</v>
+      </c>
+      <c r="B20" t="s">
+        <v>467</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>493</v>
+        <v>450</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>458</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>492</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>468</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>469</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1</v>
-      </c>
-      <c r="T20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>472</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>475</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>476</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>473</v>
-      </c>
-      <c r="O21" t="s">
-        <v>483</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>474</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -4695,130 +4747,145 @@
         <v>1</v>
       </c>
       <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>475</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>472</v>
+      </c>
+      <c r="O22" t="s">
+        <v>482</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>-1</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>479</v>
-      </c>
-      <c r="U22" s="1" t="s">
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>514</v>
-      </c>
-      <c r="B23" t="s">
-        <v>512</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>513</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H23" t="s">
-        <v>306</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>529</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>1</v>
-      </c>
-      <c r="T23" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U23" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>512</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>291</v>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>494</v>
+        <v>511</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>495</v>
+        <v>510</v>
+      </c>
+      <c r="B25" t="s">
+        <v>494</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>291</v>
+      <c r="D25" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4829,52 +4896,40 @@
       <c r="K25">
         <v>8</v>
       </c>
+      <c r="L25" t="s">
+        <v>528</v>
+      </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="S25" s="4">
         <v>1</v>
       </c>
-      <c r="T25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>515</v>
-      </c>
-      <c r="B26" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>291</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>519</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H26" t="s">
-        <v>306</v>
+        <v>495</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>529</v>
+        <v>9</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4883,48 +4938,192 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B27" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>291</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>494</v>
+        <v>517</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H27" t="s">
+        <v>305</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" t="s">
+        <v>494</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>493</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>529</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>541</v>
+      </c>
+      <c r="G29" t="s">
+        <v>543</v>
+      </c>
+      <c r="H29" t="s">
+        <v>542</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>530</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>544</v>
+      </c>
+      <c r="O29" t="s">
+        <v>545</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="U29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>544</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>548</v>
+      </c>
+      <c r="G30" t="s">
+        <v>548</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>549</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4935,10 +5134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4949,7 +5148,7 @@
     <col min="11" max="11" width="10.83203125" style="2"/>
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4997,13 +5196,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P1" t="s">
         <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -5067,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>51</v>
@@ -5111,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>57</v>
@@ -5155,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>62</v>
@@ -5167,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -5190,7 +5389,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5307,7 +5506,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -5319,16 +5518,16 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -5340,7 +5539,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5351,95 +5550,89 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>531</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>532</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>76</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="238" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="238" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>90</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>94</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -5454,13 +5647,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>93</v>
@@ -5472,18 +5665,21 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -5498,13 +5694,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>93</v>
@@ -5516,18 +5712,18 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -5542,13 +5738,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>93</v>
@@ -5560,18 +5756,18 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -5586,13 +5782,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>93</v>
@@ -5604,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -5630,13 +5826,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>93</v>
@@ -5648,18 +5844,18 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -5674,13 +5870,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>93</v>
@@ -5692,18 +5888,18 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -5718,13 +5914,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>93</v>
@@ -5736,18 +5932,18 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="204" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -5762,13 +5958,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>93</v>
@@ -5780,13 +5976,57 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>141</v>
+        <v>466</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="238" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5812,39 +6052,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" t="s">
-        <v>159</v>
-      </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5852,19 +6092,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
         <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" t="s">
-        <v>215</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5872,19 +6112,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5892,19 +6132,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5912,19 +6152,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5932,19 +6172,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5952,19 +6192,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5972,19 +6212,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5992,19 +6232,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6012,19 +6252,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
         <v>182</v>
       </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" t="s">
-        <v>183</v>
-      </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6063,16 +6303,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
         <v>160</v>
-      </c>
-      <c r="C1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -6081,49 +6321,49 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R1" t="s">
         <v>163</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
         <v>246</v>
       </c>
-      <c r="B2" t="s">
-        <v>247</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -6137,33 +6377,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6178,33 +6418,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6219,33 +6459,33 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6260,33 +6500,33 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6301,33 +6541,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6342,33 +6582,33 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6383,33 +6623,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6424,33 +6664,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6465,74 +6705,74 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6570,10 +6810,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6611,10 +6851,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6652,10 +6892,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6693,10 +6933,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6734,10 +6974,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6775,10 +7015,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6816,10 +7056,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -6857,10 +7097,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6898,10 +7138,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -6939,31 +7179,31 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" t="s">
         <v>416</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>417</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -6986,16 +7226,16 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
         <v>420</v>
       </c>
-      <c r="C23" t="s">
-        <v>421</v>
-      </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -7010,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -7033,16 +7273,16 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -7057,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -7080,37 +7320,37 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" t="s">
         <v>455</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>453</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D25" t="s">
-        <v>452</v>
-      </c>
-      <c r="E25" t="s">
-        <v>453</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>454</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="L25" s="7">
         <v>12</v>
@@ -7133,19 +7373,19 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" t="s">
         <v>342</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>343</v>
-      </c>
-      <c r="E26" t="s">
-        <v>344</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7183,19 +7423,19 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" t="s">
         <v>342</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>343</v>
-      </c>
-      <c r="E27" t="s">
-        <v>344</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -7233,19 +7473,19 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" t="s">
         <v>342</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>343</v>
-      </c>
-      <c r="E28" t="s">
-        <v>344</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -7283,19 +7523,19 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" t="s">
         <v>342</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>343</v>
-      </c>
-      <c r="E29" t="s">
-        <v>344</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -7333,19 +7573,19 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
         <v>342</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>343</v>
-      </c>
-      <c r="E30" t="s">
-        <v>344</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -7383,19 +7623,19 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" t="s">
         <v>342</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>343</v>
-      </c>
-      <c r="E31" t="s">
-        <v>344</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -7433,19 +7673,19 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" t="s">
         <v>342</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>343</v>
-      </c>
-      <c r="E32" t="s">
-        <v>344</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -7483,19 +7723,19 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" t="s">
         <v>342</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>343</v>
-      </c>
-      <c r="E33" t="s">
-        <v>344</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -7533,19 +7773,19 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" t="s">
         <v>342</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>343</v>
-      </c>
-      <c r="E34" t="s">
-        <v>344</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -7583,19 +7823,19 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C35" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" t="s">
         <v>342</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>343</v>
-      </c>
-      <c r="E35" t="s">
-        <v>344</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -7633,19 +7873,19 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" t="s">
         <v>342</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>343</v>
-      </c>
-      <c r="E36" t="s">
-        <v>344</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -7683,19 +7923,19 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C37" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" t="s">
         <v>342</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>343</v>
-      </c>
-      <c r="E37" t="s">
-        <v>344</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -7733,19 +7973,19 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" t="s">
         <v>342</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>343</v>
-      </c>
-      <c r="E38" t="s">
-        <v>344</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -7783,19 +8023,19 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" t="s">
         <v>342</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>343</v>
-      </c>
-      <c r="E39" t="s">
-        <v>344</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -7833,19 +8073,19 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" t="s">
         <v>342</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>343</v>
-      </c>
-      <c r="E40" t="s">
-        <v>344</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -7883,19 +8123,19 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" t="s">
         <v>342</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>343</v>
-      </c>
-      <c r="E41" t="s">
-        <v>344</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7933,19 +8173,19 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" t="s">
         <v>342</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>343</v>
-      </c>
-      <c r="E42" t="s">
-        <v>344</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -7983,19 +8223,19 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C43" t="s">
+        <v>341</v>
+      </c>
+      <c r="D43" t="s">
         <v>342</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>343</v>
-      </c>
-      <c r="E43" t="s">
-        <v>344</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -8033,19 +8273,19 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" t="s">
         <v>342</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>343</v>
-      </c>
-      <c r="E44" t="s">
-        <v>344</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -8083,19 +8323,19 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C45" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" t="s">
         <v>342</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>343</v>
-      </c>
-      <c r="E45" t="s">
-        <v>344</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -8133,19 +8373,19 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D46" t="s">
         <v>342</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>343</v>
-      </c>
-      <c r="E46" t="s">
-        <v>344</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -8183,19 +8423,19 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" t="s">
         <v>342</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>343</v>
-      </c>
-      <c r="E47" t="s">
-        <v>344</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8233,19 +8473,19 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" t="s">
         <v>342</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>343</v>
-      </c>
-      <c r="E48" t="s">
-        <v>344</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8283,19 +8523,19 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C49" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" t="s">
         <v>342</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>343</v>
-      </c>
-      <c r="E49" t="s">
-        <v>344</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -8333,19 +8573,19 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" t="s">
         <v>342</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>343</v>
-      </c>
-      <c r="E50" t="s">
-        <v>344</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -8383,19 +8623,19 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C51" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" t="s">
         <v>342</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>343</v>
-      </c>
-      <c r="E51" t="s">
-        <v>344</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8433,19 +8673,19 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" t="s">
         <v>342</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>343</v>
-      </c>
-      <c r="E52" t="s">
-        <v>344</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -8483,19 +8723,19 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C53" t="s">
+        <v>341</v>
+      </c>
+      <c r="D53" t="s">
         <v>342</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>343</v>
-      </c>
-      <c r="E53" t="s">
-        <v>344</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -8533,19 +8773,19 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C54" t="s">
+        <v>341</v>
+      </c>
+      <c r="D54" t="s">
         <v>342</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>343</v>
-      </c>
-      <c r="E54" t="s">
-        <v>344</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -8583,19 +8823,19 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" t="s">
         <v>342</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>343</v>
-      </c>
-      <c r="E55" t="s">
-        <v>344</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -8633,19 +8873,19 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C56" t="s">
+        <v>341</v>
+      </c>
+      <c r="D56" t="s">
         <v>342</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>343</v>
-      </c>
-      <c r="E56" t="s">
-        <v>344</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -8683,19 +8923,19 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
+        <v>341</v>
+      </c>
+      <c r="D57" t="s">
         <v>342</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>343</v>
-      </c>
-      <c r="E57" t="s">
-        <v>344</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -8733,19 +8973,19 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" t="s">
         <v>342</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>343</v>
-      </c>
-      <c r="E58" t="s">
-        <v>344</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -8783,19 +9023,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" t="s">
         <v>342</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>343</v>
-      </c>
-      <c r="E59" t="s">
-        <v>344</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -8854,19 +9094,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8877,13 +9117,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8894,13 +9134,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8911,13 +9151,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8928,13 +9168,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8945,13 +9185,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8962,13 +9202,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8979,13 +9219,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8996,13 +9236,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9013,13 +9253,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9030,13 +9270,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9097,7 +9337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B6BC8-09F3-3245-B8D8-73897C533FE3}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -9113,48 +9353,48 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>503</v>
       </c>
-      <c r="D1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="F1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -9163,27 +9403,27 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9195,13 +9435,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -9221,28 +9461,28 @@
   <sheetData>
     <row r="1" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" t="s">
         <v>144</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>145</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" t="s">
         <v>146</v>
       </c>
-      <c r="O1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>147</v>
-      </c>
       <c r="W1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y1" t="s">
         <v>480</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>481</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -9352,14 +9592,14 @@
     </row>
     <row r="5" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -9384,7 +9624,7 @@
     </row>
     <row r="7" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O7">
         <f>O5/POWER(Q5,2)</f>
@@ -9400,10 +9640,10 @@
     </row>
     <row r="8" spans="11:26" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -9415,7 +9655,7 @@
     </row>
     <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -9430,7 +9670,7 @@
     </row>
     <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -9445,7 +9685,7 @@
     </row>
     <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -9541,164 +9781,164 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB1960-D24F-954E-9A4E-6F92D0E5FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9541A2EF-8502-FC46-9BC8-F2241D19E44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="597">
   <si>
     <t>ID</t>
   </si>
@@ -217,9 +217,6 @@
     <t>NPC3-1</t>
   </si>
   <si>
-    <t>무료 피자 시식 알바</t>
-  </si>
-  <si>
     <t>Actors/actor5</t>
   </si>
   <si>
@@ -919,9 +916,6 @@
     <t>다른 마을을 보고 온다</t>
   </si>
   <si>
-    <t>리더십키우기</t>
-  </si>
-  <si>
     <t>주변에 돈많을 사람한테 괜히 말걸기</t>
   </si>
   <si>
@@ -1234,9 +1228,6 @@
   </si>
   <si>
     <t>item-38</t>
-  </si>
-  <si>
-    <t>test item5</t>
   </si>
   <si>
     <t>test item6</t>
@@ -1808,6 +1799,148 @@
 RESERVE_VEHICLE = 7
 GET_IN_VEHICLE=8
 GET_OFF_VEHICLE=9</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>p21</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>1,19</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>1,21</t>
+  </si>
+  <si>
+    <t>1,22</t>
+  </si>
+  <si>
+    <t>1,23</t>
+  </si>
+  <si>
+    <t>1,24</t>
+  </si>
+  <si>
+    <t>1,26</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
+    <t>1,28</t>
+  </si>
+  <si>
+    <t>1,29</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
+    <t>인사하기</t>
+  </si>
+  <si>
+    <t>떡뽁이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수제 국물 떡뽁이+면사리+치즈추가 그리고 볶음밥으로 구성된 떡뽁이 </t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>item-5,1,10,10</t>
+  </si>
+  <si>
+    <t>떡뽁이 주문하기</t>
+  </si>
+  <si>
+    <t>소문난 떡뽁이 맛집에서 주문하기</t>
+  </si>
+  <si>
+    <t>Gold:-8</t>
+  </si>
+  <si>
+    <t>떡뽁이 1인분 포장이요~
+1인분이요~ 리뷰이벤트 신청했어요~</t>
+  </si>
+  <si>
+    <t>떡뽁이집 알바</t>
   </si>
 </sst>
 </file>
@@ -3681,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3722,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3737,10 +3870,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3752,30 +3885,30 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" t="s">
         <v>106</v>
-      </c>
-      <c r="U1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3787,10 +3920,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
         <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>88</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -3807,18 +3940,18 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S2" s="4">
         <v>102</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3830,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -3850,33 +3983,33 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S3" s="4">
         <v>104</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -3888,20 +4021,20 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -3918,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -3942,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -3965,13 +4098,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" t="s">
         <v>303</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H6" t="s">
-        <v>305</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3983,24 +4116,24 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4012,13 +4145,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4030,19 +4163,19 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4059,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -4077,27 +4210,27 @@
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="R8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4109,13 +4242,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4127,13 +4260,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -4141,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4152,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -4176,19 +4309,19 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4199,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4223,19 +4356,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4246,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -4270,19 +4403,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S12" s="4">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4293,19 +4426,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4317,23 +4450,23 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4344,19 +4477,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4368,23 +4501,23 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4395,19 +4528,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4419,23 +4552,23 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4449,16 +4582,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -4473,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4485,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4496,7 +4629,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4518,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4527,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4538,16 +4671,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>587</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -4562,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4577,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4594,10 +4727,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -4621,18 +4754,18 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
+        <v>117</v>
+      </c>
+      <c r="U19" t="s">
         <v>118</v>
-      </c>
-      <c r="U19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B20" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4644,10 +4777,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -4662,27 +4795,27 @@
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4694,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -4709,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4718,27 +4851,27 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>471</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>474</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -4753,27 +4886,27 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4785,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -4812,36 +4945,36 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B24" t="s">
+        <v>507</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>508</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B24" t="s">
-        <v>510</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>511</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="H24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4853,39 +4986,39 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4897,7 +5030,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4908,19 +5041,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4938,33 +5071,33 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>514</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>517</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -4976,39 +5109,39 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
+        <v>513</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
         <v>516</v>
-      </c>
-      <c r="S27" s="4">
-        <v>1</v>
-      </c>
-      <c r="T27" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B28" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5020,7 +5153,7 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5031,60 +5164,60 @@
     </row>
     <row r="29" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>537</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>538</v>
+      </c>
+      <c r="G29" t="s">
         <v>540</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
+        <v>539</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>527</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>541</v>
       </c>
-      <c r="G29" t="s">
+      <c r="O29" t="s">
+        <v>542</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H29" t="s">
-        <v>542</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>530</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="U29" t="s">
         <v>544</v>
-      </c>
-      <c r="O29" t="s">
-        <v>545</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U29" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5096,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -5117,13 +5250,63 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="S30" s="4">
         <v>1</v>
       </c>
       <c r="T30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>550</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>592</v>
+      </c>
+      <c r="G31" t="s">
+        <v>593</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>591</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5136,8 +5319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5196,18 +5379,18 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -5219,25 +5402,25 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -5266,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>51</v>
@@ -5304,16 +5487,16 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>596</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>52</v>
@@ -5325,7 +5508,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -5336,7 +5519,7 @@
     </row>
     <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -5348,16 +5531,16 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>52</v>
@@ -5366,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -5377,7 +5560,7 @@
     </row>
     <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -5389,19 +5572,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -5410,7 +5593,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -5421,7 +5604,7 @@
     </row>
     <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -5433,19 +5616,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>68</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5454,7 +5637,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -5465,7 +5648,7 @@
     </row>
     <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -5477,25 +5660,25 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>78</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -5506,7 +5689,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -5518,19 +5701,19 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -5539,7 +5722,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5550,7 +5733,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -5562,25 +5745,25 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -5591,7 +5774,7 @@
     </row>
     <row r="11" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -5603,25 +5786,25 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -5632,43 +5815,43 @@
     </row>
     <row r="12" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -5679,40 +5862,40 @@
     </row>
     <row r="13" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>94</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>95</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>96</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -5723,13 +5906,13 @@
     </row>
     <row r="14" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5738,25 +5921,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -5767,13 +5950,13 @@
     </row>
     <row r="15" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5782,25 +5965,25 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -5811,13 +5994,13 @@
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -5826,25 +6009,25 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -5855,13 +6038,13 @@
     </row>
     <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -5870,25 +6053,25 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -5899,13 +6082,13 @@
     </row>
     <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -5914,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5923,16 +6106,16 @@
         <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -5943,13 +6126,13 @@
     </row>
     <row r="19" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -5958,25 +6141,25 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -5987,13 +6170,13 @@
     </row>
     <row r="20" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -6002,25 +6185,25 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -6052,39 +6235,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
-        <v>158</v>
-      </c>
       <c r="F1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6092,19 +6275,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
         <v>213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>214</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6112,19 +6295,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6132,19 +6315,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6152,19 +6335,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6172,19 +6355,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6192,19 +6375,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6212,19 +6395,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6232,19 +6415,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6252,19 +6435,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" t="s">
         <v>181</v>
       </c>
-      <c r="B11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" t="s">
-        <v>182</v>
-      </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6281,13 +6464,13 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
@@ -6303,16 +6486,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>160</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -6321,49 +6504,49 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" t="s">
         <v>162</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="R1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
         <v>245</v>
       </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -6377,33 +6560,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6418,33 +6601,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6459,33 +6642,33 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6500,33 +6683,33 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6541,33 +6724,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6582,33 +6765,33 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6623,33 +6806,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6664,33 +6847,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6705,74 +6888,74 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6810,10 +6993,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6851,10 +7034,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6892,10 +7075,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6933,10 +7116,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6974,10 +7157,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -7015,10 +7198,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -7056,10 +7239,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -7097,10 +7280,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -7138,10 +7321,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -7179,31 +7362,31 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C22" t="s">
-        <v>416</v>
-      </c>
-      <c r="D22" t="s">
-        <v>417</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -7226,31 +7409,31 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
+        <v>417</v>
+      </c>
+      <c r="D23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="D23" t="s">
-        <v>417</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -7273,31 +7456,31 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C24" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="D24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -7320,19 +7503,19 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -7341,16 +7524,16 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
+        <v>450</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L25" s="7">
         <v>12</v>
@@ -7373,19 +7556,19 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
       <c r="C26" t="s">
+        <v>589</v>
+      </c>
+      <c r="D26" t="s">
+        <v>590</v>
+      </c>
+      <c r="E26" t="s">
         <v>341</v>
-      </c>
-      <c r="D26" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" t="s">
-        <v>343</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7409,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O26" s="7">
         <v>2</v>
@@ -7423,19 +7606,19 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
         <v>341</v>
-      </c>
-      <c r="D27" t="s">
-        <v>342</v>
-      </c>
-      <c r="E27" t="s">
-        <v>343</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -7473,19 +7656,19 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28" t="s">
         <v>341</v>
-      </c>
-      <c r="D28" t="s">
-        <v>342</v>
-      </c>
-      <c r="E28" t="s">
-        <v>343</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -7523,19 +7706,19 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" t="s">
         <v>341</v>
-      </c>
-      <c r="D29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E29" t="s">
-        <v>343</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -7573,19 +7756,19 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30" t="s">
         <v>341</v>
-      </c>
-      <c r="D30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E30" t="s">
-        <v>343</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -7623,19 +7806,19 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
         <v>341</v>
-      </c>
-      <c r="D31" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" t="s">
-        <v>343</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -7673,19 +7856,19 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" t="s">
         <v>341</v>
-      </c>
-      <c r="D32" t="s">
-        <v>342</v>
-      </c>
-      <c r="E32" t="s">
-        <v>343</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -7723,19 +7906,19 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33" t="s">
         <v>341</v>
-      </c>
-      <c r="D33" t="s">
-        <v>342</v>
-      </c>
-      <c r="E33" t="s">
-        <v>343</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -7773,19 +7956,19 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" t="s">
+        <v>340</v>
+      </c>
+      <c r="E34" t="s">
         <v>341</v>
-      </c>
-      <c r="D34" t="s">
-        <v>342</v>
-      </c>
-      <c r="E34" t="s">
-        <v>343</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -7823,19 +8006,19 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" t="s">
         <v>341</v>
-      </c>
-      <c r="D35" t="s">
-        <v>342</v>
-      </c>
-      <c r="E35" t="s">
-        <v>343</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -7873,19 +8056,19 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" t="s">
         <v>341</v>
-      </c>
-      <c r="D36" t="s">
-        <v>342</v>
-      </c>
-      <c r="E36" t="s">
-        <v>343</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -7923,19 +8106,19 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E37" t="s">
         <v>341</v>
-      </c>
-      <c r="D37" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" t="s">
-        <v>343</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -7973,19 +8156,19 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" t="s">
         <v>341</v>
-      </c>
-      <c r="D38" t="s">
-        <v>342</v>
-      </c>
-      <c r="E38" t="s">
-        <v>343</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -8023,19 +8206,19 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39" t="s">
         <v>341</v>
-      </c>
-      <c r="D39" t="s">
-        <v>342</v>
-      </c>
-      <c r="E39" t="s">
-        <v>343</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -8073,19 +8256,19 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" t="s">
         <v>341</v>
-      </c>
-      <c r="D40" t="s">
-        <v>342</v>
-      </c>
-      <c r="E40" t="s">
-        <v>343</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -8123,19 +8306,19 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C41" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" t="s">
         <v>341</v>
-      </c>
-      <c r="D41" t="s">
-        <v>342</v>
-      </c>
-      <c r="E41" t="s">
-        <v>343</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -8173,19 +8356,19 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" t="s">
         <v>341</v>
-      </c>
-      <c r="D42" t="s">
-        <v>342</v>
-      </c>
-      <c r="E42" t="s">
-        <v>343</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -8223,19 +8406,19 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" t="s">
         <v>341</v>
-      </c>
-      <c r="D43" t="s">
-        <v>342</v>
-      </c>
-      <c r="E43" t="s">
-        <v>343</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -8273,19 +8456,19 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" t="s">
+        <v>340</v>
+      </c>
+      <c r="E44" t="s">
         <v>341</v>
-      </c>
-      <c r="D44" t="s">
-        <v>342</v>
-      </c>
-      <c r="E44" t="s">
-        <v>343</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -8323,19 +8506,19 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" t="s">
         <v>341</v>
-      </c>
-      <c r="D45" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" t="s">
-        <v>343</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -8373,19 +8556,19 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" t="s">
         <v>341</v>
-      </c>
-      <c r="D46" t="s">
-        <v>342</v>
-      </c>
-      <c r="E46" t="s">
-        <v>343</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -8423,19 +8606,19 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" t="s">
         <v>341</v>
-      </c>
-      <c r="D47" t="s">
-        <v>342</v>
-      </c>
-      <c r="E47" t="s">
-        <v>343</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8473,19 +8656,19 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D48" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" t="s">
         <v>341</v>
-      </c>
-      <c r="D48" t="s">
-        <v>342</v>
-      </c>
-      <c r="E48" t="s">
-        <v>343</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8523,19 +8706,19 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" t="s">
+        <v>340</v>
+      </c>
+      <c r="E49" t="s">
         <v>341</v>
-      </c>
-      <c r="D49" t="s">
-        <v>342</v>
-      </c>
-      <c r="E49" t="s">
-        <v>343</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -8573,19 +8756,19 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50" t="s">
         <v>341</v>
-      </c>
-      <c r="D50" t="s">
-        <v>342</v>
-      </c>
-      <c r="E50" t="s">
-        <v>343</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -8623,19 +8806,19 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C51" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E51" t="s">
         <v>341</v>
-      </c>
-      <c r="D51" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" t="s">
-        <v>343</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8673,19 +8856,19 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C52" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" t="s">
         <v>341</v>
-      </c>
-      <c r="D52" t="s">
-        <v>342</v>
-      </c>
-      <c r="E52" t="s">
-        <v>343</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -8723,19 +8906,19 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C53" t="s">
+        <v>339</v>
+      </c>
+      <c r="D53" t="s">
+        <v>340</v>
+      </c>
+      <c r="E53" t="s">
         <v>341</v>
-      </c>
-      <c r="D53" t="s">
-        <v>342</v>
-      </c>
-      <c r="E53" t="s">
-        <v>343</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -8773,19 +8956,19 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" t="s">
+        <v>340</v>
+      </c>
+      <c r="E54" t="s">
         <v>341</v>
-      </c>
-      <c r="D54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54" t="s">
-        <v>343</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -8823,19 +9006,19 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C55" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" t="s">
         <v>341</v>
-      </c>
-      <c r="D55" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" t="s">
-        <v>343</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -8873,19 +9056,19 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C56" t="s">
+        <v>339</v>
+      </c>
+      <c r="D56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" t="s">
         <v>341</v>
-      </c>
-      <c r="D56" t="s">
-        <v>342</v>
-      </c>
-      <c r="E56" t="s">
-        <v>343</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -8923,19 +9106,19 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C57" t="s">
+        <v>339</v>
+      </c>
+      <c r="D57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" t="s">
         <v>341</v>
-      </c>
-      <c r="D57" t="s">
-        <v>342</v>
-      </c>
-      <c r="E57" t="s">
-        <v>343</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -8973,19 +9156,19 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C58" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E58" t="s">
         <v>341</v>
-      </c>
-      <c r="D58" t="s">
-        <v>342</v>
-      </c>
-      <c r="E58" t="s">
-        <v>343</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -9023,19 +9206,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C59" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E59" t="s">
         <v>341</v>
-      </c>
-      <c r="D59" t="s">
-        <v>342</v>
-      </c>
-      <c r="E59" t="s">
-        <v>343</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -9094,19 +9277,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
         <v>228</v>
-      </c>
-      <c r="E1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9117,13 +9300,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9134,13 +9317,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9151,13 +9334,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9168,13 +9351,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9185,13 +9368,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9202,13 +9385,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9219,13 +9402,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9236,13 +9419,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9253,13 +9436,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9270,13 +9453,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9353,48 +9536,48 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" t="s">
         <v>501</v>
       </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" t="s">
-        <v>504</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -9406,24 +9589,24 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9435,13 +9618,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -9461,28 +9644,28 @@
   <sheetData>
     <row r="1" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" t="s">
         <v>145</v>
       </c>
-      <c r="O1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>146</v>
-      </c>
       <c r="W1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Y1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Z1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -9592,14 +9775,14 @@
     </row>
     <row r="5" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -9624,7 +9807,7 @@
     </row>
     <row r="7" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O7">
         <f>O5/POWER(Q5,2)</f>
@@ -9640,10 +9823,10 @@
     </row>
     <row r="8" spans="11:26" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -9655,7 +9838,7 @@
     </row>
     <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -9670,7 +9853,7 @@
     </row>
     <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -9685,7 +9868,7 @@
     </row>
     <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -9766,10 +9949,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C2200-8081-644A-AB13-9EC51CCA238B}">
-  <dimension ref="I2:K22"/>
+  <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="A29" sqref="A29:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9781,164 +9964,527 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
+        <v>321</v>
+      </c>
+      <c r="J16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
         <v>323</v>
       </c>
-      <c r="J16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
+      <c r="J18" t="s">
+        <v>333</v>
+      </c>
+      <c r="K18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
         <v>324</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I18" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
         <v>325</v>
       </c>
-      <c r="J18" t="s">
-        <v>335</v>
-      </c>
-      <c r="K18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
+      <c r="J20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
         <v>326</v>
       </c>
-      <c r="J19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
+      <c r="J21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
         <v>327</v>
       </c>
-      <c r="J20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>328</v>
-      </c>
-      <c r="J21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>329</v>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>551</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>553</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>556</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>558</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>559</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>562</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>563</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>565</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>566</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>567</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>568</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>327</v>
+      </c>
+      <c r="G46" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9541A2EF-8502-FC46-9BC8-F2241D19E44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF21FA6-923C-7645-9280-31A1FD86339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="596">
   <si>
     <t>ID</t>
   </si>
@@ -305,9 +305,6 @@
     <t>PET1-1</t>
   </si>
   <si>
-    <t>1.Satisfaction.gold:max</t>
-  </si>
-  <si>
     <t>NPC-102</t>
   </si>
   <si>
@@ -402,15 +399,6 @@
   </si>
   <si>
     <t>Sight chain</t>
-  </si>
-  <si>
-    <t>Leadership1 script</t>
-  </si>
-  <si>
-    <t>Leadership1 reaction script</t>
-  </si>
-  <si>
-    <t>Leadership1 reaction refusal script</t>
   </si>
   <si>
     <t>Village
@@ -1941,6 +1929,15 @@
   </si>
   <si>
     <t>떡뽁이집 알바</t>
+  </si>
+  <si>
+    <t>1.Satisfaction.Gold:max</t>
+  </si>
+  <si>
+    <t>안녕~ {to} 너 참 부티나 보인다</t>
+  </si>
+  <si>
+    <t>{to} 안녕</t>
   </si>
 </sst>
 </file>
@@ -3816,8 +3813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3838,7 +3835,7 @@
     <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="4"/>
     <col min="20" max="20" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -3855,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3870,10 +3867,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3885,30 +3882,30 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" t="s">
         <v>105</v>
-      </c>
-      <c r="U1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3920,10 +3917,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
         <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -3940,18 +3937,18 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S2" s="4">
         <v>102</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3963,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -3983,33 +3980,33 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S3" s="4">
         <v>104</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -4021,20 +4018,20 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -4051,10 +4048,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -4075,13 +4072,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -4098,13 +4095,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4116,24 +4113,24 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4145,13 +4142,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4163,19 +4160,19 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4192,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -4216,21 +4213,21 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="R8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4242,13 +4239,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4260,13 +4257,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -4274,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4285,16 +4282,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -4309,19 +4306,19 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4332,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4356,19 +4353,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4379,16 +4376,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -4403,19 +4400,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S12" s="4">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4426,19 +4423,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4450,23 +4447,23 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4477,19 +4474,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4501,23 +4498,23 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4528,19 +4525,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4552,23 +4549,23 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4582,16 +4579,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -4606,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4618,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4629,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4651,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4660,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4677,10 +4674,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -4695,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>593</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4710,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4727,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -4754,18 +4751,18 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>117</v>
-      </c>
-      <c r="U19" t="s">
-        <v>118</v>
+        <v>595</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4777,10 +4774,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -4795,27 +4792,27 @@
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4827,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -4842,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4851,27 +4848,27 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -4886,27 +4883,27 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22" t="s">
+        <v>465</v>
+      </c>
+      <c r="O22" t="s">
+        <v>475</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>469</v>
-      </c>
-      <c r="O22" t="s">
-        <v>479</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4918,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -4945,36 +4942,36 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B24" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
+        <v>504</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="H24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4986,39 +4983,39 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B25" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5030,7 +5027,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5041,19 +5038,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5071,33 +5068,33 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>506</v>
+      </c>
+      <c r="B27" t="s">
+        <v>507</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>510</v>
       </c>
-      <c r="B27" t="s">
+      <c r="G27" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>514</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="H27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5109,39 +5106,39 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B28" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5153,7 +5150,7 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5164,60 +5161,60 @@
     </row>
     <row r="29" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G29" t="s">
+        <v>536</v>
+      </c>
+      <c r="H29" t="s">
+        <v>535</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>523</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>537</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="O29" t="s">
         <v>538</v>
       </c>
-      <c r="G29" t="s">
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="U29" t="s">
         <v>540</v>
-      </c>
-      <c r="H29" t="s">
-        <v>539</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>527</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>541</v>
-      </c>
-      <c r="O29" t="s">
-        <v>542</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="U29" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5229,10 +5226,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G30" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -5250,18 +5247,18 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="S30" s="4">
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5273,10 +5270,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G31" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5297,16 +5294,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q31" t="s">
+        <v>587</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5379,13 +5376,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -5449,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>51</v>
@@ -5487,13 +5484,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>56</v>
@@ -5537,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>61</v>
@@ -5549,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -5572,7 +5569,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5689,7 +5686,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -5701,19 +5698,19 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -5722,7 +5719,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5733,7 +5730,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -5745,25 +5742,25 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -5815,7 +5812,7 @@
     </row>
     <row r="12" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -5830,28 +5827,28 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>90</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -5862,7 +5859,7 @@
     </row>
     <row r="13" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -5877,25 +5874,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -5906,7 +5903,7 @@
     </row>
     <row r="14" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -5921,25 +5918,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="15" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -5965,25 +5962,25 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -5994,7 +5991,7 @@
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -6009,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -6018,16 +6015,16 @@
         <v>55</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -6038,7 +6035,7 @@
     </row>
     <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -6053,25 +6050,25 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -6082,7 +6079,7 @@
     </row>
     <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -6097,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -6106,16 +6103,16 @@
         <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -6126,7 +6123,7 @@
     </row>
     <row r="19" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -6141,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -6150,16 +6147,16 @@
         <v>60</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -6170,7 +6167,7 @@
     </row>
     <row r="20" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -6185,25 +6182,25 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -6235,39 +6232,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" t="s">
-        <v>157</v>
-      </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6275,19 +6272,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6295,19 +6292,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6315,19 +6312,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6335,19 +6332,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6355,19 +6352,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6375,19 +6372,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6395,19 +6392,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6415,19 +6412,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6435,19 +6432,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6486,16 +6483,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
         <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -6504,48 +6501,48 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="R1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6560,33 +6557,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6601,33 +6598,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6642,33 +6639,33 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6683,33 +6680,33 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6724,33 +6721,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6765,74 +6762,74 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="P8" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6847,33 +6844,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6888,33 +6885,33 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6929,33 +6926,33 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6993,10 +6990,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -7034,10 +7031,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -7075,10 +7072,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -7116,10 +7113,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -7157,10 +7154,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -7198,10 +7195,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -7239,10 +7236,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -7280,10 +7277,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -7321,10 +7318,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -7362,16 +7359,16 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -7386,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -7409,31 +7406,31 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C23" t="s">
-        <v>417</v>
-      </c>
-      <c r="D23" t="s">
-        <v>414</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -7456,16 +7453,16 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D24" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -7480,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -7503,37 +7500,37 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B25" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E25" t="s">
+        <v>445</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>446</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>450</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="L25" s="7">
         <v>12</v>
@@ -7556,19 +7553,19 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B26" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C26" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D26" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7606,19 +7603,19 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E27" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -7656,19 +7653,19 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -7706,19 +7703,19 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -7756,19 +7753,19 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -7806,19 +7803,19 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -7856,19 +7853,19 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -7906,19 +7903,19 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -7956,19 +7953,19 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E34" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -8006,19 +8003,19 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -8056,19 +8053,19 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E36" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -8106,19 +8103,19 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E37" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -8156,19 +8153,19 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E38" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -8206,19 +8203,19 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -8256,19 +8253,19 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C40" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D40" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -8306,19 +8303,19 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D41" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E41" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -8356,19 +8353,19 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D42" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E42" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -8406,19 +8403,19 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D43" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E43" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -8456,19 +8453,19 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -8506,19 +8503,19 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D45" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E45" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -8556,19 +8553,19 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D46" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -8606,19 +8603,19 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C47" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E47" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8656,19 +8653,19 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D48" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E48" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8706,19 +8703,19 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D49" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E49" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -8756,19 +8753,19 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D50" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E50" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -8806,19 +8803,19 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D51" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8856,19 +8853,19 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C52" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E52" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -8906,19 +8903,19 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D53" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E53" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -8956,19 +8953,19 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C54" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D54" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E54" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -9006,19 +9003,19 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D55" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E55" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9056,19 +9053,19 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C56" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D56" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E56" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -9106,19 +9103,19 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C57" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D57" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -9156,19 +9153,19 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E58" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -9206,19 +9203,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C59" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -9277,19 +9274,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9300,13 +9297,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9317,13 +9314,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9334,13 +9331,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9351,13 +9348,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9368,13 +9365,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9385,13 +9382,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9402,13 +9399,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9419,13 +9416,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9436,13 +9433,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9453,13 +9450,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9536,48 +9533,48 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="D1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1" t="s">
         <v>499</v>
       </c>
-      <c r="J1" t="s">
-        <v>503</v>
-      </c>
       <c r="K1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -9589,24 +9586,24 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9618,13 +9615,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -9644,28 +9641,28 @@
   <sheetData>
     <row r="1" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" t="s">
-        <v>145</v>
-      </c>
       <c r="W1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Y1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Z1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -9775,14 +9772,14 @@
     </row>
     <row r="5" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O5">
         <f>(P2+P3+P4) / 3</f>
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -9807,7 +9804,7 @@
     </row>
     <row r="7" spans="11:26" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O7">
         <f>O5/POWER(Q5,2)</f>
@@ -9823,10 +9820,10 @@
     </row>
     <row r="8" spans="11:26" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="R8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -9838,7 +9835,7 @@
     </row>
     <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -9853,7 +9850,7 @@
     </row>
     <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -9868,7 +9865,7 @@
     </row>
     <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -9964,527 +9961,527 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G42" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G43" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G44" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G45" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G46" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF21FA6-923C-7645-9280-31A1FD86339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4892E329-01BC-634A-9036-1827A834787B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="612">
   <si>
     <t>ID</t>
   </si>
@@ -940,9 +940,6 @@
     <t>2,10</t>
   </si>
   <si>
-    <t>3,10</t>
-  </si>
-  <si>
     <t>TaskCounter,16</t>
   </si>
   <si>
@@ -1471,22 +1468,6 @@
   </si>
   <si>
     <t>공장 접수원</t>
-  </si>
-  <si>
-    <t>Gold,20,50,48
-Speed,1,4,2
-HP,20,50,8
-MP,20,50,8
-Knowledge,20,50,0
-Ability1,20,50,0
-Ability2,20,50,0
-Ability3,20,50,0
-Resource1,20,50,40
-Resource2,20,50,40
-Resource3,20,50,40
-Sight,20,50,0
-Leadership,0,50,0
-Friendship,0,50,0</t>
   </si>
   <si>
     <t>Gold,20,50,8
@@ -1938,6 +1919,77 @@
   </si>
   <si>
     <t>{to} 안녕</t>
+  </si>
+  <si>
+    <t>DancingGroup</t>
+  </si>
+  <si>
+    <t>광장에서 같이 춤추러 가자고 하기</t>
+  </si>
+  <si>
+    <t>1.Satisfaction.HP:max</t>
+  </si>
+  <si>
+    <t>주변에 체력 좋은 친구에게 수줍게 광장에서 같이 춤추러 가자고 하기</t>
+  </si>
+  <si>
+    <t>p2-I</t>
+  </si>
+  <si>
+    <t>Friendship:-1</t>
+  </si>
+  <si>
+    <t>Friendship:2</t>
+  </si>
+  <si>
+    <t>{to} 같이 춤추러 가지 않을래?
+춤추러 가자! 못춰도 괜찮아~!</t>
+  </si>
+  <si>
+    <t>하핫.. 그래.. 다음엔 꼭 같이 가자</t>
+  </si>
+  <si>
+    <t>같이 춤추러 간다고 하기</t>
+  </si>
+  <si>
+    <t>HP:-2,MP:4</t>
+  </si>
+  <si>
+    <t>쪼아!
+Here we go!</t>
+  </si>
+  <si>
+    <t>난 괜찮아
+난 내적댄스로 만족해</t>
+  </si>
+  <si>
+    <t>p2-C</t>
+  </si>
+  <si>
+    <t>춤추기</t>
+  </si>
+  <si>
+    <t>둠칫 둠칫
+흔들어 제껴버리겠어</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_321</t>
+  </si>
+  <si>
+    <t>Gold,20,150,148
+Speed,1,4,2
+HP,20,50,8
+MP,20,50,8
+Knowledge,20,50,0
+Ability1,20,50,0
+Ability2,20,50,0
+Ability3,20,50,0
+Resource1,20,50,40
+Resource2,20,50,40
+Resource3,20,50,40
+Sight,20,50,0
+Leadership,0,50,0
+Friendship,0,50,0</t>
   </si>
 </sst>
 </file>
@@ -3811,10 +3863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3822,15 +3874,16 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
     <col min="15" max="15" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.83203125" customWidth="1"/>
     <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="4"/>
@@ -3870,7 +3923,7 @@
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3882,16 +3935,16 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
@@ -3991,22 +4044,22 @@
     </row>
     <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -4018,20 +4071,20 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -4048,10 +4101,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -4060,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -4078,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -4095,25 +4148,25 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>298</v>
       </c>
-      <c r="H6" t="s">
-        <v>299</v>
-      </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4125,12 +4178,12 @@
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4142,13 +4195,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4160,19 +4213,19 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>435</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="S7" s="4">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4189,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -4201,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
@@ -4213,21 +4266,21 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="R8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4245,19 +4298,19 @@
         <v>266</v>
       </c>
       <c r="H9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4271,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -4282,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4300,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4329,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4338,7 +4391,7 @@
         <v>268</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4347,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4376,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4385,7 +4438,7 @@
         <v>269</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -4394,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4423,25 +4476,25 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4453,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
@@ -4474,25 +4527,25 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4504,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
@@ -4525,25 +4578,25 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4555,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4">
@@ -4674,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>273</v>
@@ -4692,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4707,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4751,18 +4804,18 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4774,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -4792,27 +4845,27 @@
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4824,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -4839,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4848,12 +4901,12 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4865,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -4883,27 +4936,27 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4942,18 +4995,18 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4965,13 +5018,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4983,27 +5036,27 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5015,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5027,7 +5080,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5038,7 +5091,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5050,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5068,15 +5121,15 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5088,13 +5141,13 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5106,27 +5159,27 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B28" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -5138,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5150,7 +5203,7 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5161,7 +5214,7 @@
     </row>
     <row r="29" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5173,48 +5226,48 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>532</v>
+      </c>
+      <c r="G29" t="s">
         <v>534</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>533</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>521</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>535</v>
+      </c>
+      <c r="O29" t="s">
         <v>536</v>
       </c>
-      <c r="H29" t="s">
-        <v>535</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>523</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="O29" t="s">
+      <c r="U29" t="s">
         <v>538</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="U29" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5226,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -5247,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="S30" s="4">
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5270,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5294,16 +5347,166 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>587</v>
+        <v>588</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="S31" s="4">
         <v>1</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" t="s">
+        <v>607</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>595</v>
+      </c>
+      <c r="G32" t="s">
+        <v>597</v>
+      </c>
+      <c r="H32" t="s">
+        <v>533</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>596</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>598</v>
+      </c>
+      <c r="O32" t="s">
+        <v>600</v>
+      </c>
+      <c r="P32" t="s">
+        <v>599</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="U32" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>598</v>
+      </c>
+      <c r="B33" t="s">
+        <v>607</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>603</v>
+      </c>
+      <c r="G33" t="s">
+        <v>603</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>604</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>607</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>608</v>
+      </c>
+      <c r="H34" t="s">
+        <v>594</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>610</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -5316,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5376,13 +5579,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P1" t="s">
         <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -5484,7 +5687,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5534,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>61</v>
@@ -5569,7 +5772,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5686,7 +5889,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -5698,16 +5901,16 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>91</v>
@@ -5719,7 +5922,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5730,7 +5933,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -5742,16 +5945,16 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
+        <v>522</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>523</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>525</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -5760,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -5830,7 +6033,7 @@
         <v>89</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
         <v>90</v>
@@ -5845,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>458</v>
+        <v>611</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -5892,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -5936,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -5980,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -6024,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -6068,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -6112,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -6156,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -6200,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -7359,31 +7562,31 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" t="s">
         <v>408</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>409</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -7406,16 +7609,16 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" t="s">
         <v>412</v>
       </c>
-      <c r="C23" t="s">
-        <v>413</v>
-      </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -7430,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -7453,16 +7656,16 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -7477,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -7500,37 +7703,37 @@
     </row>
     <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" t="s">
         <v>447</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E25" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>445</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D25" t="s">
-        <v>444</v>
-      </c>
-      <c r="E25" t="s">
-        <v>445</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>446</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="L25" s="7">
         <v>12</v>
@@ -7553,19 +7756,19 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
+        <v>582</v>
+      </c>
+      <c r="C26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" t="s">
         <v>584</v>
       </c>
-      <c r="C26" t="s">
-        <v>585</v>
-      </c>
-      <c r="D26" t="s">
-        <v>586</v>
-      </c>
       <c r="E26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7603,19 +7806,19 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" t="s">
         <v>335</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>336</v>
-      </c>
-      <c r="E27" t="s">
-        <v>337</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -7653,19 +7856,19 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" t="s">
         <v>335</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>336</v>
-      </c>
-      <c r="E28" t="s">
-        <v>337</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -7703,19 +7906,19 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C29" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" t="s">
         <v>335</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>336</v>
-      </c>
-      <c r="E29" t="s">
-        <v>337</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -7753,19 +7956,19 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C30" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" t="s">
         <v>335</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>336</v>
-      </c>
-      <c r="E30" t="s">
-        <v>337</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -7803,19 +8006,19 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" t="s">
         <v>335</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>336</v>
-      </c>
-      <c r="E31" t="s">
-        <v>337</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -7853,19 +8056,19 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" t="s">
         <v>335</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>336</v>
-      </c>
-      <c r="E32" t="s">
-        <v>337</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -7903,19 +8106,19 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" t="s">
         <v>335</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>336</v>
-      </c>
-      <c r="E33" t="s">
-        <v>337</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -7953,19 +8156,19 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" t="s">
         <v>335</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>336</v>
-      </c>
-      <c r="E34" t="s">
-        <v>337</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -8003,19 +8206,19 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D35" t="s">
         <v>335</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>336</v>
-      </c>
-      <c r="E35" t="s">
-        <v>337</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -8053,19 +8256,19 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D36" t="s">
         <v>335</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>336</v>
-      </c>
-      <c r="E36" t="s">
-        <v>337</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -8103,19 +8306,19 @@
     </row>
     <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" t="s">
         <v>335</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>336</v>
-      </c>
-      <c r="E37" t="s">
-        <v>337</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -8153,19 +8356,19 @@
     </row>
     <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" t="s">
         <v>335</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>336</v>
-      </c>
-      <c r="E38" t="s">
-        <v>337</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -8203,19 +8406,19 @@
     </row>
     <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
+        <v>334</v>
+      </c>
+      <c r="D39" t="s">
         <v>335</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>336</v>
-      </c>
-      <c r="E39" t="s">
-        <v>337</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -8253,19 +8456,19 @@
     </row>
     <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D40" t="s">
         <v>335</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>336</v>
-      </c>
-      <c r="E40" t="s">
-        <v>337</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -8303,19 +8506,19 @@
     </row>
     <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" t="s">
         <v>335</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>336</v>
-      </c>
-      <c r="E41" t="s">
-        <v>337</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -8353,19 +8556,19 @@
     </row>
     <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" t="s">
         <v>335</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>336</v>
-      </c>
-      <c r="E42" t="s">
-        <v>337</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -8403,19 +8606,19 @@
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" t="s">
         <v>335</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>336</v>
-      </c>
-      <c r="E43" t="s">
-        <v>337</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -8453,19 +8656,19 @@
     </row>
     <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C44" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" t="s">
         <v>335</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>336</v>
-      </c>
-      <c r="E44" t="s">
-        <v>337</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -8503,19 +8706,19 @@
     </row>
     <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C45" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" t="s">
         <v>335</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>336</v>
-      </c>
-      <c r="E45" t="s">
-        <v>337</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -8553,19 +8756,19 @@
     </row>
     <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C46" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" t="s">
         <v>335</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>336</v>
-      </c>
-      <c r="E46" t="s">
-        <v>337</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -8603,19 +8806,19 @@
     </row>
     <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" t="s">
         <v>335</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>336</v>
-      </c>
-      <c r="E47" t="s">
-        <v>337</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8653,19 +8856,19 @@
     </row>
     <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" t="s">
         <v>335</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>336</v>
-      </c>
-      <c r="E48" t="s">
-        <v>337</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8703,19 +8906,19 @@
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D49" t="s">
         <v>335</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>336</v>
-      </c>
-      <c r="E49" t="s">
-        <v>337</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -8753,19 +8956,19 @@
     </row>
     <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" t="s">
         <v>335</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>336</v>
-      </c>
-      <c r="E50" t="s">
-        <v>337</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -8803,19 +9006,19 @@
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C51" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" t="s">
         <v>335</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>336</v>
-      </c>
-      <c r="E51" t="s">
-        <v>337</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8853,19 +9056,19 @@
     </row>
     <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D52" t="s">
         <v>335</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>336</v>
-      </c>
-      <c r="E52" t="s">
-        <v>337</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -8903,19 +9106,19 @@
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C53" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" t="s">
         <v>335</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>336</v>
-      </c>
-      <c r="E53" t="s">
-        <v>337</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -8953,19 +9156,19 @@
     </row>
     <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" t="s">
         <v>335</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>336</v>
-      </c>
-      <c r="E54" t="s">
-        <v>337</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -9003,19 +9206,19 @@
     </row>
     <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C55" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" t="s">
         <v>335</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>336</v>
-      </c>
-      <c r="E55" t="s">
-        <v>337</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9053,19 +9256,19 @@
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D56" t="s">
         <v>335</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>336</v>
-      </c>
-      <c r="E56" t="s">
-        <v>337</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -9103,19 +9306,19 @@
     </row>
     <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" t="s">
         <v>335</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>336</v>
-      </c>
-      <c r="E57" t="s">
-        <v>337</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -9153,19 +9356,19 @@
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C58" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" t="s">
         <v>335</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>336</v>
-      </c>
-      <c r="E58" t="s">
-        <v>337</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -9203,19 +9406,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C59" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" t="s">
         <v>335</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>336</v>
-      </c>
-      <c r="E59" t="s">
-        <v>337</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -9300,7 +9503,7 @@
         <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
         <v>242</v>
@@ -9317,7 +9520,7 @@
         <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
@@ -9334,7 +9537,7 @@
         <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
         <v>244</v>
@@ -9351,7 +9554,7 @@
         <v>227</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>245</v>
@@ -9536,45 +9739,45 @@
         <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s">
         <v>154</v>
       </c>
       <c r="E1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="F1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -9586,24 +9789,24 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9615,13 +9818,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -9656,13 +9859,13 @@
         <v>141</v>
       </c>
       <c r="W1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z1" t="s">
         <v>472</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>473</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -9779,7 +9982,7 @@
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -9823,7 +10026,7 @@
         <v>136</v>
       </c>
       <c r="R8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -9835,7 +10038,7 @@
     </row>
     <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -9850,7 +10053,7 @@
     </row>
     <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -9865,7 +10068,7 @@
     </row>
     <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -9949,7 +10152,7 @@
   <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:H46"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9961,527 +10164,504 @@
   <sheetData>
     <row r="2" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>547</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" t="s">
-        <v>305</v>
-      </c>
-      <c r="H29" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4892E329-01BC-634A-9036-1827A834787B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2EC288-23C1-D44E-A191-37BFC4B80A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="619">
   <si>
     <t>ID</t>
   </si>
@@ -526,9 +526,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
@@ -996,12 +993,6 @@
 돈...돈..</t>
   </si>
   <si>
-    <t>SM_Env_Sidewalk_Panel_03
-SM_Env_Sidewalk_48
-SM_Env_Sidewalk_61
-SM_Env_Sidewalk_Straight_94</t>
-  </si>
-  <si>
     <t>Digging</t>
   </si>
   <si>
@@ -1101,12 +1092,6 @@
     <t>test item</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>item-2</t>
   </si>
   <si>
@@ -1146,9 +1131,6 @@
     <t>item-15</t>
   </si>
   <si>
-    <t>item-16</t>
-  </si>
-  <si>
     <t>item-17</t>
   </si>
   <si>
@@ -1243,9 +1225,6 @@
   </si>
   <si>
     <t>test item15</t>
-  </si>
-  <si>
-    <t>test item16</t>
   </si>
   <si>
     <t>test item17</t>
@@ -1324,9 +1303,6 @@
     <t>자원1을 8만큼 얻을 수 있다</t>
   </si>
   <si>
-    <t>Resource</t>
-  </si>
-  <si>
     <t>Resource1</t>
   </si>
   <si>
@@ -1428,12 +1404,6 @@
     <t>경차 의뢰하기</t>
   </si>
   <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>vehicle</t>
   </si>
   <si>
@@ -1441,9 +1411,6 @@
   </si>
   <si>
     <t>경차를 수령할 수 있다. 차는 주차장에서 찾을 수 있다</t>
-  </si>
-  <si>
-    <t>Speed</t>
   </si>
   <si>
     <t>vehicle-1</t>
@@ -1608,9 +1575,6 @@
 대기시간</t>
   </si>
   <si>
-    <t>production cost</t>
-  </si>
-  <si>
     <t>taxi-1</t>
   </si>
   <si>
@@ -1890,9 +1854,6 @@
     <t xml:space="preserve">수제 국물 떡뽁이+면사리+치즈추가 그리고 볶음밥으로 구성된 떡뽁이 </t>
   </si>
   <si>
-    <t>Satisfaction</t>
-  </si>
-  <si>
     <t>item-5,1,10,10</t>
   </si>
   <si>
@@ -1974,12 +1935,27 @@
   </si>
   <si>
     <t>SM_Env_Sidewalk_321</t>
+  </si>
+  <si>
+    <t>파밍</t>
+  </si>
+  <si>
+    <t>채집</t>
+  </si>
+  <si>
+    <t>꾸미기</t>
+  </si>
+  <si>
+    <t>가게 운영 시뮬</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
   <si>
     <t>Gold,20,150,148
 Speed,1,4,2
 HP,20,50,8
-MP,20,50,8
+MP,20,50,50
 Knowledge,20,50,0
 Ability1,20,50,0
 Ability2,20,50,0
@@ -1990,6 +1966,54 @@
 Sight,20,50,0
 Leadership,0,50,0
 Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>nv_Sidewalk_Construction_01n_01</t>
+  </si>
+  <si>
+    <t>category
+SATISFACTION_ONLY = 0,
+WEAPON = 1,
+VEHICLE = 2,
+FARMING = 3,
+COOKING = 4</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>car-1</t>
+  </si>
+  <si>
+    <t>경차</t>
+  </si>
+  <si>
+    <t>Vehicle/Car-1</t>
+  </si>
+  <si>
+    <t>production cost
+??필요한가?</t>
+  </si>
+  <si>
+    <t>purchase.car-1</t>
+  </si>
+  <si>
+    <t>20,0,148:0,0,0</t>
+  </si>
+  <si>
+    <t>농작물</t>
+  </si>
+  <si>
+    <t>양배추</t>
+  </si>
+  <si>
+    <t>COOKING-1</t>
+  </si>
+  <si>
+    <t>ingredient.cabbage</t>
+  </si>
+  <si>
+    <t>Village</t>
   </si>
 </sst>
 </file>
@@ -3863,10 +3887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3891,7 +3915,7 @@
     <col min="21" max="21" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="187" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3947,7 @@
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3935,16 +3959,16 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
@@ -3955,8 +3979,11 @@
       <c r="U1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -3998,8 +4025,11 @@
       <c r="T2" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -4041,25 +4071,28 @@
       <c r="T3" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -4071,23 +4104,26 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+      <c r="V4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4101,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -4125,16 +4161,19 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4148,13 +4187,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>297</v>
-      </c>
-      <c r="H6" t="s">
-        <v>298</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4166,24 +4205,27 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="V6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4195,13 +4237,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4213,22 +4255,25 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="V7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4242,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -4266,21 +4311,24 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="R8" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+      <c r="V8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4292,13 +4340,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4310,13 +4358,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>301</v>
+        <v>605</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -4324,10 +4372,13 @@
         <v>1</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="V9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4341,10 +4392,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -4365,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
@@ -4373,8 +4424,11 @@
       <c r="T10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4388,10 +4442,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4412,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
@@ -4420,8 +4474,11 @@
       <c r="T11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4435,10 +4492,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -4459,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S12" s="4">
         <v>1</v>
@@ -4467,8 +4524,11 @@
       <c r="T12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4482,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4506,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
@@ -4518,8 +4578,11 @@
       <c r="T13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4533,13 +4596,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4557,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
@@ -4569,8 +4632,11 @@
       <c r="T14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4584,13 +4650,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4608,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4">
@@ -4620,8 +4686,11 @@
       <c r="T15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4632,16 +4701,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -4670,8 +4739,11 @@
       <c r="T16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4679,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4712,8 +4784,11 @@
       <c r="T17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4727,10 +4802,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -4745,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4760,10 +4835,13 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="V18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4777,10 +4855,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -4804,18 +4882,21 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="V19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4827,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -4845,27 +4926,30 @@
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Q20" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="V20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4877,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -4892,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4901,27 +4985,30 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+      <c r="V21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -4936,27 +5023,30 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22" t="s">
+        <v>453</v>
+      </c>
+      <c r="O22" t="s">
         <v>463</v>
       </c>
-      <c r="O22" t="s">
-        <v>473</v>
-      </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="V22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4968,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -4995,36 +5085,39 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="V23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B24" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="H24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5036,39 +5129,42 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="V24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5080,7 +5176,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5088,22 +5184,25 @@
       <c r="S25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5121,33 +5220,36 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="V26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="H27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5159,39 +5261,42 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="V27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B28" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5203,36 +5308,39 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
+        <v>509</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>520</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>531</v>
-      </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G29" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="H29" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5244,30 +5352,33 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="O29" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="S29" s="4">
         <v>1</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="U29" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="V29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5279,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G30" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -5300,18 +5411,21 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="S30" s="4">
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+      <c r="V30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5323,10 +5437,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G31" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5347,42 +5461,45 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="Q31" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="V31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>534</v>
+      </c>
+      <c r="B32" t="s">
+        <v>595</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>583</v>
+      </c>
+      <c r="G32" t="s">
         <v>585</v>
       </c>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>545</v>
-      </c>
-      <c r="B32" t="s">
-        <v>607</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>595</v>
-      </c>
-      <c r="G32" t="s">
-        <v>597</v>
-      </c>
       <c r="H32" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5394,36 +5511,39 @@
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="O32" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="P32" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="S32" s="4">
         <v>1</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="U32" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="V32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B33" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5435,10 +5555,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="G33" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -5456,21 +5576,24 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="S33" s="4">
         <v>1</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="V33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -5482,10 +5605,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="H34" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -5497,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5506,7 +5629,10 @@
         <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
+      </c>
+      <c r="V34" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5519,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5579,13 +5705,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P1" t="s">
         <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -5595,6 +5721,9 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
@@ -5636,6 +5765,9 @@
       <c r="B3" t="b">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
@@ -5680,6 +5812,9 @@
       <c r="B4" t="b">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
@@ -5687,7 +5822,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5724,6 +5859,9 @@
       <c r="B5" t="b">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
@@ -5737,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>61</v>
@@ -5765,6 +5903,9 @@
       <c r="B6" t="b">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
@@ -5772,7 +5913,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5809,6 +5950,9 @@
       <c r="B7" t="b">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
@@ -5853,6 +5997,9 @@
       <c r="B8" t="b">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
@@ -5889,10 +6036,13 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -5901,16 +6051,16 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>91</v>
@@ -5922,7 +6072,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -5933,10 +6083,13 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -5945,16 +6098,16 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -5963,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -5979,6 +6132,9 @@
       <c r="B11" t="b">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
@@ -6020,9 +6176,6 @@
       <c r="B12" t="b">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
@@ -6048,10 +6201,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -6095,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -6139,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -6183,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -6227,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -6271,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -6315,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -6359,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -6403,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -6450,24 +6603,24 @@
         <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6475,19 +6628,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
         <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
-        <v>209</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6495,19 +6648,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6515,19 +6668,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6535,19 +6688,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6555,19 +6708,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6575,19 +6728,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6595,19 +6748,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6615,19 +6768,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6635,19 +6788,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
         <v>176</v>
       </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" t="s">
-        <v>177</v>
-      </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6663,16 +6816,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -6694,8 +6847,8 @@
       <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
-        <v>155</v>
+      <c r="D1" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -6704,48 +6857,51 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" t="s">
         <v>157</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
         <v>240</v>
       </c>
-      <c r="B2" t="s">
-        <v>241</v>
+      <c r="D2">
+        <v>-1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6760,33 +6916,36 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6801,33 +6960,36 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6842,33 +7004,36 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6883,33 +7048,36 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6924,33 +7092,36 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6965,33 +7136,36 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7006,33 +7180,36 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7047,33 +7224,36 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -7088,74 +7268,80 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -7193,10 +7379,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -7234,10 +7423,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -7275,10 +7467,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -7316,10 +7511,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -7357,10 +7555,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -7398,10 +7599,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -7439,10 +7643,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -7480,10 +7687,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -7521,10 +7731,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -7562,16 +7775,16 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D22" t="s">
-        <v>409</v>
+        <v>402</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -7586,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -7609,16 +7822,16 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
-      </c>
-      <c r="D23" t="s">
-        <v>409</v>
+        <v>405</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -7633,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -7656,31 +7869,31 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -7701,21 +7914,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B25" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D25" t="s">
-        <v>443</v>
+        <v>438</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
+        <v>612</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -7724,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7732,43 +7945,26 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="L25" s="7">
-        <v>12</v>
-      </c>
-      <c r="M25" s="7">
-        <v>18</v>
-      </c>
-      <c r="N25" s="7">
-        <v>13</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C26" t="s">
-        <v>583</v>
-      </c>
-      <c r="D26" t="s">
-        <v>584</v>
-      </c>
-      <c r="E26" t="s">
-        <v>336</v>
+        <v>572</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7806,19 +8002,16 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" t="s">
-        <v>335</v>
-      </c>
-      <c r="E27" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -7856,19 +8049,16 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C28" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" t="s">
-        <v>335</v>
-      </c>
-      <c r="E28" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -7906,19 +8096,16 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B29" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29" t="s">
-        <v>335</v>
-      </c>
-      <c r="E29" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -7956,19 +8143,16 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
-      </c>
-      <c r="D30" t="s">
-        <v>335</v>
-      </c>
-      <c r="E30" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -8006,19 +8190,16 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" t="s">
-        <v>335</v>
-      </c>
-      <c r="E31" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -8056,19 +8237,16 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D32" t="s">
-        <v>335</v>
-      </c>
-      <c r="E32" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -8106,19 +8284,16 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
-      </c>
-      <c r="D33" t="s">
-        <v>335</v>
-      </c>
-      <c r="E33" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -8156,19 +8331,16 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C34" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" t="s">
-        <v>335</v>
-      </c>
-      <c r="E34" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -8206,19 +8378,16 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>334</v>
-      </c>
-      <c r="D35" t="s">
-        <v>335</v>
-      </c>
-      <c r="E35" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -8256,19 +8425,16 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D36" t="s">
-        <v>335</v>
-      </c>
-      <c r="E36" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -8304,1121 +8470,747 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B37" t="s">
+        <v>614</v>
+      </c>
+      <c r="C37" t="s">
+        <v>615</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>617</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" t="s">
+        <v>378</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C39" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" t="s">
+        <v>380</v>
+      </c>
+      <c r="C40" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C41" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>350</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>351</v>
+      </c>
+      <c r="B43" t="s">
         <v>383</v>
       </c>
-      <c r="C37" t="s">
-        <v>334</v>
-      </c>
-      <c r="D37" t="s">
-        <v>335</v>
-      </c>
-      <c r="E37" t="s">
-        <v>336</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>12</v>
-      </c>
-      <c r="O37" s="7">
-        <v>2</v>
-      </c>
-      <c r="P37" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>351</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" t="s">
         <v>384</v>
       </c>
-      <c r="C38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D38" t="s">
-        <v>335</v>
-      </c>
-      <c r="E38" t="s">
-        <v>336</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>12</v>
-      </c>
-      <c r="O38" s="7">
-        <v>2</v>
-      </c>
-      <c r="P38" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>352</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C44" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" t="s">
         <v>385</v>
       </c>
-      <c r="C39" t="s">
-        <v>334</v>
-      </c>
-      <c r="D39" t="s">
-        <v>335</v>
-      </c>
-      <c r="E39" t="s">
-        <v>336</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>12</v>
-      </c>
-      <c r="O39" s="7">
-        <v>2</v>
-      </c>
-      <c r="P39" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>353</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" t="s">
         <v>386</v>
       </c>
-      <c r="C40" t="s">
-        <v>334</v>
-      </c>
-      <c r="D40" t="s">
-        <v>335</v>
-      </c>
-      <c r="E40" t="s">
-        <v>336</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>12</v>
-      </c>
-      <c r="O40" s="7">
-        <v>2</v>
-      </c>
-      <c r="P40" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>354</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C46" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" t="s">
         <v>387</v>
       </c>
-      <c r="C41" t="s">
-        <v>334</v>
-      </c>
-      <c r="D41" t="s">
-        <v>335</v>
-      </c>
-      <c r="E41" t="s">
-        <v>336</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>12</v>
-      </c>
-      <c r="O41" s="7">
-        <v>2</v>
-      </c>
-      <c r="P41" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C47" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" t="s">
         <v>388</v>
       </c>
-      <c r="C42" t="s">
-        <v>334</v>
-      </c>
-      <c r="D42" t="s">
-        <v>335</v>
-      </c>
-      <c r="E42" t="s">
-        <v>336</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>12</v>
-      </c>
-      <c r="O42" s="7">
-        <v>2</v>
-      </c>
-      <c r="P42" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>356</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" t="s">
         <v>389</v>
       </c>
-      <c r="C43" t="s">
-        <v>334</v>
-      </c>
-      <c r="D43" t="s">
-        <v>335</v>
-      </c>
-      <c r="E43" t="s">
-        <v>336</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>12</v>
-      </c>
-      <c r="O43" s="7">
-        <v>2</v>
-      </c>
-      <c r="P43" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>357</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C49" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" t="s">
         <v>390</v>
       </c>
-      <c r="C44" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" t="s">
-        <v>335</v>
-      </c>
-      <c r="E44" t="s">
-        <v>336</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>12</v>
-      </c>
-      <c r="O44" s="7">
-        <v>2</v>
-      </c>
-      <c r="P44" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>358</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" t="s">
         <v>391</v>
       </c>
-      <c r="C45" t="s">
-        <v>334</v>
-      </c>
-      <c r="D45" t="s">
-        <v>335</v>
-      </c>
-      <c r="E45" t="s">
-        <v>336</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>12</v>
-      </c>
-      <c r="O45" s="7">
-        <v>2</v>
-      </c>
-      <c r="P45" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>359</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C51" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" t="s">
         <v>392</v>
       </c>
-      <c r="C46" t="s">
-        <v>334</v>
-      </c>
-      <c r="D46" t="s">
-        <v>335</v>
-      </c>
-      <c r="E46" t="s">
-        <v>336</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" s="7">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>12</v>
-      </c>
-      <c r="O46" s="7">
-        <v>2</v>
-      </c>
-      <c r="P46" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>360</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C52" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B53" t="s">
         <v>393</v>
       </c>
-      <c r="C47" t="s">
-        <v>334</v>
-      </c>
-      <c r="D47" t="s">
-        <v>335</v>
-      </c>
-      <c r="E47" t="s">
-        <v>336</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>12</v>
-      </c>
-      <c r="O47" s="7">
-        <v>2</v>
-      </c>
-      <c r="P47" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C53" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>362</v>
+      </c>
+      <c r="B54" t="s">
         <v>394</v>
       </c>
-      <c r="C48" t="s">
-        <v>334</v>
-      </c>
-      <c r="D48" t="s">
-        <v>335</v>
-      </c>
-      <c r="E48" t="s">
-        <v>336</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>12</v>
-      </c>
-      <c r="O48" s="7">
-        <v>2</v>
-      </c>
-      <c r="P48" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>362</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>363</v>
+      </c>
+      <c r="B55" t="s">
         <v>395</v>
       </c>
-      <c r="C49" t="s">
-        <v>334</v>
-      </c>
-      <c r="D49" t="s">
-        <v>335</v>
-      </c>
-      <c r="E49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>12</v>
-      </c>
-      <c r="O49" s="7">
-        <v>2</v>
-      </c>
-      <c r="P49" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>363</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" t="s">
         <v>396</v>
       </c>
-      <c r="C50" t="s">
-        <v>334</v>
-      </c>
-      <c r="D50" t="s">
-        <v>335</v>
-      </c>
-      <c r="E50" t="s">
-        <v>336</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>12</v>
-      </c>
-      <c r="O50" s="7">
-        <v>2</v>
-      </c>
-      <c r="P50" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>364</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B57" t="s">
         <v>397</v>
       </c>
-      <c r="C51" t="s">
-        <v>334</v>
-      </c>
-      <c r="D51" t="s">
-        <v>335</v>
-      </c>
-      <c r="E51" t="s">
-        <v>336</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>12</v>
-      </c>
-      <c r="O51" s="7">
-        <v>2</v>
-      </c>
-      <c r="P51" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>365</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C57" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" t="s">
         <v>398</v>
       </c>
-      <c r="C52" t="s">
-        <v>334</v>
-      </c>
-      <c r="D52" t="s">
-        <v>335</v>
-      </c>
-      <c r="E52" t="s">
-        <v>336</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>12</v>
-      </c>
-      <c r="O52" s="7">
-        <v>2</v>
-      </c>
-      <c r="P52" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>366</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C58" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>367</v>
+      </c>
+      <c r="B59" t="s">
         <v>399</v>
       </c>
-      <c r="C53" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" t="s">
-        <v>335</v>
-      </c>
-      <c r="E53" t="s">
-        <v>336</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="7">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>12</v>
-      </c>
-      <c r="O53" s="7">
-        <v>2</v>
-      </c>
-      <c r="P53" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>367</v>
-      </c>
-      <c r="B54" t="s">
-        <v>400</v>
-      </c>
-      <c r="C54" t="s">
-        <v>334</v>
-      </c>
-      <c r="D54" t="s">
-        <v>335</v>
-      </c>
-      <c r="E54" t="s">
-        <v>336</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="7">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>12</v>
-      </c>
-      <c r="O54" s="7">
-        <v>2</v>
-      </c>
-      <c r="P54" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>368</v>
-      </c>
-      <c r="B55" t="s">
-        <v>401</v>
-      </c>
-      <c r="C55" t="s">
-        <v>334</v>
-      </c>
-      <c r="D55" t="s">
-        <v>335</v>
-      </c>
-      <c r="E55" t="s">
-        <v>336</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="7">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>12</v>
-      </c>
-      <c r="O55" s="7">
-        <v>2</v>
-      </c>
-      <c r="P55" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" t="s">
-        <v>402</v>
-      </c>
-      <c r="C56" t="s">
-        <v>334</v>
-      </c>
-      <c r="D56" t="s">
-        <v>335</v>
-      </c>
-      <c r="E56" t="s">
-        <v>336</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="7">
-        <v>0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>12</v>
-      </c>
-      <c r="O56" s="7">
-        <v>2</v>
-      </c>
-      <c r="P56" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>370</v>
-      </c>
-      <c r="B57" t="s">
-        <v>403</v>
-      </c>
-      <c r="C57" t="s">
-        <v>334</v>
-      </c>
-      <c r="D57" t="s">
-        <v>335</v>
-      </c>
-      <c r="E57" t="s">
-        <v>336</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7">
-        <v>12</v>
-      </c>
-      <c r="O57" s="7">
-        <v>2</v>
-      </c>
-      <c r="P57" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>371</v>
-      </c>
-      <c r="B58" t="s">
-        <v>404</v>
-      </c>
-      <c r="C58" t="s">
-        <v>334</v>
-      </c>
-      <c r="D58" t="s">
-        <v>335</v>
-      </c>
-      <c r="E58" t="s">
-        <v>336</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L58" s="7">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
-        <v>12</v>
-      </c>
-      <c r="O58" s="7">
-        <v>2</v>
-      </c>
-      <c r="P58" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>372</v>
-      </c>
-      <c r="B59" t="s">
-        <v>405</v>
-      </c>
       <c r="C59" t="s">
-        <v>334</v>
-      </c>
-      <c r="D59" t="s">
-        <v>335</v>
-      </c>
-      <c r="E59" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -9432,27 +9224,13 @@
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L59" s="7">
-        <v>0</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
-        <v>12</v>
-      </c>
-      <c r="O59" s="7">
-        <v>2</v>
-      </c>
-      <c r="P59" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>2</v>
-      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -9477,7 +9255,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -9486,10 +9264,10 @@
         <v>150</v>
       </c>
       <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
         <v>223</v>
-      </c>
-      <c r="E1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9500,13 +9278,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9517,13 +9295,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9534,13 +9312,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9551,13 +9329,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9568,13 +9346,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9585,13 +9363,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9602,13 +9380,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9619,13 +9397,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9636,13 +9414,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -9653,13 +9431,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9718,10 +9496,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B6BC8-09F3-3245-B8D8-73897C533FE3}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9739,45 +9517,45 @@
         <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D1" t="s">
         <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J1" t="s">
-        <v>497</v>
+        <v>483</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="K1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -9789,24 +9567,24 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9818,13 +9596,42 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>512</v>
-      </c>
-      <c r="J3" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>610</v>
+      </c>
+      <c r="J4" t="s">
+        <v>480</v>
+      </c>
+      <c r="K4" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -9859,13 +9666,13 @@
         <v>141</v>
       </c>
       <c r="W1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Y1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Z1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -9982,7 +9789,7 @@
         <v>-0.6777777777777777</v>
       </c>
       <c r="P5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q5">
         <f>SQRT((Q2+Q3+Q4) /3)</f>
@@ -10026,7 +9833,7 @@
         <v>136</v>
       </c>
       <c r="R8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -10038,7 +9845,7 @@
     </row>
     <row r="9" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q9">
         <v>-0.73299999999999998</v>
@@ -10053,7 +9860,7 @@
     </row>
     <row r="10" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>-0.71099999999999997</v>
@@ -10068,7 +9875,7 @@
     </row>
     <row r="11" spans="11:26" x14ac:dyDescent="0.2">
       <c r="P11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q11">
         <v>-0.67700000000000005</v>
@@ -10149,10 +9956,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C2200-8081-644A-AB13-9EC51CCA238B}">
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10162,506 +9969,536 @@
     <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
         <v>303</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="5" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
+    <row r="8" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>311</v>
+      </c>
+      <c r="J13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J15" t="s">
+        <v>323</v>
+      </c>
+      <c r="M15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J16" t="s">
+        <v>322</v>
+      </c>
+      <c r="M16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>315</v>
+      </c>
+      <c r="J17" t="s">
+        <v>328</v>
+      </c>
+      <c r="M17" t="s">
+        <v>603</v>
+      </c>
+      <c r="N17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>316</v>
+      </c>
+      <c r="J18" t="s">
+        <v>326</v>
+      </c>
+      <c r="K18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M18" t="s">
+        <v>328</v>
+      </c>
+      <c r="N18" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" t="s">
+        <v>330</v>
+      </c>
+      <c r="M19" t="s">
+        <v>328</v>
+      </c>
+      <c r="N19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>319</v>
+      </c>
+      <c r="J21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>535</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>303</v>
+      </c>
+      <c r="G30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>304</v>
       </c>
-      <c r="J3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
+      <c r="G31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>537</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I6" t="s">
-        <v>307</v>
-      </c>
-      <c r="J6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I8" t="s">
-        <v>326</v>
-      </c>
-      <c r="J8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I12" t="s">
-        <v>312</v>
-      </c>
-      <c r="J12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I13" t="s">
-        <v>313</v>
-      </c>
-      <c r="J13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I16" t="s">
-        <v>316</v>
-      </c>
-      <c r="J16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
-        <v>317</v>
-      </c>
-      <c r="J17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I18" t="s">
-        <v>318</v>
-      </c>
-      <c r="J18" t="s">
-        <v>328</v>
-      </c>
-      <c r="K18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
-        <v>319</v>
-      </c>
-      <c r="J19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>320</v>
-      </c>
-      <c r="J20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>321</v>
-      </c>
-      <c r="J21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>546</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G32" t="s">
         <v>305</v>
-      </c>
-      <c r="G30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>547</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>548</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2EC288-23C1-D44E-A191-37BFC4B80A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A34A24-3F14-9043-A157-042FAC6D1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="652">
   <si>
     <t>ID</t>
   </si>
@@ -1553,9 +1553,6 @@
 여기 작고 소중한 재료 모아왔어요~ \n경차 한대만 만들어 주세요</t>
   </si>
   <si>
-    <t>Gold:16,Resource1:8</t>
-  </si>
-  <si>
     <t>positions</t>
   </si>
   <si>
@@ -1991,10 +1988,6 @@
     <t>Vehicle/Car-1</t>
   </si>
   <si>
-    <t>production cost
-??필요한가?</t>
-  </si>
-  <si>
     <t>purchase.car-1</t>
   </si>
   <si>
@@ -2014,6 +2007,129 @@
   </si>
   <si>
     <t>Village</t>
+  </si>
+  <si>
+    <t>f-1</t>
+  </si>
+  <si>
+    <t>공원 걷기</t>
+  </si>
+  <si>
+    <t>걷기만 해도 기부니가 좋아지는 산책하기</t>
+  </si>
+  <si>
+    <t>SM_Env_GrassPath_Corner_01
+SM_Env_GrassPath_Corner_01 (1)
+SM_Env_GrassPath_Straight_01 (1)
+SM_Env_GrassPath_Straight_01 (10)
+SM_Env_GrassPath_Straight_01 (31)
+SM_Env_GrassPath_Straight_01 (8)
+SM_Env_GrassPath_Straight_01 (3)</t>
+  </si>
+  <si>
+    <t>상쾌하당
+기부니가 조쿠나
+이게 사람사는거지
+후아 후아 상쾌해</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>NPCFARM1</t>
+  </si>
+  <si>
+    <t>댄싱머신</t>
+  </si>
+  <si>
+    <t>5,0,-5</t>
+  </si>
+  <si>
+    <t>NPCFARM2</t>
+  </si>
+  <si>
+    <t>NPCFARM3</t>
+  </si>
+  <si>
+    <t>NPCFARM4</t>
+  </si>
+  <si>
+    <t>스트릿댄서</t>
+  </si>
+  <si>
+    <t>뚝딱이</t>
+  </si>
+  <si>
+    <t>열정만가득이</t>
+  </si>
+  <si>
+    <t>f-2</t>
+  </si>
+  <si>
+    <t>댄싱</t>
+  </si>
+  <si>
+    <t>공원에서 맘껏 춤추기</t>
+  </si>
+  <si>
+    <t>Plant_4</t>
+  </si>
+  <si>
+    <t>지금 이순간 누구도 날 멈출수 없어
+리듬에 몸을 맡겨
+온몸을 타고 흐르는 이 그루브
+음악만이 국가가 인정한 유일한 마약이야</t>
+  </si>
+  <si>
+    <t>f-3</t>
+  </si>
+  <si>
+    <t>미친척 춤추기</t>
+  </si>
+  <si>
+    <t>춤추는 사람들 사이에 껴서 마음껏 춤추기</t>
+  </si>
+  <si>
+    <t>같이 추니 좋구나
+난 혼자가 아니야 하나도 창피하지 않아
+둠칫 두둠칫
+스트레스가 사라지는것 같아</t>
+  </si>
+  <si>
+    <t>Plant_4
+Plant_5 (2)</t>
+  </si>
+  <si>
+    <t>NPCFARM5</t>
+  </si>
+  <si>
+    <t>NPCFARM6</t>
+  </si>
+  <si>
+    <t>산책러버</t>
+  </si>
+  <si>
+    <t>트래킹러버</t>
+  </si>
+  <si>
+    <t>0,0,-5</t>
+  </si>
+  <si>
+    <t>5,0,-10</t>
+  </si>
+  <si>
+    <t>f-4</t>
+  </si>
+  <si>
+    <t>트래킹</t>
+  </si>
+  <si>
+    <t>NPC걷기</t>
+  </si>
+  <si>
+    <t>HP,20,100,80
+MP,20,100,80
+Speed,1,3,1</t>
   </si>
 </sst>
 </file>
@@ -3887,10 +4003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView topLeftCell="I29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3899,7 +4015,7 @@
     <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -3947,7 +4063,7 @@
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3980,7 +4096,7 @@
         <v>105</v>
       </c>
       <c r="V1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -4077,19 +4193,19 @@
     </row>
     <row r="4" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>514</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>515</v>
       </c>
       <c r="H4" t="s">
         <v>300</v>
@@ -4104,20 +4220,20 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="V4" t="s">
         <v>74</v>
@@ -4358,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4528,7 +4644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4582,7 +4698,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4636,7 +4752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4802,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>272</v>
@@ -4820,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4835,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V18" t="s">
         <v>74</v>
@@ -4882,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>458</v>
@@ -4991,7 +5107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>452</v>
       </c>
@@ -5096,10 +5212,10 @@
     </row>
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5111,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H24" t="s">
         <v>297</v>
@@ -5129,13 +5245,13 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
@@ -5149,7 +5265,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B25" t="s">
         <v>475</v>
@@ -5176,7 +5292,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5228,10 +5344,10 @@
     </row>
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" t="s">
         <v>493</v>
-      </c>
-      <c r="B27" t="s">
-        <v>494</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5243,10 +5359,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="H27" t="s">
         <v>297</v>
@@ -5261,19 +5377,19 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V27" t="s">
         <v>74</v>
@@ -5281,7 +5397,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B28" t="s">
         <v>475</v>
@@ -5308,7 +5424,7 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5322,7 +5438,7 @@
     </row>
     <row r="29" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5334,13 +5450,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>520</v>
+      </c>
+      <c r="G29" t="s">
+        <v>522</v>
+      </c>
+      <c r="H29" t="s">
         <v>521</v>
-      </c>
-      <c r="G29" t="s">
-        <v>523</v>
-      </c>
-      <c r="H29" t="s">
-        <v>522</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5352,25 +5468,25 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29" t="s">
+        <v>523</v>
+      </c>
+      <c r="O29" t="s">
         <v>524</v>
       </c>
-      <c r="O29" t="s">
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" t="s">
         <v>526</v>
-      </c>
-      <c r="U29" t="s">
-        <v>527</v>
       </c>
       <c r="V29" t="s">
         <v>74</v>
@@ -5378,7 +5494,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5390,10 +5506,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -5411,13 +5527,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
+        <v>528</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>529</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
-        <v>530</v>
       </c>
       <c r="V30" t="s">
         <v>74</v>
@@ -5425,7 +5541,7 @@
     </row>
     <row r="31" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5437,10 +5553,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>573</v>
+      </c>
+      <c r="G31" t="s">
         <v>574</v>
-      </c>
-      <c r="G31" t="s">
-        <v>575</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5461,16 +5577,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="V31" t="s">
         <v>74</v>
@@ -5478,28 +5594,28 @@
     </row>
     <row r="32" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5511,28 +5627,28 @@
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
+        <v>585</v>
+      </c>
+      <c r="O32" t="s">
+        <v>587</v>
+      </c>
+      <c r="P32" t="s">
         <v>586</v>
       </c>
-      <c r="O32" t="s">
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="P32" t="s">
-        <v>587</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" t="s">
         <v>589</v>
-      </c>
-      <c r="U32" t="s">
-        <v>590</v>
       </c>
       <c r="V32" t="s">
         <v>74</v>
@@ -5540,10 +5656,10 @@
     </row>
     <row r="33" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5555,10 +5671,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -5576,16 +5692,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
+        <v>591</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="S33" s="4">
-        <v>1</v>
-      </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="V33" t="s">
         <v>74</v>
@@ -5593,7 +5709,7 @@
     </row>
     <row r="34" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -5605,10 +5721,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -5620,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5629,10 +5745,210 @@
         <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="V34" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="119" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>617</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>618</v>
+      </c>
+      <c r="G35" t="s">
+        <v>619</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>428</v>
+      </c>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="V35" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>632</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>633</v>
+      </c>
+      <c r="G36" t="s">
+        <v>634</v>
+      </c>
+      <c r="H36" t="s">
+        <v>581</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>428</v>
+      </c>
+      <c r="S36" s="4">
+        <v>200</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="V36" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>638</v>
+      </c>
+      <c r="G37" t="s">
+        <v>639</v>
+      </c>
+      <c r="H37" t="s">
+        <v>581</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>635</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>428</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="V37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>648</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>649</v>
+      </c>
+      <c r="G38" t="s">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>428</v>
+      </c>
+      <c r="S38" s="4">
+        <v>201</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="V38" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5643,10 +5959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5822,7 +6138,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6083,7 +6399,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -6098,16 +6414,16 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
+        <v>510</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>511</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -6116,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -6201,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>425</v>
@@ -6563,6 +6879,252 @@
       </c>
       <c r="Q20">
         <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>622</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>622</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>629</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>511</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>627</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>622</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>630</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>628</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>622</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>631</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>294</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>642</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>622</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>201</v>
+      </c>
+      <c r="F25" t="s">
+        <v>644</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>643</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>622</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>201</v>
+      </c>
+      <c r="F26" t="s">
+        <v>645</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>294</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6848,7 +7410,7 @@
         <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -7928,7 +8490,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -7958,10 +8520,10 @@
         <v>335</v>
       </c>
       <c r="B26" t="s">
+        <v>570</v>
+      </c>
+      <c r="C26" t="s">
         <v>571</v>
-      </c>
-      <c r="C26" t="s">
-        <v>572</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8472,19 +9034,19 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C37" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -9499,7 +10061,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9517,45 +10079,45 @@
         <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D1" t="s">
         <v>154</v>
       </c>
       <c r="E1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" t="s">
         <v>484</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>611</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>487</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>488</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -9567,24 +10129,27 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>489</v>
+        <v>488</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -9596,24 +10161,27 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>501</v>
+        <v>500</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" t="s">
         <v>607</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>609</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -9625,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J4" t="s">
-        <v>480</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -10092,7 +10660,7 @@
         <v>139</v>
       </c>
       <c r="N16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -10103,10 +10671,10 @@
         <v>328</v>
       </c>
       <c r="M17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -10123,7 +10691,7 @@
         <v>328</v>
       </c>
       <c r="N18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -10137,7 +10705,7 @@
         <v>328</v>
       </c>
       <c r="N19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -10163,13 +10731,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -10183,13 +10751,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -10203,13 +10771,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10223,13 +10791,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -10243,13 +10811,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -10263,13 +10831,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -10283,13 +10851,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -10303,13 +10871,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -10323,13 +10891,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -10343,13 +10911,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -10363,13 +10931,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -10383,13 +10951,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -10403,13 +10971,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -10423,13 +10991,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -10443,13 +11011,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -10463,13 +11031,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -10483,13 +11051,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E46">
         <v>1</v>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A34A24-3F14-9043-A157-042FAC6D1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F657BB4C-47CB-B644-BA1E-2F750219A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="676">
   <si>
     <t>ID</t>
   </si>
@@ -1101,18 +1101,6 @@
     <t>item-5</t>
   </si>
   <si>
-    <t>item-6</t>
-  </si>
-  <si>
-    <t>item-7</t>
-  </si>
-  <si>
-    <t>item-8</t>
-  </si>
-  <si>
-    <t>item-9</t>
-  </si>
-  <si>
     <t>item-10</t>
   </si>
   <si>
@@ -1195,18 +1183,6 @@
   </si>
   <si>
     <t>item-38</t>
-  </si>
-  <si>
-    <t>test item6</t>
-  </si>
-  <si>
-    <t>test item7</t>
-  </si>
-  <si>
-    <t>test item8</t>
-  </si>
-  <si>
-    <t>test item9</t>
   </si>
   <si>
     <t>test item10</t>
@@ -1368,9 +1344,6 @@
   <si>
     <t>inventory
 itemId,quantity,isInstall</t>
-  </si>
-  <si>
-    <t>item-1,1,False</t>
   </si>
   <si>
     <t>LD1-B2</t>
@@ -2000,12 +1973,6 @@
     <t>양배추</t>
   </si>
   <si>
-    <t>COOKING-1</t>
-  </si>
-  <si>
-    <t>ingredient.cabbage</t>
-  </si>
-  <si>
     <t>Village</t>
   </si>
   <si>
@@ -2130,6 +2097,116 @@
     <t>HP,20,100,80
 MP,20,100,80
 Speed,1,3,1</t>
+  </si>
+  <si>
+    <t>f-2-1</t>
+  </si>
+  <si>
+    <t>f-5</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>f-6</t>
+  </si>
+  <si>
+    <t>Farming1</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>밭 갈기</t>
+  </si>
+  <si>
+    <t>씨앗을 뿌리기 전 밭을 갈아야합니다.</t>
+  </si>
+  <si>
+    <t>HP:-1</t>
+  </si>
+  <si>
+    <t>나도 몰랐던 농사꾼의 피가 있나
+뭐지 왜 재밌지
+대농이 될것이여</t>
+  </si>
+  <si>
+    <t>토마토 심기</t>
+  </si>
+  <si>
+    <t>토마토를 심는다</t>
+  </si>
+  <si>
+    <t>자라나라 토마토야
+토마토 용사여 어서 깨어나세요</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>seed1</t>
+  </si>
+  <si>
+    <t>토마토 씨앗</t>
+  </si>
+  <si>
+    <t>토마토를 심을 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>seed2</t>
+  </si>
+  <si>
+    <t>양배추 씨앗</t>
+  </si>
+  <si>
+    <t>양배추를 심을 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>ingredient1</t>
+  </si>
+  <si>
+    <t>토마토</t>
+  </si>
+  <si>
+    <t>ingredient2</t>
+  </si>
+  <si>
+    <t>item-1,1,False
+seed1,10,False</t>
+  </si>
+  <si>
+    <t>material item</t>
+  </si>
+  <si>
+    <t>seed1,1</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:PLANT:seed1</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:TILLAGE</t>
+  </si>
+  <si>
+    <t>f-7</t>
+  </si>
+  <si>
+    <t>양배추 심기</t>
+  </si>
+  <si>
+    <t>양배추를 심는다</t>
+  </si>
+  <si>
+    <t>자라나라 양배추야
+양배추 용사여 어서 깨어나세요</t>
+  </si>
+  <si>
+    <t>seed2,1</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:PLANT:seed2</t>
+  </si>
+  <si>
+    <t>farm-small-4</t>
   </si>
 </sst>
 </file>
@@ -4003,10 +4080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="I29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4029,9 +4106,11 @@
     <col min="19" max="19" width="10.83203125" style="4"/>
     <col min="20" max="20" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.83203125" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="187" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4142,7 @@
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -4075,16 +4154,16 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
@@ -4096,10 +4175,16 @@
         <v>105</v>
       </c>
       <c r="V1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+      <c r="W1" t="s">
+        <v>665</v>
+      </c>
+      <c r="X1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -4145,7 +4230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -4191,21 +4276,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H4" t="s">
         <v>300</v>
@@ -4220,26 +4305,26 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="V4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4289,7 +4374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4321,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4339,9 +4424,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4353,13 +4438,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4371,25 +4456,25 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="V7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4403,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -4427,24 +4512,24 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="R8" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="V8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4474,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4494,7 +4579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4544,7 +4629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4561,7 +4646,7 @@
         <v>267</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4594,7 +4679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4611,7 +4696,7 @@
         <v>268</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -4644,7 +4729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4658,10 +4743,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H13" t="s">
         <v>300</v>
@@ -4682,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
@@ -4698,7 +4783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4712,10 +4797,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H14" t="s">
         <v>300</v>
@@ -4736,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
@@ -4752,7 +4837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4766,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H15" t="s">
         <v>300</v>
@@ -4790,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4">
@@ -4806,7 +4891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4918,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>272</v>
@@ -4936,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4951,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="V18" t="s">
         <v>74</v>
@@ -4998,10 +5083,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="V19" t="s">
         <v>74</v>
@@ -5009,10 +5094,10 @@
     </row>
     <row r="20" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5024,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -5042,22 +5127,22 @@
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Q20" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="V20" t="s">
         <v>74</v>
@@ -5065,7 +5150,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5077,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -5092,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5101,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="V21" t="s">
         <v>74</v>
@@ -5109,7 +5194,7 @@
     </row>
     <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5121,10 +5206,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -5139,22 +5224,22 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="O22" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="V22" t="s">
         <v>74</v>
@@ -5162,7 +5247,7 @@
     </row>
     <row r="23" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5201,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="V23" t="s">
         <v>74</v>
@@ -5212,10 +5297,10 @@
     </row>
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B24" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5227,10 +5312,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H24" t="s">
         <v>297</v>
@@ -5245,19 +5330,19 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="V24" t="s">
         <v>74</v>
@@ -5265,10 +5350,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5280,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5292,7 +5377,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5306,7 +5391,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5318,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5336,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="V26" t="s">
         <v>74</v>
@@ -5344,10 +5429,10 @@
     </row>
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B27" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5359,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H27" t="s">
         <v>297</v>
@@ -5377,19 +5462,19 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="V27" t="s">
         <v>74</v>
@@ -5397,10 +5482,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B28" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -5412,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5424,7 +5509,7 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5438,7 +5523,7 @@
     </row>
     <row r="29" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5450,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G29" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H29" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5468,25 +5553,25 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="O29" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="S29" s="4">
         <v>1</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="U29" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="V29" t="s">
         <v>74</v>
@@ -5494,7 +5579,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5506,10 +5591,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G30" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -5527,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="S30" s="4">
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="V30" t="s">
         <v>74</v>
@@ -5541,7 +5626,7 @@
     </row>
     <row r="31" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5553,10 +5638,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G31" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5577,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="S31" s="4">
         <v>1</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="V31" t="s">
         <v>74</v>
@@ -5594,28 +5679,28 @@
     </row>
     <row r="32" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B32" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G32" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H32" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5627,39 +5712,39 @@
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="O32" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P32" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="S32" s="4">
         <v>1</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="U32" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="V32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>576</v>
+      </c>
+      <c r="B33" t="s">
         <v>585</v>
-      </c>
-      <c r="B33" t="s">
-        <v>594</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5671,10 +5756,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G33" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -5692,24 +5777,24 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="S33" s="4">
         <v>1</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="V33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -5721,10 +5806,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H34" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -5736,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5745,15 +5830,15 @@
         <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="V34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="119" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5765,10 +5850,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G35" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -5783,27 +5868,27 @@
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="S35" s="4">
         <v>1</v>
       </c>
       <c r="T35" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="V35" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>621</v>
-      </c>
-      <c r="V35" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="85" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>632</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5815,13 +5900,13 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="G36" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="H36" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -5833,27 +5918,27 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="S36" s="4">
         <v>200</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="V36" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5865,13 +5950,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="G37" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="H37" t="s">
-        <v>581</v>
+        <v>86</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -5882,28 +5967,28 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" t="s">
-        <v>635</v>
+      <c r="L37" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="S37" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="V37" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="119" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5915,16 +6000,16 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="G38" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>572</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -5932,23 +6017,238 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>620</v>
+      <c r="L38" t="s">
+        <v>624</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="S38" s="4">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="V38" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>637</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>638</v>
+      </c>
+      <c r="G39" t="s">
+        <v>639</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>419</v>
+      </c>
+      <c r="S39" s="4">
         <v>201</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="V38" t="s">
-        <v>622</v>
+      <c r="T39" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="V39" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>642</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>647</v>
+      </c>
+      <c r="G40" t="s">
+        <v>648</v>
+      </c>
+      <c r="H40" t="s">
+        <v>300</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>649</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="V40" t="s">
+        <v>611</v>
+      </c>
+      <c r="X40" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>644</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>651</v>
+      </c>
+      <c r="G41" t="s">
+        <v>652</v>
+      </c>
+      <c r="H41" t="s">
+        <v>643</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>649</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="V41" t="s">
+        <v>611</v>
+      </c>
+      <c r="W41" t="s">
+        <v>666</v>
+      </c>
+      <c r="X41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>669</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>670</v>
+      </c>
+      <c r="G42" t="s">
+        <v>671</v>
+      </c>
+      <c r="H42" t="s">
+        <v>643</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>649</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="V42" t="s">
+        <v>611</v>
+      </c>
+      <c r="W42" t="s">
+        <v>673</v>
+      </c>
+      <c r="X42" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -5961,8 +6261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6021,13 +6321,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="P1" t="s">
         <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -6138,7 +6438,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6229,7 +6529,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -6352,7 +6652,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -6367,16 +6667,16 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>91</v>
@@ -6388,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -6399,7 +6699,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -6414,16 +6714,16 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -6432,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -6517,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>425</v>
+        <v>664</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -6564,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -6608,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -6652,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -6696,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -6740,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -6784,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -6828,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -6872,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -6883,13 +7183,13 @@
     </row>
     <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -6898,7 +7198,7 @@
         <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -6907,7 +7207,7 @@
         <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>91</v>
@@ -6916,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -6924,13 +7224,13 @@
     </row>
     <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -6939,16 +7239,16 @@
         <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>91</v>
@@ -6957,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -6965,22 +7265,22 @@
     </row>
     <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -6989,7 +7289,7 @@
         <v>143</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>91</v>
@@ -6998,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -7006,22 +7306,22 @@
     </row>
     <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -7030,7 +7330,7 @@
         <v>294</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>91</v>
@@ -7039,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -7047,13 +7347,13 @@
     </row>
     <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -7062,7 +7362,7 @@
         <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -7071,7 +7371,7 @@
         <v>143</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>91</v>
@@ -7080,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q25">
         <v>15</v>
@@ -7088,13 +7388,13 @@
     </row>
     <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -7103,7 +7403,7 @@
         <v>201</v>
       </c>
       <c r="F26" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -7112,7 +7412,7 @@
         <v>294</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>91</v>
@@ -7121,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -7378,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7410,7 +7710,7 @@
         <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -8340,10 +8640,10 @@
         <v>331</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C22" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -8361,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -8387,10 +8687,10 @@
         <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -8408,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -8434,10 +8734,10 @@
         <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C24" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8455,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -8478,19 +8778,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B25" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C25" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -8499,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -8520,10 +8820,10 @@
         <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C26" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8564,16 +8864,16 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>655</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>656</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>657</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -8611,16 +8911,16 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>658</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>659</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>660</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -8658,13 +8958,13 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>662</v>
       </c>
       <c r="C29" t="s">
-        <v>332</v>
+        <v>662</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8676,13 +8976,13 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
@@ -8691,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O29" s="7">
         <v>2</v>
@@ -8705,13 +9005,13 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>663</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>604</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>604</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8723,13 +9023,13 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>401</v>
       </c>
       <c r="L30" s="7">
         <v>0</v>
@@ -8738,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O30" s="7">
         <v>2</v>
@@ -8752,10 +9052,10 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
         <v>332</v>
@@ -8799,10 +9099,10 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C32" t="s">
         <v>332</v>
@@ -8846,10 +9146,10 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -8893,10 +9193,10 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s">
         <v>332</v>
@@ -8940,10 +9240,10 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C35" t="s">
         <v>332</v>
@@ -8987,10 +9287,10 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C36" t="s">
         <v>332</v>
@@ -9034,19 +9334,19 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="B37" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C37" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -9070,10 +9370,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C38" t="s">
         <v>332</v>
@@ -9103,10 +9403,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C39" t="s">
         <v>332</v>
@@ -9136,10 +9436,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C40" t="s">
         <v>332</v>
@@ -9169,10 +9469,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C41" t="s">
         <v>332</v>
@@ -9202,10 +9502,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C42" t="s">
         <v>332</v>
@@ -9235,10 +9535,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C43" t="s">
         <v>332</v>
@@ -9268,10 +9568,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C44" t="s">
         <v>332</v>
@@ -9301,10 +9601,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
         <v>332</v>
@@ -9334,10 +9634,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
         <v>332</v>
@@ -9367,10 +9667,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C47" t="s">
         <v>332</v>
@@ -9400,10 +9700,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C48" t="s">
         <v>332</v>
@@ -9433,10 +9733,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C49" t="s">
         <v>332</v>
@@ -9466,10 +9766,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C50" t="s">
         <v>332</v>
@@ -9499,10 +9799,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C51" t="s">
         <v>332</v>
@@ -9532,10 +9832,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C52" t="s">
         <v>332</v>
@@ -9565,10 +9865,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s">
         <v>332</v>
@@ -9598,10 +9898,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C54" t="s">
         <v>332</v>
@@ -9631,10 +9931,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C55" t="s">
         <v>332</v>
@@ -9664,10 +9964,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
         <v>332</v>
@@ -9697,10 +9997,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B57" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
         <v>332</v>
@@ -9730,10 +10030,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
         <v>332</v>
@@ -9763,10 +10063,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C59" t="s">
         <v>332</v>
@@ -10079,45 +10379,45 @@
         <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D1" t="s">
         <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -10129,27 +10429,27 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="J2" t="s">
         <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -10161,27 +10461,27 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="J3" t="s">
         <v>74</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -10193,13 +10493,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="J4" t="s">
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -10234,13 +10534,13 @@
         <v>141</v>
       </c>
       <c r="W1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="Y1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="Z1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="11:26" x14ac:dyDescent="0.2">
@@ -10660,7 +10960,7 @@
         <v>139</v>
       </c>
       <c r="N16" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -10671,10 +10971,10 @@
         <v>328</v>
       </c>
       <c r="M17" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="N17" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -10691,7 +10991,7 @@
         <v>328</v>
       </c>
       <c r="N18" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -10705,7 +11005,7 @@
         <v>328</v>
       </c>
       <c r="N19" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -10731,13 +11031,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -10751,13 +11051,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -10771,13 +11071,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10791,13 +11091,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -10811,13 +11111,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -10831,13 +11131,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -10851,13 +11151,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -10871,13 +11171,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -10891,13 +11191,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -10911,13 +11211,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -10931,13 +11231,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -10951,13 +11251,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -10971,13 +11271,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -10991,13 +11291,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -11011,13 +11311,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -11031,13 +11331,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -11051,13 +11351,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E46">
         <v>1</v>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F657BB4C-47CB-B644-BA1E-2F750219A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DD934-A679-554D-9EC4-74961F7EBAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="689">
   <si>
     <t>ID</t>
   </si>
@@ -1922,10 +1922,267 @@
     <t>o</t>
   </si>
   <si>
+    <t>nv_Sidewalk_Construction_01n_01</t>
+  </si>
+  <si>
+    <t>category
+SATISFACTION_ONLY = 0,
+WEAPON = 1,
+VEHICLE = 2,
+FARMING = 3,
+COOKING = 4</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>car-1</t>
+  </si>
+  <si>
+    <t>경차</t>
+  </si>
+  <si>
+    <t>Vehicle/Car-1</t>
+  </si>
+  <si>
+    <t>purchase.car-1</t>
+  </si>
+  <si>
+    <t>20,0,148:0,0,0</t>
+  </si>
+  <si>
+    <t>농작물</t>
+  </si>
+  <si>
+    <t>양배추</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>f-1</t>
+  </si>
+  <si>
+    <t>공원 걷기</t>
+  </si>
+  <si>
+    <t>걷기만 해도 기부니가 좋아지는 산책하기</t>
+  </si>
+  <si>
+    <t>SM_Env_GrassPath_Corner_01
+SM_Env_GrassPath_Corner_01 (1)
+SM_Env_GrassPath_Straight_01 (1)
+SM_Env_GrassPath_Straight_01 (10)
+SM_Env_GrassPath_Straight_01 (31)
+SM_Env_GrassPath_Straight_01 (8)
+SM_Env_GrassPath_Straight_01 (3)</t>
+  </si>
+  <si>
+    <t>상쾌하당
+기부니가 조쿠나
+이게 사람사는거지
+후아 후아 상쾌해</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>NPCFARM1</t>
+  </si>
+  <si>
+    <t>댄싱머신</t>
+  </si>
+  <si>
+    <t>5,0,-5</t>
+  </si>
+  <si>
+    <t>NPCFARM2</t>
+  </si>
+  <si>
+    <t>NPCFARM3</t>
+  </si>
+  <si>
+    <t>NPCFARM4</t>
+  </si>
+  <si>
+    <t>스트릿댄서</t>
+  </si>
+  <si>
+    <t>뚝딱이</t>
+  </si>
+  <si>
+    <t>열정만가득이</t>
+  </si>
+  <si>
+    <t>f-2</t>
+  </si>
+  <si>
+    <t>댄싱</t>
+  </si>
+  <si>
+    <t>공원에서 맘껏 춤추기</t>
+  </si>
+  <si>
+    <t>지금 이순간 누구도 날 멈출수 없어
+리듬에 몸을 맡겨
+온몸을 타고 흐르는 이 그루브
+음악만이 국가가 인정한 유일한 마약이야</t>
+  </si>
+  <si>
+    <t>f-3</t>
+  </si>
+  <si>
+    <t>미친척 춤추기</t>
+  </si>
+  <si>
+    <t>춤추는 사람들 사이에 껴서 마음껏 춤추기</t>
+  </si>
+  <si>
+    <t>같이 추니 좋구나
+난 혼자가 아니야 하나도 창피하지 않아
+둠칫 두둠칫
+스트레스가 사라지는것 같아</t>
+  </si>
+  <si>
+    <t>NPCFARM5</t>
+  </si>
+  <si>
+    <t>NPCFARM6</t>
+  </si>
+  <si>
+    <t>산책러버</t>
+  </si>
+  <si>
+    <t>트래킹러버</t>
+  </si>
+  <si>
+    <t>0,0,-5</t>
+  </si>
+  <si>
+    <t>5,0,-10</t>
+  </si>
+  <si>
+    <t>f-4</t>
+  </si>
+  <si>
+    <t>트래킹</t>
+  </si>
+  <si>
+    <t>NPC걷기</t>
+  </si>
+  <si>
+    <t>HP,20,100,80
+MP,20,100,80
+Speed,1,3,1</t>
+  </si>
+  <si>
+    <t>f-2-1</t>
+  </si>
+  <si>
+    <t>f-5</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>f-6</t>
+  </si>
+  <si>
+    <t>Farming1</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>밭 갈기</t>
+  </si>
+  <si>
+    <t>씨앗을 뿌리기 전 밭을 갈아야합니다.</t>
+  </si>
+  <si>
+    <t>HP:-1</t>
+  </si>
+  <si>
+    <t>나도 몰랐던 농사꾼의 피가 있나
+뭐지 왜 재밌지
+대농이 될것이여</t>
+  </si>
+  <si>
+    <t>토마토 심기</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>seed1</t>
+  </si>
+  <si>
+    <t>토마토 씨앗</t>
+  </si>
+  <si>
+    <t>토마토를 심을 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>seed2</t>
+  </si>
+  <si>
+    <t>양배추 씨앗</t>
+  </si>
+  <si>
+    <t>양배추를 심을 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>ingredient1</t>
+  </si>
+  <si>
+    <t>토마토</t>
+  </si>
+  <si>
+    <t>ingredient2</t>
+  </si>
+  <si>
+    <t>material item</t>
+  </si>
+  <si>
+    <t>seed1,1</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:PLANT:seed1</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:TILLAGE</t>
+  </si>
+  <si>
+    <t>f-7</t>
+  </si>
+  <si>
+    <t>양배추 심기</t>
+  </si>
+  <si>
+    <t>seed2,1</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:PLANT:seed2</t>
+  </si>
+  <si>
+    <t>farm-small-4</t>
+  </si>
+  <si>
+    <t>item-1,1,False
+seed1,10,False
+seed2,10,False</t>
+  </si>
+  <si>
+    <t>f-8</t>
+  </si>
+  <si>
+    <t>수확하기</t>
+  </si>
+  <si>
     <t>Gold,20,150,148
 Speed,1,4,2
 HP,20,50,8
-MP,20,50,50
+MP,20,50,15
 Knowledge,20,50,0
 Ability1,20,50,0
 Ability2,20,50,0
@@ -1938,275 +2195,68 @@
 Friendship,0,50,0</t>
   </si>
   <si>
-    <t>nv_Sidewalk_Construction_01n_01</t>
-  </si>
-  <si>
-    <t>category
-SATISFACTION_ONLY = 0,
-WEAPON = 1,
-VEHICLE = 2,
-FARMING = 3,
-COOKING = 4</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>car-1</t>
-  </si>
-  <si>
-    <t>경차</t>
-  </si>
-  <si>
-    <t>Vehicle/Car-1</t>
-  </si>
-  <si>
-    <t>purchase.car-1</t>
-  </si>
-  <si>
-    <t>20,0,148:0,0,0</t>
-  </si>
-  <si>
-    <t>농작물</t>
-  </si>
-  <si>
-    <t>양배추</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
-    <t>f-1</t>
-  </si>
-  <si>
-    <t>공원 걷기</t>
-  </si>
-  <si>
-    <t>걷기만 해도 기부니가 좋아지는 산책하기</t>
-  </si>
-  <si>
-    <t>SM_Env_GrassPath_Corner_01
-SM_Env_GrassPath_Corner_01 (1)
-SM_Env_GrassPath_Straight_01 (1)
-SM_Env_GrassPath_Straight_01 (10)
-SM_Env_GrassPath_Straight_01 (31)
-SM_Env_GrassPath_Straight_01 (8)
-SM_Env_GrassPath_Straight_01 (3)</t>
-  </si>
-  <si>
-    <t>상쾌하당
-기부니가 조쿠나
-이게 사람사는거지
-후아 후아 상쾌해</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>NPCFARM1</t>
-  </si>
-  <si>
-    <t>댄싱머신</t>
-  </si>
-  <si>
-    <t>5,0,-5</t>
-  </si>
-  <si>
-    <t>NPCFARM2</t>
-  </si>
-  <si>
-    <t>NPCFARM3</t>
-  </si>
-  <si>
-    <t>NPCFARM4</t>
-  </si>
-  <si>
-    <t>스트릿댄서</t>
-  </si>
-  <si>
-    <t>뚝딱이</t>
-  </si>
-  <si>
-    <t>열정만가득이</t>
-  </si>
-  <si>
-    <t>f-2</t>
-  </si>
-  <si>
-    <t>댄싱</t>
-  </si>
-  <si>
-    <t>공원에서 맘껏 춤추기</t>
-  </si>
-  <si>
-    <t>Plant_4</t>
-  </si>
-  <si>
-    <t>지금 이순간 누구도 날 멈출수 없어
-리듬에 몸을 맡겨
-온몸을 타고 흐르는 이 그루브
-음악만이 국가가 인정한 유일한 마약이야</t>
-  </si>
-  <si>
-    <t>f-3</t>
-  </si>
-  <si>
-    <t>미친척 춤추기</t>
-  </si>
-  <si>
-    <t>춤추는 사람들 사이에 껴서 마음껏 춤추기</t>
-  </si>
-  <si>
-    <t>같이 추니 좋구나
-난 혼자가 아니야 하나도 창피하지 않아
-둠칫 두둠칫
-스트레스가 사라지는것 같아</t>
-  </si>
-  <si>
-    <t>Plant_4
-Plant_5 (2)</t>
-  </si>
-  <si>
-    <t>NPCFARM5</t>
-  </si>
-  <si>
-    <t>NPCFARM6</t>
-  </si>
-  <si>
-    <t>산책러버</t>
-  </si>
-  <si>
-    <t>트래킹러버</t>
-  </si>
-  <si>
-    <t>0,0,-5</t>
-  </si>
-  <si>
-    <t>5,0,-10</t>
-  </si>
-  <si>
-    <t>f-4</t>
-  </si>
-  <si>
-    <t>트래킹</t>
-  </si>
-  <si>
-    <t>NPC걷기</t>
-  </si>
-  <si>
-    <t>HP,20,100,80
-MP,20,100,80
-Speed,1,3,1</t>
-  </si>
-  <si>
-    <t>f-2-1</t>
-  </si>
-  <si>
-    <t>f-5</t>
-  </si>
-  <si>
-    <t>Farming</t>
-  </si>
-  <si>
-    <t>f-6</t>
-  </si>
-  <si>
-    <t>Farming1</t>
-  </si>
-  <si>
-    <t>ingredient</t>
-  </si>
-  <si>
-    <t>밭 갈기</t>
-  </si>
-  <si>
-    <t>씨앗을 뿌리기 전 밭을 갈아야합니다.</t>
-  </si>
-  <si>
-    <t>HP:-1</t>
-  </si>
-  <si>
-    <t>나도 몰랐던 농사꾼의 피가 있나
-뭐지 왜 재밌지
-대농이 될것이여</t>
-  </si>
-  <si>
-    <t>토마토 심기</t>
-  </si>
-  <si>
-    <t>토마토를 심는다</t>
+    <t>자라나라 양배추야
+양배추 용사여 어서 깨어나세요
+무럭무럭 자라라</t>
   </si>
   <si>
     <t>자라나라 토마토야
-토마토 용사여 어서 깨어나세요</t>
-  </si>
-  <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>seed1</t>
-  </si>
-  <si>
-    <t>토마토 씨앗</t>
-  </si>
-  <si>
-    <t>토마토를 심을 수 있는 씨앗</t>
-  </si>
-  <si>
-    <t>seed2</t>
-  </si>
-  <si>
-    <t>양배추 씨앗</t>
-  </si>
-  <si>
-    <t>양배추를 심을 수 있는 씨앗</t>
-  </si>
-  <si>
-    <t>ingredient1</t>
-  </si>
-  <si>
-    <t>토마토</t>
-  </si>
-  <si>
-    <t>ingredient2</t>
-  </si>
-  <si>
-    <t>item-1,1,False
-seed1,10,False</t>
-  </si>
-  <si>
-    <t>material item</t>
-  </si>
-  <si>
-    <t>seed1,1</t>
-  </si>
-  <si>
-    <t>FARMING:farm-small:PLANT:seed1</t>
-  </si>
-  <si>
-    <t>FARMING:farm-small:TILLAGE</t>
-  </si>
-  <si>
-    <t>f-7</t>
-  </si>
-  <si>
-    <t>양배추 심기</t>
-  </si>
-  <si>
-    <t>양배추를 심는다</t>
-  </si>
-  <si>
-    <t>자라나라 양배추야
-양배추 용사여 어서 깨어나세요</t>
-  </si>
-  <si>
-    <t>seed2,1</t>
-  </si>
-  <si>
-    <t>FARMING:farm-small:PLANT:seed2</t>
-  </si>
-  <si>
-    <t>farm-small-4</t>
+토마토 용사여 어서 깨어나세요
+마토야 무럭무럭 자라라</t>
+  </si>
+  <si>
+    <t>뿌듯하구먼
+이것은 나의 피땀눈물
+밥안먹어도 배부르네</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:HARVEST</t>
+  </si>
+  <si>
+    <t>수확하기. 수확물은 인벤토리에 자동으로 들어가요.</t>
+  </si>
+  <si>
+    <t>SM_Env_GrassPath_Corner_01 (3)
+SM_Env_GrassPath_Straight_01 (16)
+SM_Env_GrassPath_Straight_01 (39)
+SM_Env_GrassPath_Straight_01 (47)
+SM_Env_GrassPath_Straight_01 (1)</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_01 (15)
+SM_Env_Grass_01 (17)</t>
+  </si>
+  <si>
+    <t>f-9</t>
+  </si>
+  <si>
+    <t>밭일 하기</t>
+  </si>
+  <si>
+    <t>워메 힘든거
+허리가 끊어질거 같다
+헉헉.. 땡볕에 죽을 거 같다</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:CARE</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Tillage</t>
+  </si>
+  <si>
+    <t>양배추를 심는다. 다 자라는데 15분이 걸립니다.</t>
+  </si>
+  <si>
+    <t>토마토를 심는다. 다 자라는데 15분이 걸립니다.</t>
+  </si>
+  <si>
+    <t>농작물을 가꾼다. 농작물이 자라는 시간을 단축할 수 있습니다.</t>
   </si>
 </sst>
 </file>
@@ -4080,10 +4130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4175,13 +4225,13 @@
         <v>105</v>
       </c>
       <c r="V1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="W1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="X1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -4559,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -5836,9 +5886,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5850,10 +5900,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
+        <v>606</v>
+      </c>
+      <c r="G35" t="s">
         <v>607</v>
-      </c>
-      <c r="G35" t="s">
-        <v>608</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -5868,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5880,15 +5930,15 @@
         <v>1</v>
       </c>
       <c r="T35" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="V35" t="s">
         <v>610</v>
-      </c>
-      <c r="V35" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5900,10 +5950,10 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
+        <v>621</v>
+      </c>
+      <c r="G36" t="s">
         <v>622</v>
-      </c>
-      <c r="G36" t="s">
-        <v>623</v>
       </c>
       <c r="H36" t="s">
         <v>572</v>
@@ -5918,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5930,15 +5980,15 @@
         <v>200</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5950,10 +6000,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
+        <v>621</v>
+      </c>
+      <c r="G37" t="s">
         <v>622</v>
-      </c>
-      <c r="G37" t="s">
-        <v>623</v>
       </c>
       <c r="H37" t="s">
         <v>86</v>
@@ -5968,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5980,15 +6030,15 @@
         <v>202</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -6000,10 +6050,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H38" t="s">
         <v>572</v>
@@ -6017,8 +6067,8 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
-        <v>624</v>
+      <c r="L38" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -6030,15 +6080,15 @@
         <v>1</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="V38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -6050,10 +6100,10 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G39" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -6068,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -6080,15 +6130,15 @@
         <v>201</v>
       </c>
       <c r="T39" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="V39" t="s">
         <v>610</v>
-      </c>
-      <c r="V39" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -6100,16 +6150,16 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G40" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H40" t="s">
-        <v>300</v>
+        <v>685</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>-1</v>
@@ -6118,30 +6168,30 @@
         <v>5</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="S40" s="4">
         <v>1</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="V40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X40" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6153,13 +6203,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G41" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="H41" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -6171,33 +6221,33 @@
         <v>5</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="S41" s="4">
         <v>1</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="V41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W41" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="X41" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6209,13 +6259,13 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G42" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="H42" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -6227,13 +6277,13 @@
         <v>5</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="S42" s="4">
         <v>1</v>
@@ -6242,13 +6292,119 @@
         <v>672</v>
       </c>
       <c r="V42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W42" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="X42" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>669</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>680</v>
+      </c>
+      <c r="G43" t="s">
+        <v>688</v>
+      </c>
+      <c r="H43" t="s">
+        <v>640</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>646</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="V43" t="s">
+        <v>610</v>
+      </c>
+      <c r="X43" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>679</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>670</v>
+      </c>
+      <c r="G44" t="s">
+        <v>676</v>
+      </c>
+      <c r="H44" t="s">
+        <v>684</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>646</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1" t="s">
         <v>674</v>
+      </c>
+      <c r="V44" t="s">
+        <v>610</v>
+      </c>
+      <c r="X44" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -6261,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6817,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -7183,13 +7339,13 @@
     </row>
     <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -7198,7 +7354,7 @@
         <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -7207,7 +7363,7 @@
         <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>91</v>
@@ -7216,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -7224,13 +7380,13 @@
     </row>
     <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -7239,7 +7395,7 @@
         <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -7248,7 +7404,7 @@
         <v>502</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>91</v>
@@ -7257,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -7265,13 +7421,13 @@
     </row>
     <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -7280,7 +7436,7 @@
         <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -7289,7 +7445,7 @@
         <v>143</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>91</v>
@@ -7298,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -7306,13 +7462,13 @@
     </row>
     <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -7321,7 +7477,7 @@
         <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -7330,7 +7486,7 @@
         <v>294</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>91</v>
@@ -7339,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -7347,13 +7503,13 @@
     </row>
     <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -7362,7 +7518,7 @@
         <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -7371,7 +7527,7 @@
         <v>143</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>91</v>
@@ -7380,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q25">
         <v>15</v>
@@ -7388,13 +7544,13 @@
     </row>
     <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -7403,7 +7559,7 @@
         <v>201</v>
       </c>
       <c r="F26" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -7412,7 +7568,7 @@
         <v>294</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>91</v>
@@ -7421,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -7679,7 +7835,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7710,7 +7866,7 @@
         <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -8790,7 +8946,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -8864,13 +9020,13 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B27" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C27" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -8911,13 +9067,13 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B28" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C28" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -8958,13 +9114,13 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B29" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C29" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -9005,13 +9161,13 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -9334,19 +9490,19 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -10472,16 +10628,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" t="s">
         <v>597</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>598</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>599</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -10493,13 +10649,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J4" t="s">
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DD934-A679-554D-9EC4-74961F7EBAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300884D4-B363-F840-B9EC-801EB9ED5CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="694">
   <si>
     <t>ID</t>
   </si>
@@ -2257,6 +2257,21 @@
   </si>
   <si>
     <t>농작물을 가꾼다. 농작물이 자라는 시간을 단축할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>NPCSTOCK</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>거래소직원</t>
+  </si>
+  <si>
+    <t>-6.6,0,4.5</t>
+  </si>
+  <si>
+    <t>0,15,0</t>
   </si>
 </sst>
 </file>
@@ -4132,7 +4147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -6415,10 +6430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7581,6 +7596,47 @@
       </c>
       <c r="Q26">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>689</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>690</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27" t="s">
+        <v>691</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>294</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q27">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300884D4-B363-F840-B9EC-801EB9ED5CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CA37E-9698-D140-B0BF-E940DA34EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="item" sheetId="5" r:id="rId4"/>
     <sheet name="level" sheetId="6" r:id="rId5"/>
     <sheet name="vehicle" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId7"/>
+    <sheet name="satisfaction" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="704">
   <si>
     <t>ID</t>
   </si>
@@ -467,25 +467,7 @@
     <t>캬옹이</t>
   </si>
   <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>variance</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
   <si>
     <t>Actors/npc5</t>
@@ -947,18 +929,6 @@
   </si>
   <si>
     <t>TaskCounter,64</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>12,8,6</t>
-  </si>
-  <si>
-    <t>6,8,12</t>
   </si>
   <si>
     <t>핫도그 사먹기</t>
@@ -1463,15 +1433,6 @@
     <t>좋아 우리 친하잖아</t>
   </si>
   <si>
-    <t>수요곡선</t>
-  </si>
-  <si>
-    <t>기울기</t>
-  </si>
-  <si>
-    <t>절편</t>
-  </si>
-  <si>
     <t>Resource1:1,Gold:$|0.9|-%</t>
   </si>
   <si>
@@ -2179,7 +2140,158 @@
     <t>수확하기</t>
   </si>
   <si>
-    <t>Gold,20,150,148
+    <t>자라나라 양배추야
+양배추 용사여 어서 깨어나세요
+무럭무럭 자라라</t>
+  </si>
+  <si>
+    <t>자라나라 토마토야
+토마토 용사여 어서 깨어나세요
+마토야 무럭무럭 자라라</t>
+  </si>
+  <si>
+    <t>뿌듯하구먼
+이것은 나의 피땀눈물
+밥안먹어도 배부르네</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:HARVEST</t>
+  </si>
+  <si>
+    <t>수확하기. 수확물은 인벤토리에 자동으로 들어가요.</t>
+  </si>
+  <si>
+    <t>SM_Env_GrassPath_Corner_01 (3)
+SM_Env_GrassPath_Straight_01 (16)
+SM_Env_GrassPath_Straight_01 (39)
+SM_Env_GrassPath_Straight_01 (47)
+SM_Env_GrassPath_Straight_01 (1)</t>
+  </si>
+  <si>
+    <t>SM_Env_Grass_01 (15)
+SM_Env_Grass_01 (17)</t>
+  </si>
+  <si>
+    <t>f-9</t>
+  </si>
+  <si>
+    <t>밭일 하기</t>
+  </si>
+  <si>
+    <t>워메 힘든거
+허리가 끊어질거 같다
+헉헉.. 땡볕에 죽을 거 같다</t>
+  </si>
+  <si>
+    <t>FARMING:farm-small:CARE</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Tillage</t>
+  </si>
+  <si>
+    <t>양배추를 심는다. 다 자라는데 15분이 걸립니다.</t>
+  </si>
+  <si>
+    <t>토마토를 심는다. 다 자라는데 15분이 걸립니다.</t>
+  </si>
+  <si>
+    <t>농작물을 가꾼다. 농작물이 자라는 시간을 단축할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>NPCSTOCK</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>거래소직원</t>
+  </si>
+  <si>
+    <t>-6.6,0,4.5</t>
+  </si>
+  <si>
+    <t>0,15,0</t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>type
+SATISFACTION = 0,
+RESOURCE = 1,
+CURRENCY = 2</t>
+  </si>
+  <si>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>속도</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>정신력</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>지식</t>
+  </si>
+  <si>
+    <t>Ability1</t>
+  </si>
+  <si>
+    <t>요리열정</t>
+  </si>
+  <si>
+    <t>Ability2</t>
+  </si>
+  <si>
+    <t>제작열정</t>
+  </si>
+  <si>
+    <t>Ability3</t>
+  </si>
+  <si>
+    <t>농사열정</t>
+  </si>
+  <si>
+    <t>요리재료</t>
+  </si>
+  <si>
+    <t>Sight</t>
+  </si>
+  <si>
+    <t>시야</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>리더십</t>
+  </si>
+  <si>
+    <t>Friendship</t>
+  </si>
+  <si>
+    <t>친근감</t>
+  </si>
+  <si>
+    <t>Gold,0,0,148
 Speed,1,4,2
 HP,20,50,8
 MP,20,50,15
@@ -2193,85 +2305,6 @@
 Sight,20,50,0
 Leadership,0,50,0
 Friendship,0,50,0</t>
-  </si>
-  <si>
-    <t>자라나라 양배추야
-양배추 용사여 어서 깨어나세요
-무럭무럭 자라라</t>
-  </si>
-  <si>
-    <t>자라나라 토마토야
-토마토 용사여 어서 깨어나세요
-마토야 무럭무럭 자라라</t>
-  </si>
-  <si>
-    <t>뿌듯하구먼
-이것은 나의 피땀눈물
-밥안먹어도 배부르네</t>
-  </si>
-  <si>
-    <t>FARMING:farm-small:HARVEST</t>
-  </si>
-  <si>
-    <t>수확하기. 수확물은 인벤토리에 자동으로 들어가요.</t>
-  </si>
-  <si>
-    <t>SM_Env_GrassPath_Corner_01 (3)
-SM_Env_GrassPath_Straight_01 (16)
-SM_Env_GrassPath_Straight_01 (39)
-SM_Env_GrassPath_Straight_01 (47)
-SM_Env_GrassPath_Straight_01 (1)</t>
-  </si>
-  <si>
-    <t>SM_Env_Grass_01 (15)
-SM_Env_Grass_01 (17)</t>
-  </si>
-  <si>
-    <t>f-9</t>
-  </si>
-  <si>
-    <t>밭일 하기</t>
-  </si>
-  <si>
-    <t>워메 힘든거
-허리가 끊어질거 같다
-헉헉.. 땡볕에 죽을 거 같다</t>
-  </si>
-  <si>
-    <t>FARMING:farm-small:CARE</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Harvest</t>
-  </si>
-  <si>
-    <t>Tillage</t>
-  </si>
-  <si>
-    <t>양배추를 심는다. 다 자라는데 15분이 걸립니다.</t>
-  </si>
-  <si>
-    <t>토마토를 심는다. 다 자라는데 15분이 걸립니다.</t>
-  </si>
-  <si>
-    <t>농작물을 가꾼다. 농작물이 자라는 시간을 단축할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>NPCSTOCK</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>거래소직원</t>
-  </si>
-  <si>
-    <t>-6.6,0,4.5</t>
-  </si>
-  <si>
-    <t>0,15,0</t>
   </si>
 </sst>
 </file>
@@ -2846,1008 +2879,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="0" i="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>demand curve</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$V$2:$V$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$W$2:$W$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0AE9-A54E-857E-AED173DC1112}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2140522096"/>
-        <c:axId val="970109215"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2140522096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="970109215"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="970109215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2140522096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF718A4-DEB4-7D2F-0324-33DC6E1F6624}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4207,7 +3238,7 @@
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -4219,16 +3250,16 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
@@ -4240,13 +3271,13 @@
         <v>105</v>
       </c>
       <c r="V1" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="W1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="X1" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,7 +3328,7 @@
     </row>
     <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4309,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
         <v>86</v>
@@ -4335,7 +3366,7 @@
         <v>104</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="V3" t="s">
         <v>74</v>
@@ -4343,22 +3374,22 @@
     </row>
     <row r="4" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -4370,20 +3401,20 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="V4" t="s">
         <v>74</v>
@@ -4403,10 +3434,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -4427,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="V5" t="s">
         <v>74</v>
@@ -4453,13 +3484,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4471,19 +3502,19 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="V6" t="s">
         <v>74</v>
@@ -4491,7 +3522,7 @@
     </row>
     <row r="7" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4503,13 +3534,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="H7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4521,19 +3552,19 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="V7" t="s">
         <v>74</v>
@@ -4553,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -4577,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="R8" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="V8" t="s">
         <v>74</v>
@@ -4594,7 +3625,7 @@
     </row>
     <row r="9" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4606,13 +3637,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4624,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -4638,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="V9" t="s">
         <v>74</v>
@@ -4658,10 +3689,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -4682,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
@@ -4708,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4732,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
@@ -4758,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -4782,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S12" s="4">
         <v>1</v>
@@ -4808,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H13" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4832,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
@@ -4862,13 +3893,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H14" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4886,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
@@ -4916,13 +3947,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H15" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4940,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4">
@@ -4967,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -5017,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5068,10 +4099,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -5086,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -5101,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="V18" t="s">
         <v>74</v>
@@ -5121,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -5148,10 +4179,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="V19" t="s">
         <v>74</v>
@@ -5159,10 +4190,10 @@
     </row>
     <row r="20" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5174,10 +4205,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -5192,22 +4223,22 @@
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="Q20" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="V20" t="s">
         <v>74</v>
@@ -5215,7 +4246,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5227,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -5242,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5251,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="V21" t="s">
         <v>74</v>
@@ -5259,22 +4290,22 @@
     </row>
     <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -5289,22 +4320,22 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="O22" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="V22" t="s">
         <v>74</v>
@@ -5312,7 +4343,7 @@
     </row>
     <row r="23" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5324,10 +4355,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -5351,10 +4382,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="V23" t="s">
         <v>74</v>
@@ -5362,28 +4393,28 @@
     </row>
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B24" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5395,19 +4426,19 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="V24" t="s">
         <v>74</v>
@@ -5415,22 +4446,22 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5442,7 +4473,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5456,19 +4487,19 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5486,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="V26" t="s">
         <v>74</v>
@@ -5494,28 +4525,28 @@
     </row>
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H27" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5527,19 +4558,19 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="V27" t="s">
         <v>74</v>
@@ -5547,22 +4578,22 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B28" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5574,7 +4605,7 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5588,25 +4619,25 @@
     </row>
     <row r="29" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G29" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="H29" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5618,25 +4649,25 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="O29" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="S29" s="4">
         <v>1</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="U29" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="V29" t="s">
         <v>74</v>
@@ -5644,7 +4675,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5656,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G30" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -5677,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="S30" s="4">
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="V30" t="s">
         <v>74</v>
@@ -5691,7 +4722,7 @@
     </row>
     <row r="31" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5703,10 +4734,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="G31" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5727,16 +4758,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S31" s="4">
         <v>1</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="V31" t="s">
         <v>74</v>
@@ -5744,28 +4775,28 @@
     </row>
     <row r="32" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B32" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="G32" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="H32" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5777,28 +4808,28 @@
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="O32" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="P32" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="S32" s="4">
         <v>1</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="U32" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="V32" t="s">
         <v>74</v>
@@ -5806,10 +4837,10 @@
     </row>
     <row r="33" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B33" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5821,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G33" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -5842,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="S33" s="4">
         <v>1</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="V33" t="s">
         <v>74</v>
@@ -5859,7 +4890,7 @@
     </row>
     <row r="34" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -5871,10 +4902,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="H34" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -5886,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5895,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="V34" t="s">
         <v>74</v>
@@ -5903,7 +4934,7 @@
     </row>
     <row r="35" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5915,10 +4946,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="G35" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -5933,27 +4964,27 @@
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="S35" s="4">
         <v>1</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="V35" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5965,13 +4996,13 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="G36" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="H36" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -5983,27 +5014,27 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="S36" s="4">
         <v>200</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="V36" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -6015,10 +5046,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="G37" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="H37" t="s">
         <v>86</v>
@@ -6033,27 +5064,27 @@
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="S37" s="4">
         <v>202</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="V37" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -6065,13 +5096,13 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G38" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H38" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -6083,27 +5114,27 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="S38" s="4">
         <v>1</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="V38" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -6115,10 +5146,10 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="G39" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -6133,27 +5164,27 @@
         <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="S39" s="4">
         <v>201</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="V39" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -6165,13 +5196,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G40" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="H40" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -6183,30 +5214,30 @@
         <v>5</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="S40" s="4">
         <v>1</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="V40" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="X40" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6218,13 +5249,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="G41" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H41" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -6236,33 +5267,33 @@
         <v>5</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="S41" s="4">
         <v>1</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="V41" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="W41" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="X41" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6274,13 +5305,13 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G42" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="H42" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -6292,33 +5323,33 @@
         <v>5</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="S42" s="4">
         <v>1</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="V42" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="W42" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="X42" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -6330,13 +5361,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="G43" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="H43" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -6348,30 +5379,30 @@
         <v>5</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>633</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>646</v>
-      </c>
-      <c r="S43" s="4">
-        <v>1</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="V43" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="X43" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6383,13 +5414,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
+        <v>657</v>
+      </c>
+      <c r="G44" t="s">
+        <v>662</v>
+      </c>
+      <c r="H44" t="s">
         <v>670</v>
-      </c>
-      <c r="G44" t="s">
-        <v>676</v>
-      </c>
-      <c r="H44" t="s">
-        <v>684</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -6401,25 +5432,25 @@
         <v>5</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="S44" s="4">
         <v>1</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="V44" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="X44" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -6432,8 +5463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6492,13 +5523,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="P1" t="s">
         <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -6568,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>51</v>
@@ -6609,13 +5640,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>56</v>
@@ -6662,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>61</v>
@@ -6674,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -6700,7 +5731,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -6823,7 +5854,7 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -6838,16 +5869,16 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>91</v>
@@ -6859,7 +5890,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -6870,7 +5901,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -6885,16 +5916,16 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -6903,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -6988,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -7035,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -7079,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -7123,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -7167,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -7211,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -7255,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -7299,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -7343,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -7354,13 +6385,13 @@
     </row>
     <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -7369,7 +6400,7 @@
         <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -7378,7 +6409,7 @@
         <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>91</v>
@@ -7387,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -7395,13 +6426,13 @@
     </row>
     <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -7410,16 +6441,16 @@
         <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>91</v>
@@ -7428,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -7436,13 +6467,13 @@
     </row>
     <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -7451,16 +6482,16 @@
         <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>91</v>
@@ -7469,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -7477,13 +6508,13 @@
     </row>
     <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -7492,16 +6523,16 @@
         <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>91</v>
@@ -7510,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -7518,13 +6549,13 @@
     </row>
     <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -7533,16 +6564,16 @@
         <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>91</v>
@@ -7551,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q25">
         <v>15</v>
@@ -7559,13 +6590,13 @@
     </row>
     <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -7574,16 +6605,16 @@
         <v>201</v>
       </c>
       <c r="F26" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>91</v>
@@ -7592,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -7600,13 +6631,13 @@
     </row>
     <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -7615,25 +6646,25 @@
         <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q27">
         <v>30</v>
@@ -7662,39 +6693,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -7702,19 +6733,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -7722,19 +6753,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -7742,19 +6773,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -7762,19 +6793,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -7782,19 +6813,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -7802,19 +6833,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7822,19 +6853,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7842,19 +6873,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -7862,19 +6893,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -7913,16 +6944,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -7931,48 +6962,48 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="R1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -7990,33 +7021,33 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -8034,33 +7065,33 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -8078,33 +7109,33 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -8122,33 +7153,33 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -8166,33 +7197,33 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -8210,33 +7241,33 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -8254,33 +7285,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -8298,33 +7329,33 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -8342,33 +7373,33 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -8386,33 +7417,33 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -8453,10 +7484,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -8497,10 +7528,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -8541,10 +7572,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -8585,10 +7616,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -8629,10 +7660,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -8673,10 +7704,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -8717,10 +7748,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -8761,10 +7792,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -8805,10 +7836,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -8849,13 +7880,13 @@
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C22" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -8873,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -8896,13 +7927,13 @@
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -8920,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -8943,13 +7974,13 @@
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8967,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -8990,19 +8021,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B25" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C25" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -9011,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -9029,13 +8060,13 @@
     </row>
     <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -9076,13 +8107,13 @@
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B27" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C27" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -9123,13 +8154,13 @@
     </row>
     <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="B28" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C28" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -9170,13 +8201,13 @@
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B29" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C29" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -9194,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
@@ -9217,13 +8248,13 @@
     </row>
     <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B30" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C30" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -9241,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L30" s="7">
         <v>0</v>
@@ -9264,13 +8295,13 @@
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -9311,13 +8342,13 @@
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C32" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9358,13 +8389,13 @@
     </row>
     <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -9405,13 +8436,13 @@
     </row>
     <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -9452,13 +8483,13 @@
     </row>
     <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9499,13 +8530,13 @@
     </row>
     <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -9546,19 +8577,19 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B37" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C37" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -9582,13 +8613,13 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -9615,13 +8646,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -9648,13 +8679,13 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9681,13 +8712,13 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C41" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -9714,13 +8745,13 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -9747,13 +8778,13 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -9780,13 +8811,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C44" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -9813,13 +8844,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9846,13 +8877,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9879,13 +8910,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -9912,13 +8943,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -9945,13 +8976,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C49" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -9978,13 +9009,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C50" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -10011,13 +9042,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C51" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -10044,13 +9075,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C52" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -10077,13 +9108,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -10110,13 +9141,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -10143,13 +9174,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -10176,13 +9207,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -10209,13 +9240,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C57" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -10242,13 +9273,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -10275,13 +9306,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -10329,19 +9360,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10352,13 +9383,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10369,13 +9400,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10386,13 +9417,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10403,13 +9434,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10420,13 +9451,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10437,13 +9468,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10454,13 +9485,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10471,13 +9502,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10488,13 +9519,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10505,13 +9536,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -10588,48 +9619,48 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -10641,27 +9672,27 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="J2" t="s">
         <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -10673,27 +9704,27 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J3" t="s">
         <v>74</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -10705,13 +9736,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="J4" t="s">
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -10721,316 +9752,278 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
-  <dimension ref="K1:Z36"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="L1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>141</v>
-      </c>
-      <c r="W1" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K2" t="s">
+    <row r="1" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>6</v>
-      </c>
-      <c r="N2">
-        <v>60</v>
-      </c>
-      <c r="O2">
-        <f>(M2-L2) / (N2-L2)</f>
-        <v>-0.35</v>
-      </c>
-      <c r="P2">
-        <f>IF(O2 &lt; 0, O2*2, O2)</f>
-        <v>-0.7</v>
-      </c>
-      <c r="Q2">
-        <f>POWER(P2-O5,2)</f>
-        <v>4.9382716049382858E-4</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <f>Y2*V2+Z2</f>
-        <v>35</v>
-      </c>
-      <c r="Y2">
-        <v>-2</v>
-      </c>
-      <c r="Z2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K3" t="s">
+      <c r="B4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>50</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3" si="0">(M3-L3) / (N3-L3)</f>
-        <v>-0.4</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P4" si="1">IF(O3 &lt; 0, O3*2, O3)</f>
-        <v>-0.8</v>
-      </c>
-      <c r="Q3">
-        <f>POWER(P3-O5,2)</f>
-        <v>1.49382716049383E-2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <f>Y2*V3+Z2</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>12</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
-        <f>((M4-L4) / (N4-L4))</f>
-        <v>-0.26666666666666666</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="1"/>
-        <v>-0.53333333333333333</v>
-      </c>
-      <c r="Q4">
-        <f>POWER(P4-O5,2)</f>
-        <v>2.0864197530864177E-2</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <f>Y2*V4+Z2</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="N5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5">
-        <f>(P2+P3+P4) / 3</f>
-        <v>-0.6777777777777777</v>
-      </c>
-      <c r="P5" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q5">
-        <f>SQRT((Q2+Q3+Q4) /3)</f>
-        <v>0.10999438818457408</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <f>Y2*V5+Z2</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="V6">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <f>Y2*V6+Z2</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="N7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O7">
-        <f>O5/POWER(Q5,2)</f>
-        <v>-56.02040816326528</v>
-      </c>
-      <c r="V7">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <f>Y2*V7+Z2</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="Q8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R8" t="s">
-        <v>288</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <f>Y2*V8+Z2</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="P9" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q9">
-        <v>-0.73299999999999998</v>
-      </c>
-      <c r="V9">
-        <v>8</v>
-      </c>
-      <c r="W9">
-        <f>Y2*V9+Z2</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="P10" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q10">
-        <v>-0.71099999999999997</v>
-      </c>
-      <c r="V10">
-        <v>9</v>
-      </c>
-      <c r="W10">
-        <f>Y2*V10+Z2</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="P11" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q11">
-        <v>-0.67700000000000005</v>
-      </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
-      <c r="W11">
-        <f>Y2*V11+Z2</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="V12">
-        <v>11</v>
-      </c>
-      <c r="W12">
-        <f>Y2*V12+Z2</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="V13">
-        <v>12</v>
-      </c>
-      <c r="W13">
-        <f>Y2*V13+Z2</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="V14">
-        <v>13</v>
-      </c>
-      <c r="W14">
-        <f>Y2*V14+Z2</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="V15">
-        <v>14</v>
-      </c>
-      <c r="W15">
-        <f>Y2*V15+Z2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="V16">
-        <v>15</v>
-      </c>
-      <c r="W16">
-        <f>Y2*V16+Z2</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="22:23" x14ac:dyDescent="0.2">
-      <c r="V17">
-        <v>16</v>
-      </c>
-      <c r="W17">
-        <f>Y2*V17+Z2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T36">
-        <f>-2*58+512</f>
-        <v>396</v>
+      <c r="B5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" t="s">
+        <v>644</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11051,534 +10044,534 @@
   <sheetData>
     <row r="2" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="J5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="J10" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J11" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J12" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" t="s">
         <v>313</v>
       </c>
-      <c r="J15" t="s">
-        <v>323</v>
-      </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J16" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M17" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="N17" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
+        <v>306</v>
+      </c>
+      <c r="J18" t="s">
         <v>316</v>
       </c>
-      <c r="J18" t="s">
-        <v>326</v>
-      </c>
       <c r="K18" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M18" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="N18" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J19" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M19" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="N19" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J20" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="J21" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G41" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G42" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G43" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G46" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CA37E-9698-D140-B0BF-E940DA34EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A4162-6ED4-F743-BB62-8755410189B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A4162-6ED4-F743-BB62-8755410189B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BC53A-2905-6B45-8CB4-BB36EAD4BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="705">
   <si>
     <t>ID</t>
   </si>
@@ -2291,7 +2291,10 @@
     <t>친근감</t>
   </si>
   <si>
-    <t>Gold,0,0,148
+    <t>stock market default price</t>
+  </si>
+  <si>
+    <t>Gold,0,0,3.5
 Speed,1,4,2
 HP,20,50,8
 MP,20,50,15
@@ -2299,7 +2302,7 @@
 Ability1,20,50,0
 Ability2,20,50,0
 Ability3,20,50,0
-Resource1,20,50,40
+Resource1,20,50,5
 Resource2,20,50,40
 Resource3,20,50,40
 Sight,20,50,0
@@ -6019,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>655</v>
@@ -9752,10 +9755,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9763,11 +9766,12 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -9783,8 +9787,11 @@
       <c r="E1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9801,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>684</v>
       </c>
@@ -9818,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9835,7 +9842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9852,7 +9859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>688</v>
       </c>
@@ -9869,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>690</v>
       </c>
@@ -9886,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>692</v>
       </c>
@@ -9903,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>694</v>
       </c>
@@ -9920,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>697</v>
       </c>
@@ -9937,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>699</v>
       </c>
@@ -9954,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>701</v>
       </c>
@@ -9971,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>385</v>
       </c>
@@ -9987,8 +9994,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>390</v>
       </c>
@@ -10004,8 +10014,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>391</v>
       </c>
@@ -10020,6 +10033,9 @@
       </c>
       <c r="E15">
         <v>0</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BC53A-2905-6B45-8CB4-BB36EAD4BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C65A13-E300-CD49-B281-8CB74D111945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2294,7 +2294,7 @@
     <t>stock market default price</t>
   </si>
   <si>
-    <t>Gold,0,0,3.5
+    <t>Gold,0,0,53.5
 Speed,1,4,2
 HP,20,50,8
 MP,20,50,15

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C65A13-E300-CD49-B281-8CB74D111945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8ED750-2FA5-5F4C-9F0A-7DE31B0ACDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="706">
   <si>
     <t>ID</t>
   </si>
@@ -2308,6 +2308,9 @@
 Sight,20,50,0
 Leadership,0,50,0
 Friendship,0,50,0</t>
+  </si>
+  <si>
+    <t>주식</t>
   </si>
 </sst>
 </file>
@@ -5466,7 +5469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -10047,8 +10050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C2200-8081-644A-AB13-9EC51CCA238B}">
   <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10178,7 +10181,7 @@
         <v>312</v>
       </c>
       <c r="M16" t="s">
-        <v>136</v>
+        <v>580</v>
       </c>
       <c r="N16" t="s">
         <v>576</v>
@@ -10243,6 +10246,12 @@
       </c>
       <c r="J21" t="s">
         <v>316</v>
+      </c>
+      <c r="M21" t="s">
+        <v>580</v>
+      </c>
+      <c r="N21" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8ED750-2FA5-5F4C-9F0A-7DE31B0ACDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761E3332-D9FF-584E-AFC0-561918839C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="708">
   <si>
     <t>ID</t>
   </si>
@@ -2311,6 +2311,12 @@
   </si>
   <si>
     <t>주식</t>
+  </si>
+  <si>
+    <t>요리의 재료로 사용</t>
+  </si>
+  <si>
+    <t>자원 시장에서 거래를 할 수도 요리의 재료로 사용할 수도 있다</t>
   </si>
 </sst>
 </file>
@@ -9758,10 +9764,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9770,11 +9776,12 @@
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -9793,8 +9800,11 @@
       <c r="F1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9811,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>684</v>
       </c>
@@ -9828,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9845,7 +9855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9862,7 +9872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>688</v>
       </c>
@@ -9879,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>690</v>
       </c>
@@ -9896,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>692</v>
       </c>
@@ -9913,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>694</v>
       </c>
@@ -9930,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>697</v>
       </c>
@@ -9947,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>699</v>
       </c>
@@ -9964,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>701</v>
       </c>
@@ -9981,7 +9991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>385</v>
       </c>
@@ -10000,8 +10010,11 @@
       <c r="F13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>390</v>
       </c>
@@ -10020,8 +10033,11 @@
       <c r="F14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>391</v>
       </c>
@@ -10039,6 +10055,9 @@
       </c>
       <c r="F15">
         <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -10050,7 +10069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C2200-8081-644A-AB13-9EC51CCA238B}">
   <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761E3332-D9FF-584E-AFC0-561918839C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD1F043-1A4C-8E45-8564-2F071B196382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
     <sheet name="actors" sheetId="2" r:id="rId2"/>
     <sheet name="quest" sheetId="4" r:id="rId3"/>
     <sheet name="item" sheetId="5" r:id="rId4"/>
-    <sheet name="level" sheetId="6" r:id="rId5"/>
-    <sheet name="vehicle" sheetId="8" r:id="rId6"/>
-    <sheet name="satisfaction" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
+    <sheet name="l10n" sheetId="9" r:id="rId5"/>
+    <sheet name="level" sheetId="6" r:id="rId6"/>
+    <sheet name="vehicle" sheetId="8" r:id="rId7"/>
+    <sheet name="satisfaction" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="729">
   <si>
     <t>ID</t>
   </si>
@@ -2317,6 +2318,69 @@
   </si>
   <si>
     <t>자원 시장에서 거래를 할 수도 요리의 재료로 사용할 수도 있다</t>
+  </si>
+  <si>
+    <t>오예! 레벨업!</t>
+  </si>
+  <si>
+    <t>세금 징수</t>
+  </si>
+  <si>
+    <t>이동 거리가 너무 가까워 탑승에 실패 했습니다</t>
+  </si>
+  <si>
+    <t>거래소에 등록한 자원이 판매 되었습니다</t>
+  </si>
+  <si>
+    <t>거래소에 등록한 자원이 구매 되었습니다</t>
+  </si>
+  <si>
+    <t>STOCK_BUY</t>
+  </si>
+  <si>
+    <t>자원</t>
+  </si>
+  <si>
+    <t>UI_INVEN_TAP_RESOURCE</t>
+  </si>
+  <si>
+    <t>장착템</t>
+  </si>
+  <si>
+    <t>버리기</t>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>LEVEL_UP</t>
+  </si>
+  <si>
+    <t>TAX_COLLECTION</t>
+  </si>
+  <si>
+    <t>GET_IN_VEHICLE_FAILURE</t>
+  </si>
+  <si>
+    <t>STOCK_SELL</t>
+  </si>
+  <si>
+    <t>UI_INVEN_TAP_ITEM</t>
+  </si>
+  <si>
+    <t>UI_INVEN_TAP_INSTALLATION</t>
+  </si>
+  <si>
+    <t>UI_INVEN_USE</t>
+  </si>
+  <si>
+    <t>UI_INVEN_ABANDON</t>
+  </si>
+  <si>
+    <t>UI_INVEN_BUY</t>
+  </si>
+  <si>
+    <t>구매</t>
   </si>
 </sst>
 </file>
@@ -9356,6 +9420,113 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F8AB1-4340-124F-87D9-2427FE940228}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>724</v>
+      </c>
+      <c r="B9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B12" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7873D7B5-42F6-EA4D-BE3A-EF8367D067FD}">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -9611,7 +9782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B6BC8-09F3-3245-B8D8-73897C533FE3}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -9762,11 +9933,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511382C-D11B-5A44-B5FF-0A23CC8CA529}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -10065,7 +10236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C2200-8081-644A-AB13-9EC51CCA238B}">
   <dimension ref="A2:N46"/>
   <sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD1F043-1A4C-8E45-8564-2F071B196382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A704CB4-2ECB-8947-A5A1-406B327AB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="736">
   <si>
     <t>ID</t>
   </si>
@@ -2381,6 +2381,27 @@
   </si>
   <si>
     <t>구매</t>
+  </si>
+  <si>
+    <t>purchasable</t>
+  </si>
+  <si>
+    <t>unit price</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>붱이 상점 방문하기</t>
+  </si>
+  <si>
+    <t>붱이 상점에 쇼핑하러 가기</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_Straight_353</t>
+  </si>
+  <si>
+    <t>돈쓰러 왔어욤~</t>
   </si>
 </sst>
 </file>
@@ -3252,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="L23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5008,9 +5029,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5022,10 +5043,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>593</v>
+        <v>732</v>
       </c>
       <c r="G35" t="s">
-        <v>594</v>
+        <v>733</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -5039,28 +5060,28 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>663</v>
+      <c r="L35" t="s">
+        <v>734</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="O35" t="s">
-        <v>409</v>
+      <c r="R35" t="s">
+        <v>731</v>
       </c>
       <c r="S35" s="4">
         <v>1</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>596</v>
+        <v>735</v>
       </c>
       <c r="V35" t="s">
-        <v>597</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5072,16 +5093,16 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="G36" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="H36" t="s">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>-1</v>
@@ -5090,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5099,10 +5120,10 @@
         <v>409</v>
       </c>
       <c r="S36" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="V36" t="s">
         <v>597</v>
@@ -5110,7 +5131,7 @@
     </row>
     <row r="37" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5128,7 +5149,7 @@
         <v>609</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>559</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -5149,7 +5170,7 @@
         <v>409</v>
       </c>
       <c r="S37" s="4">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>610</v>
@@ -5158,9 +5179,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5172,13 +5193,13 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G38" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H38" t="s">
-        <v>559</v>
+        <v>86</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -5199,18 +5220,18 @@
         <v>409</v>
       </c>
       <c r="S38" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="V38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5222,16 +5243,16 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G39" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>559</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>-1</v>
@@ -5240,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5249,18 +5270,18 @@
         <v>409</v>
       </c>
       <c r="S39" s="4">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="V39" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5272,48 +5293,45 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="G40" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H40" t="s">
-        <v>671</v>
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>-1</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>654</v>
+        <v>595</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>633</v>
+        <v>409</v>
       </c>
       <c r="S40" s="4">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="V40" t="s">
         <v>597</v>
       </c>
-      <c r="X40" t="s">
-        <v>649</v>
-      </c>
     </row>
     <row r="41" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5325,16 +5343,16 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G41" t="s">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="H41" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>-1</v>
@@ -5355,21 +5373,18 @@
         <v>1</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="V41" t="s">
         <v>597</v>
       </c>
-      <c r="W41" t="s">
-        <v>647</v>
-      </c>
       <c r="X41" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5381,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="G42" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H42" t="s">
         <v>669</v>
@@ -5411,21 +5426,21 @@
         <v>1</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="V42" t="s">
         <v>597</v>
       </c>
       <c r="W42" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="X42" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5437,16 +5452,16 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G43" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H43" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>-1</v>
@@ -5467,18 +5482,21 @@
         <v>1</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="V43" t="s">
         <v>597</v>
       </c>
+      <c r="W43" t="s">
+        <v>652</v>
+      </c>
       <c r="X43" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5490,16 +5508,16 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="G44" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="H44" t="s">
-        <v>670</v>
+        <v>627</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>-1</v>
@@ -5520,12 +5538,65 @@
         <v>1</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="V44" t="s">
         <v>597</v>
       </c>
       <c r="X44" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>665</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>657</v>
+      </c>
+      <c r="G45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H45" t="s">
+        <v>670</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>-1</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>633</v>
+      </c>
+      <c r="S45" s="4">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="V45" t="s">
+        <v>597</v>
+      </c>
+      <c r="X45" t="s">
         <v>661</v>
       </c>
     </row>
@@ -6995,10 +7066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0107BA8-AE75-0948-8F88-1732D1E93B8B}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7018,7 +7089,7 @@
     <col min="15" max="17" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -7073,8 +7144,14 @@
       <c r="R1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -7117,8 +7194,14 @@
       <c r="Q2" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>248</v>
       </c>
@@ -7161,8 +7244,14 @@
       <c r="Q3" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -7205,8 +7294,14 @@
       <c r="Q4" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -7249,8 +7344,14 @@
       <c r="Q5" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -7293,8 +7394,14 @@
       <c r="Q6" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -7337,8 +7444,14 @@
       <c r="Q7" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -7381,8 +7494,14 @@
       <c r="Q8" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -7425,8 +7544,14 @@
       <c r="Q9" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -7469,8 +7594,14 @@
       <c r="Q10" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -7513,8 +7644,14 @@
       <c r="Q11" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -7557,8 +7694,14 @@
       <c r="Q12" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -7601,8 +7744,14 @@
       <c r="Q13" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -7645,8 +7794,14 @@
       <c r="Q14" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -7689,8 +7844,14 @@
       <c r="Q15" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>184</v>
       </c>
@@ -7733,8 +7894,14 @@
       <c r="Q16" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -7777,8 +7944,14 @@
       <c r="Q17" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -7821,8 +7994,14 @@
       <c r="Q18" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -7865,8 +8044,14 @@
       <c r="Q19" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -7909,8 +8094,14 @@
       <c r="Q20" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -7953,8 +8144,14 @@
       <c r="Q21" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -8000,8 +8197,14 @@
       <c r="Q22" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>323</v>
       </c>
@@ -8047,8 +8250,14 @@
       <c r="Q23" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -8094,8 +8303,14 @@
       <c r="Q24" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>420</v>
       </c>
@@ -8133,8 +8348,14 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -8180,8 +8401,14 @@
       <c r="Q26" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>637</v>
       </c>
@@ -8227,8 +8454,14 @@
       <c r="Q27" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>640</v>
       </c>
@@ -8274,8 +8507,14 @@
       <c r="Q28" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>643</v>
       </c>
@@ -8321,8 +8560,14 @@
       <c r="Q29" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S29" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>645</v>
       </c>
@@ -8368,8 +8613,14 @@
       <c r="Q30" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>326</v>
       </c>
@@ -8415,8 +8666,14 @@
       <c r="Q31" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S31" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>327</v>
       </c>
@@ -8462,8 +8719,14 @@
       <c r="Q32" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S32" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>328</v>
       </c>
@@ -8509,8 +8772,14 @@
       <c r="Q33" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S33" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>329</v>
       </c>
@@ -8556,8 +8825,14 @@
       <c r="Q34" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S34" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>330</v>
       </c>
@@ -8603,8 +8878,14 @@
       <c r="Q35" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -8650,8 +8931,14 @@
       <c r="Q36" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S36" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>629</v>
       </c>
@@ -8686,8 +8973,14 @@
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -8719,8 +9012,14 @@
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>333</v>
       </c>
@@ -8752,8 +9051,14 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>334</v>
       </c>
@@ -8785,8 +9090,14 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>335</v>
       </c>
@@ -8818,8 +9129,14 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>336</v>
       </c>
@@ -8851,8 +9168,14 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>337</v>
       </c>
@@ -8884,8 +9207,14 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>338</v>
       </c>
@@ -8917,8 +9246,14 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>339</v>
       </c>
@@ -8950,8 +9285,14 @@
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S45" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>340</v>
       </c>
@@ -8983,8 +9324,14 @@
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>341</v>
       </c>
@@ -9016,8 +9363,14 @@
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>342</v>
       </c>
@@ -9049,8 +9402,14 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>343</v>
       </c>
@@ -9082,8 +9441,14 @@
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -9115,8 +9480,14 @@
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S50" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -9148,8 +9519,14 @@
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>346</v>
       </c>
@@ -9181,8 +9558,14 @@
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S52" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>347</v>
       </c>
@@ -9214,8 +9597,14 @@
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>348</v>
       </c>
@@ -9247,8 +9636,14 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>349</v>
       </c>
@@ -9280,8 +9675,14 @@
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S55" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>350</v>
       </c>
@@ -9313,8 +9714,14 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -9346,8 +9753,14 @@
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S57" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>352</v>
       </c>
@@ -9379,8 +9792,14 @@
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S58" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>353</v>
       </c>
@@ -9412,6 +9831,12 @@
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
+      <c r="S59" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -9423,7 +9848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F8AB1-4340-124F-87D9-2427FE940228}">
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A704CB4-2ECB-8947-A5A1-406B327AB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2A88D-643D-EB4C-A458-2A13282F63DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="769">
   <si>
     <t>ID</t>
   </si>
@@ -2403,12 +2403,117 @@
   <si>
     <t>돈쓰러 왔어욤~</t>
   </si>
+  <si>
+    <t>stock1</t>
+  </si>
+  <si>
+    <t>탕비실가기</t>
+  </si>
+  <si>
+    <t>HP:1</t>
+  </si>
+  <si>
+    <t>stock1-1</t>
+  </si>
+  <si>
+    <t>고래한테 인사하기</t>
+  </si>
+  <si>
+    <t>고래야 따상하게 해줭</t>
+  </si>
+  <si>
+    <t>-5,0.13,7
+-7.5,1,9</t>
+  </si>
+  <si>
+    <t>8,0.13,7
+36,7,44</t>
+  </si>
+  <si>
+    <t>stock1-2</t>
+  </si>
+  <si>
+    <t>일하는척 하기</t>
+  </si>
+  <si>
+    <t>퇴근하고 시푸당</t>
+  </si>
+  <si>
+    <t>6.27,0.15,1.6
+0,1,0</t>
+  </si>
+  <si>
+    <t>stock1-3</t>
+  </si>
+  <si>
+    <t>창밖보기</t>
+  </si>
+  <si>
+    <t>-8,0.15,-4
+-10,1,-4</t>
+  </si>
+  <si>
+    <t>멍~</t>
+  </si>
+  <si>
+    <t>커피나 한잔 할까</t>
+  </si>
+  <si>
+    <t>stock1-0</t>
+  </si>
+  <si>
+    <t>커피 원샷때리기</t>
+  </si>
+  <si>
+    <t>Drinking</t>
+  </si>
+  <si>
+    <t>커피는원샷이지
+원샷! 아뜨뜨거
+꿀꺽꿀꺽</t>
+  </si>
+  <si>
+    <t>센트럴파크 주말농장 가기</t>
+  </si>
+  <si>
+    <t>농사를 지을 수 있는 주말 농장</t>
+  </si>
+  <si>
+    <t>SM_Env_Sidewalk_Straight_566</t>
+  </si>
+  <si>
+    <t>농사 지으러 가볼까나</t>
+  </si>
+  <si>
+    <t>f-0</t>
+  </si>
+  <si>
+    <t>마을로 돌아가기</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>나 돌아갈래</t>
+  </si>
+  <si>
+    <t>자원 시장 가기</t>
+  </si>
+  <si>
+    <t>실시간 자원 거래를 할 수 있는 자원 시장에 간다</t>
+  </si>
+  <si>
+    <t>StockMarket</t>
+  </si>
+  <si>
+    <t>이동!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2552,6 +2657,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2904,7 +3016,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2916,6 +3028,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3273,10 +3397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3290,12 +3415,12 @@
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.83203125" customWidth="1"/>
+    <col min="12" max="12" width="37.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
     <col min="15" max="15" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.83203125" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="4"/>
     <col min="20" max="20" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.83203125" customWidth="1"/>
@@ -3337,7 +3462,7 @@
       <c r="K1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -3405,7 +3530,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1">
         <v>0</v>
       </c>
@@ -3451,7 +3576,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -3497,7 +3622,7 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="9" t="s">
         <v>493</v>
       </c>
       <c r="M4" s="1">
@@ -3548,7 +3673,7 @@
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M5">
@@ -3598,7 +3723,7 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="9" t="s">
         <v>411</v>
       </c>
       <c r="M6">
@@ -3648,7 +3773,7 @@
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="9" t="s">
         <v>413</v>
       </c>
       <c r="M7" s="1">
@@ -3698,7 +3823,7 @@
       <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="9" t="s">
         <v>62</v>
       </c>
       <c r="M8" s="1">
@@ -3751,7 +3876,7 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="9" t="s">
         <v>581</v>
       </c>
       <c r="M9">
@@ -3803,7 +3928,7 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="9" t="s">
         <v>95</v>
       </c>
       <c r="M10">
@@ -3853,7 +3978,7 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="9" t="s">
         <v>96</v>
       </c>
       <c r="M11">
@@ -3903,7 +4028,7 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="9" t="s">
         <v>97</v>
       </c>
       <c r="M12">
@@ -3953,7 +4078,7 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="9" t="s">
         <v>98</v>
       </c>
       <c r="M13">
@@ -4007,7 +4132,7 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M14">
@@ -4061,7 +4186,7 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="9" t="s">
         <v>100</v>
       </c>
       <c r="M15">
@@ -4118,7 +4243,7 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="9" t="s">
         <v>101</v>
       </c>
       <c r="M16">
@@ -4166,7 +4291,7 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="9" t="s">
         <v>102</v>
       </c>
       <c r="M17">
@@ -4213,7 +4338,7 @@
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>556</v>
       </c>
       <c r="M18">
@@ -4319,7 +4444,7 @@
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="9" t="s">
         <v>423</v>
       </c>
       <c r="M20">
@@ -4369,7 +4494,7 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>430</v>
       </c>
       <c r="M21">
@@ -4416,7 +4541,7 @@
       <c r="K22">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>437</v>
       </c>
       <c r="M22">
@@ -4522,7 +4647,7 @@
       <c r="K24">
         <v>7</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>484</v>
       </c>
       <c r="M24">
@@ -4569,7 +4694,7 @@
       <c r="K25">
         <v>8</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="2" t="s">
         <v>485</v>
       </c>
       <c r="M25">
@@ -4654,7 +4779,7 @@
       <c r="K27">
         <v>7</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>484</v>
       </c>
       <c r="M27">
@@ -4701,7 +4826,7 @@
       <c r="K28">
         <v>8</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="2" t="s">
         <v>486</v>
       </c>
       <c r="M28">
@@ -4745,7 +4870,7 @@
       <c r="K29">
         <v>2</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>487</v>
       </c>
       <c r="M29">
@@ -4848,7 +4973,7 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M31">
@@ -4904,7 +5029,7 @@
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="2" t="s">
         <v>561</v>
       </c>
       <c r="M32">
@@ -5013,7 +5138,7 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="2" t="s">
         <v>575</v>
       </c>
       <c r="M34">
@@ -5060,7 +5185,7 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="2" t="s">
         <v>734</v>
       </c>
       <c r="M35">
@@ -5079,9 +5204,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>592</v>
+        <v>513</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5093,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>593</v>
+        <v>757</v>
       </c>
       <c r="G36" t="s">
-        <v>594</v>
+        <v>758</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -5110,28 +5235,28 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>663</v>
+      <c r="L36" s="2" t="s">
+        <v>759</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="O36" t="s">
-        <v>409</v>
+      <c r="R36" t="s">
+        <v>627</v>
       </c>
       <c r="S36" s="4">
         <v>1</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>596</v>
+        <v>760</v>
       </c>
       <c r="V36" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>607</v>
+        <v>514</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5143,45 +5268,42 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>608</v>
+        <v>765</v>
       </c>
       <c r="G37" t="s">
-        <v>609</v>
+        <v>766</v>
       </c>
       <c r="H37" t="s">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>-1</v>
       </c>
       <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="O37" t="s">
-        <v>409</v>
+      <c r="R37" t="s">
+        <v>767</v>
       </c>
       <c r="S37" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>610</v>
+        <v>768</v>
       </c>
       <c r="V37" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>761</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5193,45 +5315,39 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>608</v>
-      </c>
-      <c r="G38" t="s">
-        <v>609</v>
+        <v>762</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>-1</v>
       </c>
       <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="O38" t="s">
-        <v>409</v>
+      <c r="R38" t="s">
+        <v>763</v>
       </c>
       <c r="S38" s="4">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>610</v>
+        <v>764</v>
       </c>
       <c r="V38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5243,16 +5359,16 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="G39" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="H39" t="s">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>-1</v>
@@ -5260,8 +5376,8 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>664</v>
+      <c r="L39" s="9" t="s">
+        <v>663</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5273,15 +5389,15 @@
         <v>1</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="V39" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5293,16 +5409,16 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G40" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>559</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40">
         <v>-1</v>
@@ -5310,8 +5426,8 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>595</v>
+      <c r="L40" s="9" t="s">
+        <v>664</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5320,18 +5436,18 @@
         <v>409</v>
       </c>
       <c r="S40" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="V40" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5343,48 +5459,45 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="G41" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="H41" t="s">
-        <v>671</v>
+        <v>86</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>-1</v>
       </c>
       <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>654</v>
+        <v>1</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>664</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>633</v>
+        <v>409</v>
       </c>
       <c r="S41" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="V41" t="s">
         <v>597</v>
       </c>
-      <c r="X41" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5396,51 +5509,45 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="G42" t="s">
-        <v>673</v>
+        <v>613</v>
       </c>
       <c r="H42" t="s">
-        <v>669</v>
+        <v>559</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42">
         <v>-1</v>
       </c>
       <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>654</v>
+        <v>1</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>664</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>633</v>
+        <v>409</v>
       </c>
       <c r="S42" s="4">
         <v>1</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>659</v>
+        <v>614</v>
       </c>
       <c r="V42" t="s">
         <v>597</v>
       </c>
-      <c r="W42" t="s">
-        <v>647</v>
-      </c>
-      <c r="X42" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5452,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="G43" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
       <c r="H43" t="s">
-        <v>669</v>
+        <v>16</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -5467,36 +5574,30 @@
         <v>-1</v>
       </c>
       <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>654</v>
+        <v>1</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>595</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>633</v>
+        <v>409</v>
       </c>
       <c r="S43" s="4">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="V43" t="s">
         <v>597</v>
       </c>
-      <c r="W43" t="s">
-        <v>652</v>
-      </c>
-      <c r="X43" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="44" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5508,16 +5609,16 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="G44" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="H44" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>-1</v>
@@ -5525,7 +5626,7 @@
       <c r="K44">
         <v>5</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="9" t="s">
         <v>654</v>
       </c>
       <c r="M44">
@@ -5538,18 +5639,18 @@
         <v>1</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="V44" t="s">
         <v>597</v>
       </c>
       <c r="X44" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5561,16 +5662,16 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="G45" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="H45" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>-1</v>
@@ -5578,7 +5679,7 @@
       <c r="K45">
         <v>5</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="9" t="s">
         <v>654</v>
       </c>
       <c r="M45">
@@ -5591,13 +5692,405 @@
         <v>1</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V45" t="s">
         <v>597</v>
       </c>
+      <c r="W45" t="s">
+        <v>647</v>
+      </c>
       <c r="X45" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>650</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>651</v>
+      </c>
+      <c r="G46" t="s">
+        <v>672</v>
+      </c>
+      <c r="H46" t="s">
+        <v>669</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>-1</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>633</v>
+      </c>
+      <c r="S46" s="4">
+        <v>1</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="V46" t="s">
+        <v>597</v>
+      </c>
+      <c r="W46" t="s">
+        <v>652</v>
+      </c>
+      <c r="X46" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>656</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>666</v>
+      </c>
+      <c r="G47" t="s">
+        <v>674</v>
+      </c>
+      <c r="H47" t="s">
+        <v>627</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>-1</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>633</v>
+      </c>
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V47" t="s">
+        <v>597</v>
+      </c>
+      <c r="X47" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>665</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>657</v>
+      </c>
+      <c r="G48" t="s">
+        <v>662</v>
+      </c>
+      <c r="H48" t="s">
+        <v>670</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>633</v>
+      </c>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="V48" t="s">
+        <v>597</v>
+      </c>
+      <c r="X48" t="s">
         <v>661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I49" s="10">
+        <v>3</v>
+      </c>
+      <c r="J49" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="10">
+        <v>5</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="M49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="S49" s="13">
+        <v>300</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="I50" s="10">
+        <v>1</v>
+      </c>
+      <c r="J50" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="10">
+        <v>0</v>
+      </c>
+      <c r="S50" s="13">
+        <v>300</v>
+      </c>
+      <c r="T50" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I51" s="10">
+        <v>1</v>
+      </c>
+      <c r="J51" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K51" s="10">
+        <v>5</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="M51" s="10">
+        <v>0</v>
+      </c>
+      <c r="S51" s="13">
+        <v>300</v>
+      </c>
+      <c r="T51" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="10">
+        <v>5</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="M52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="13">
+        <v>300</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+      <c r="J53" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="10">
+        <v>5</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="M53" s="10">
+        <v>0</v>
+      </c>
+      <c r="S53" s="13">
+        <v>300</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -5610,7 +6103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2A88D-643D-EB4C-A458-2A13282F63DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A85F4F-F0AB-5D40-80C3-C9B0C2167A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="773">
   <si>
     <t>ID</t>
   </si>
@@ -2507,6 +2507,21 @@
   </si>
   <si>
     <t>이동!</t>
+  </si>
+  <si>
+    <t>Ask Desc</t>
+  </si>
+  <si>
+    <t>Ask Title</t>
+  </si>
+  <si>
+    <t>{from}이/가 주제도 모르고 감히 인사를 하겠다고 합니다.
+아마도 돈을 노리고 저러는거 같은데 수락하시겠습니까?
+수락할 경우 MP +5
+거절할 경우 김밥이는 MP -10이 됩니다.</t>
+  </si>
+  <si>
+    <t>괜히 친한척 하며 말을 걸어 왔습니다.</t>
   </si>
 </sst>
 </file>
@@ -3397,11 +3412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3426,9 +3441,11 @@
     <col min="21" max="21" width="36.83203125" customWidth="1"/>
     <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="187" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="187" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3501,8 +3518,14 @@
       <c r="X1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y1" t="s">
+        <v>770</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -3548,7 +3571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -3594,7 +3617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>491</v>
       </c>
@@ -3642,7 +3665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3692,7 +3715,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3742,7 +3765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -3792,7 +3815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3845,7 +3868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>443</v>
       </c>
@@ -3897,7 +3920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3947,7 +3970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3997,7 +4020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4047,7 +4070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4101,7 +4124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4155,7 +4178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4209,7 +4232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4262,7 +4285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4307,7 +4330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4359,8 +4382,14 @@
       <c r="V18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y18" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4410,7 +4439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>414</v>
       </c>
@@ -4466,7 +4495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>429</v>
       </c>
@@ -4510,7 +4539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>433</v>
       </c>
@@ -4563,7 +4592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>434</v>
       </c>
@@ -4613,7 +4642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>469</v>
       </c>
@@ -4666,7 +4695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -4707,7 +4736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>453</v>
       </c>
@@ -4745,7 +4774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>470</v>
       </c>
@@ -4798,7 +4827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>471</v>
       </c>
@@ -4839,7 +4868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>497</v>
       </c>
@@ -4895,7 +4924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>501</v>
       </c>
@@ -4942,7 +4971,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>510</v>
       </c>
@@ -4995,7 +5024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>511</v>
       </c>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A85F4F-F0AB-5D40-80C3-C9B0C2167A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920F43E-91AF-C847-A2DD-84038F82B936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>LD4-1-I</t>
   </si>
   <si>
-    <t>Leadership:2</t>
-  </si>
-  <si>
     <t>Friendship:1</t>
   </si>
   <si>
@@ -2522,6 +2519,9 @@
   </si>
   <si>
     <t>괜히 친한척 하며 말을 걸어 왔습니다.</t>
+  </si>
+  <si>
+    <t>Leadership:10</t>
   </si>
 </sst>
 </file>
@@ -2684,7 +2684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2870,8 +2870,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2986,6 +2992,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3031,7 +3052,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3055,6 +3076,11 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3414,9 +3440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3459,7 +3485,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3474,10 +3500,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>8</v>
@@ -3489,45 +3515,45 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" t="s">
         <v>104</v>
       </c>
-      <c r="U1" t="s">
-        <v>105</v>
-      </c>
       <c r="V1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="W1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="X1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Y1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Z1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3539,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
         <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -3559,21 +3585,21 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" s="4">
         <v>102</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3585,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -3605,36 +3631,36 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S3" s="4">
         <v>104</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>491</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>492</v>
-      </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -3646,23 +3672,23 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="68" x14ac:dyDescent="0.2">
@@ -3679,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -3697,22 +3723,22 @@
         <v>2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="68" x14ac:dyDescent="0.2">
@@ -3729,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>286</v>
-      </c>
-      <c r="H6" t="s">
-        <v>287</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3747,27 +3773,27 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -3779,13 +3805,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -3797,22 +3823,22 @@
         <v>5</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>408</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="S7" s="4">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="V7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3829,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -3847,30 +3873,30 @@
         <v>2</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="V8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3882,13 +3908,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="H9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3900,13 +3926,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -3914,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3934,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -3952,22 +3978,22 @@
         <v>1</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3984,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -4002,22 +4028,22 @@
         <v>1</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -4034,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -4052,22 +4078,22 @@
         <v>1</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S12" s="4">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -4084,13 +4110,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4102,26 +4128,26 @@
         <v>1</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4">
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -4138,13 +4164,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4156,26 +4182,26 @@
         <v>1</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="4">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -4192,13 +4218,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4210,26 +4236,26 @@
         <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -4243,16 +4269,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -4267,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4279,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -4293,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4315,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4324,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -4344,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -4362,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4371,22 +4397,22 @@
         <v>33</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>772</v>
       </c>
       <c r="S18" s="4">
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
@@ -4403,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -4424,27 +4450,27 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S19" s="4">
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4456,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -4474,30 +4500,30 @@
         <v>2</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4509,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -4524,39 +4550,39 @@
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>430</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>431</v>
-      </c>
       <c r="V21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -4571,30 +4597,30 @@
         <v>3</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>433</v>
+      </c>
+      <c r="O22" t="s">
+        <v>440</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>437</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>434</v>
-      </c>
-      <c r="O22" t="s">
-        <v>441</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>438</v>
-      </c>
       <c r="V22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4606,10 +4632,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -4627,45 +4653,45 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S23" s="4">
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B24" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>467</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>468</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4677,42 +4703,42 @@
         <v>7</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4724,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4733,24 +4759,24 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4768,36 +4794,36 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>469</v>
+      </c>
+      <c r="B27" t="s">
         <v>470</v>
       </c>
-      <c r="B27" t="s">
-        <v>471</v>
-      </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
+        <v>473</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="H27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -4809,42 +4835,42 @@
         <v>7</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4856,7 +4882,7 @@
         <v>8</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4865,30 +4891,30 @@
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>497</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>499</v>
+      </c>
+      <c r="H29" t="s">
         <v>498</v>
-      </c>
-      <c r="G29" t="s">
-        <v>500</v>
-      </c>
-      <c r="H29" t="s">
-        <v>499</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -4900,33 +4926,33 @@
         <v>2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29" t="s">
+        <v>500</v>
+      </c>
+      <c r="O29" t="s">
         <v>501</v>
       </c>
-      <c r="O29" t="s">
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" t="s">
         <v>503</v>
       </c>
-      <c r="U29" t="s">
-        <v>504</v>
-      </c>
       <c r="V29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4938,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -4959,21 +4985,21 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
+        <v>505</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>506</v>
       </c>
-      <c r="S30" s="4">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
-        <v>507</v>
-      </c>
       <c r="V30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4985,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>550</v>
+      </c>
+      <c r="G31" t="s">
         <v>551</v>
-      </c>
-      <c r="G31" t="s">
-        <v>552</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5003,51 +5029,51 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="V31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5059,39 +5085,39 @@
         <v>3</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
+        <v>562</v>
+      </c>
+      <c r="O32" t="s">
+        <v>564</v>
+      </c>
+      <c r="P32" t="s">
         <v>563</v>
       </c>
-      <c r="O32" t="s">
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="P32" t="s">
-        <v>564</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" t="s">
         <v>566</v>
       </c>
-      <c r="U32" t="s">
-        <v>567</v>
-      </c>
       <c r="V32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5103,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -5124,24 +5150,24 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
+        <v>568</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="S33" s="4">
-        <v>1</v>
-      </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="V33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -5153,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -5168,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5177,15 +5203,15 @@
         <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5197,10 +5223,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
+        <v>731</v>
+      </c>
+      <c r="G35" t="s">
         <v>732</v>
-      </c>
-      <c r="G35" t="s">
-        <v>733</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -5215,27 +5241,27 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>730</v>
+      </c>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
-        <v>731</v>
-      </c>
-      <c r="S35" s="4">
-        <v>1</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="V35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5247,10 +5273,10 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
+        <v>756</v>
+      </c>
+      <c r="G36" t="s">
         <v>757</v>
-      </c>
-      <c r="G36" t="s">
-        <v>758</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -5265,27 +5291,27 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>626</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>627</v>
-      </c>
-      <c r="S36" s="4">
-        <v>1</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>760</v>
-      </c>
       <c r="V36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5297,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
+        <v>764</v>
+      </c>
+      <c r="G37" t="s">
         <v>765</v>
-      </c>
-      <c r="G37" t="s">
-        <v>766</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -5318,21 +5344,21 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
+        <v>766</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="S37" s="4">
-        <v>1</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>768</v>
-      </c>
       <c r="V37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5344,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
@@ -5362,21 +5388,21 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
+        <v>762</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="S38" s="4">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="V38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5388,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
+        <v>592</v>
+      </c>
+      <c r="G39" t="s">
         <v>593</v>
-      </c>
-      <c r="G39" t="s">
-        <v>594</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -5406,27 +5432,27 @@
         <v>1</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S39" s="4">
         <v>1</v>
       </c>
       <c r="T39" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="V39" t="s">
         <v>596</v>
-      </c>
-      <c r="V39" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5438,13 +5464,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
+        <v>607</v>
+      </c>
+      <c r="G40" t="s">
         <v>608</v>
       </c>
-      <c r="G40" t="s">
-        <v>609</v>
-      </c>
       <c r="H40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -5456,27 +5482,27 @@
         <v>1</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S40" s="4">
         <v>200</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="V40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5488,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
+        <v>607</v>
+      </c>
+      <c r="G41" t="s">
         <v>608</v>
       </c>
-      <c r="G41" t="s">
-        <v>609</v>
-      </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -5506,27 +5532,27 @@
         <v>1</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S41" s="4">
         <v>202</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="V41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5538,13 +5564,13 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
+        <v>611</v>
+      </c>
+      <c r="G42" t="s">
         <v>612</v>
       </c>
-      <c r="G42" t="s">
-        <v>613</v>
-      </c>
       <c r="H42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -5556,27 +5582,27 @@
         <v>1</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S42" s="4">
         <v>1</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="V42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5588,10 +5614,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
+        <v>621</v>
+      </c>
+      <c r="G43" t="s">
         <v>622</v>
-      </c>
-      <c r="G43" t="s">
-        <v>623</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -5606,27 +5632,27 @@
         <v>1</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S43" s="4">
         <v>201</v>
       </c>
       <c r="T43" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="V43" t="s">
         <v>596</v>
-      </c>
-      <c r="V43" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5638,13 +5664,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
+        <v>630</v>
+      </c>
+      <c r="G44" t="s">
         <v>631</v>
       </c>
-      <c r="G44" t="s">
-        <v>632</v>
-      </c>
       <c r="H44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -5656,30 +5682,30 @@
         <v>5</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
+        <v>632</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="S44" s="4">
-        <v>1</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="V44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X44" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5691,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G45" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H45" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -5709,33 +5735,33 @@
         <v>5</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S45" s="4">
         <v>1</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="W45" t="s">
+        <v>646</v>
+      </c>
+      <c r="X45" t="s">
         <v>647</v>
-      </c>
-      <c r="X45" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5747,13 +5773,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G46" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H46" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -5765,33 +5791,33 @@
         <v>5</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S46" s="4">
         <v>1</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V46" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="W46" t="s">
+        <v>651</v>
+      </c>
+      <c r="X46" t="s">
         <v>652</v>
-      </c>
-      <c r="X46" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5803,13 +5829,13 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G47" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H47" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -5821,30 +5847,30 @@
         <v>5</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S47" s="4">
         <v>1</v>
       </c>
       <c r="T47" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="V47" t="s">
+        <v>596</v>
+      </c>
+      <c r="X47" t="s">
         <v>667</v>
-      </c>
-      <c r="V47" t="s">
-        <v>597</v>
-      </c>
-      <c r="X47" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5856,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -5874,33 +5900,33 @@
         <v>5</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S48" s="4">
         <v>1</v>
       </c>
       <c r="T48" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="V48" t="s">
+        <v>596</v>
+      </c>
+      <c r="X48" t="s">
         <v>660</v>
-      </c>
-      <c r="V48" t="s">
-        <v>597</v>
-      </c>
-      <c r="X48" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="49" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C49" s="10">
         <v>0</v>
@@ -5912,10 +5938,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I49" s="10">
         <v>3</v>
@@ -5927,30 +5953,30 @@
         <v>5</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M49" s="10">
         <v>0</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S49" s="13">
         <v>300</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C50" s="10">
         <v>0</v>
@@ -5962,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>754</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>755</v>
       </c>
       <c r="I50" s="10">
         <v>1</v>
@@ -5984,18 +6010,18 @@
         <v>300</v>
       </c>
       <c r="T50" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C51" s="10">
         <v>0</v>
@@ -6007,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I51" s="10">
         <v>1</v>
@@ -6022,7 +6048,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
@@ -6031,18 +6057,18 @@
         <v>300</v>
       </c>
       <c r="T51" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V51" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C52" s="10">
         <v>0</v>
@@ -6054,10 +6080,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I52" s="10">
         <v>1</v>
@@ -6069,7 +6095,7 @@
         <v>5</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M52" s="10">
         <v>0</v>
@@ -6078,12 +6104,12 @@
         <v>300</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C53" s="10">
         <v>0</v>
@@ -6095,10 +6121,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I53" s="10">
         <v>1</v>
@@ -6110,7 +6136,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M53" s="10">
         <v>0</v>
@@ -6119,7 +6145,7 @@
         <v>300</v>
       </c>
       <c r="T53" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -6132,8 +6158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6153,63 +6180,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -6218,25 +6245,25 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -6247,13 +6274,13 @@
     </row>
     <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -6262,19 +6289,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -6283,7 +6310,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -6294,13 +6321,13 @@
     </row>
     <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -6309,19 +6336,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -6330,7 +6357,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -6341,13 +6368,13 @@
     </row>
     <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -6356,25 +6383,25 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -6385,13 +6412,13 @@
     </row>
     <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -6400,19 +6427,19 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6421,7 +6448,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -6432,13 +6459,13 @@
     </row>
     <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -6447,19 +6474,19 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6468,7 +6495,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -6479,13 +6506,13 @@
     </row>
     <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -6494,25 +6521,25 @@
         <v>107</v>
       </c>
       <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>77</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -6523,13 +6550,13 @@
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -6538,19 +6565,19 @@
         <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6559,7 +6586,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -6570,13 +6597,13 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -6585,25 +6612,25 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
+        <v>487</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>488</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -6614,13 +6641,13 @@
     </row>
     <row r="11" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -6629,25 +6656,25 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -6658,84 +6685,84 @@
     </row>
     <row r="12" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>93</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>94</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -6746,13 +6773,13 @@
     </row>
     <row r="14" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -6761,25 +6788,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -6790,13 +6817,13 @@
     </row>
     <row r="15" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -6805,25 +6832,25 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -6834,13 +6861,13 @@
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -6849,42 +6876,42 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -6893,25 +6920,25 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -6922,13 +6949,13 @@
     </row>
     <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -6937,25 +6964,25 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -6966,13 +6993,13 @@
     </row>
     <row r="19" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -6981,25 +7008,25 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -7010,13 +7037,13 @@
     </row>
     <row r="20" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -7025,25 +7052,25 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -7053,260 +7080,284 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>200</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>597</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
         <v>200</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>597</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>200</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>202</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>489</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>597</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="B24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
         <v>202</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q23">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>201</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>603</v>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>597</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>202</v>
-      </c>
-      <c r="F24" t="s">
-        <v>606</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>284</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>597</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="B26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
         <v>201</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J26" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>616</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>597</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>201</v>
-      </c>
-      <c r="F26" t="s">
-        <v>618</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>284</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q26">
+      <c r="K26" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>674</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>675</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>676</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -7315,25 +7366,25 @@
         <v>300</v>
       </c>
       <c r="F27" t="s">
+        <v>676</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>283</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>284</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q27">
         <v>30</v>
@@ -7362,39 +7413,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
-        <v>147</v>
-      </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -7402,19 +7453,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
         <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" t="s">
-        <v>202</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -7422,19 +7473,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -7442,19 +7493,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -7462,19 +7513,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -7482,19 +7533,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -7502,19 +7553,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7522,19 +7573,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7542,19 +7593,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -7562,19 +7613,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
         <v>169</v>
       </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -7613,72 +7664,72 @@
   <sheetData>
     <row r="1" spans="1:20" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R1" t="s">
-        <v>151</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
         <v>233</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -7696,25 +7747,25 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -7725,10 +7776,10 @@
     </row>
     <row r="3" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -7746,25 +7797,25 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -7775,10 +7826,10 @@
     </row>
     <row r="4" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -7796,25 +7847,25 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -7825,10 +7876,10 @@
     </row>
     <row r="5" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -7846,25 +7897,25 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -7875,10 +7926,10 @@
     </row>
     <row r="6" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -7896,25 +7947,25 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -7925,10 +7976,10 @@
     </row>
     <row r="7" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -7946,25 +7997,25 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -7975,10 +8026,10 @@
     </row>
     <row r="8" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -7996,25 +8047,25 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -8025,10 +8076,10 @@
     </row>
     <row r="9" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -8046,25 +8097,25 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -8075,10 +8126,10 @@
     </row>
     <row r="10" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -8096,25 +8147,25 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -8125,10 +8176,10 @@
     </row>
     <row r="11" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -8146,25 +8197,25 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="N11" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -8175,10 +8226,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -8225,10 +8276,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -8275,10 +8326,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -8325,10 +8376,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -8375,10 +8426,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -8425,10 +8476,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -8475,10 +8526,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -8525,10 +8576,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -8575,10 +8626,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -8625,10 +8676,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -8675,31 +8726,31 @@
     </row>
     <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" t="s">
         <v>383</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -8728,14 +8779,14 @@
     </row>
     <row r="23" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" t="s">
         <v>386</v>
       </c>
-      <c r="C23" t="s">
-        <v>387</v>
-      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -8752,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -8781,13 +8832,13 @@
     </row>
     <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8805,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -8834,19 +8885,19 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" t="s">
         <v>418</v>
-      </c>
-      <c r="C25" t="s">
-        <v>419</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -8855,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -8879,13 +8930,13 @@
     </row>
     <row r="26" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" t="s">
         <v>548</v>
-      </c>
-      <c r="C26" t="s">
-        <v>549</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8932,13 +8983,13 @@
     </row>
     <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>636</v>
+      </c>
+      <c r="B27" t="s">
         <v>637</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>638</v>
-      </c>
-      <c r="C27" t="s">
-        <v>639</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -8985,13 +9036,13 @@
     </row>
     <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>639</v>
+      </c>
+      <c r="B28" t="s">
         <v>640</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>641</v>
-      </c>
-      <c r="C28" t="s">
-        <v>642</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -9038,13 +9089,13 @@
     </row>
     <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B29" t="s">
         <v>643</v>
       </c>
-      <c r="B29" t="s">
-        <v>644</v>
-      </c>
       <c r="C29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -9062,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
@@ -9091,13 +9142,13 @@
     </row>
     <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -9115,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L30" s="7">
         <v>0</v>
@@ -9144,13 +9195,13 @@
     </row>
     <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -9197,13 +9248,13 @@
     </row>
     <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9250,13 +9301,13 @@
     </row>
     <row r="33" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -9303,13 +9354,13 @@
     </row>
     <row r="34" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -9356,13 +9407,13 @@
     </row>
     <row r="35" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9409,13 +9460,13 @@
     </row>
     <row r="36" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -9462,19 +9513,19 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -9504,13 +9555,13 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -9543,13 +9594,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -9582,13 +9633,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9621,13 +9672,13 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -9660,13 +9711,13 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -9699,13 +9750,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -9738,13 +9789,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -9777,13 +9828,13 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9816,13 +9867,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9855,13 +9906,13 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -9894,13 +9945,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -9933,13 +9984,13 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -9972,13 +10023,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -10011,13 +10062,13 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -10050,13 +10101,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -10089,13 +10140,13 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -10128,13 +10179,13 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -10167,13 +10218,13 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -10206,13 +10257,13 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -10245,13 +10296,13 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -10284,13 +10335,13 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -10323,13 +10374,13 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -10382,90 +10433,90 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>726</v>
+      </c>
+      <c r="B12" t="s">
         <v>727</v>
-      </c>
-      <c r="B12" t="s">
-        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -10490,19 +10541,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
         <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10513,13 +10564,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10530,13 +10581,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10547,13 +10598,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10564,13 +10615,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10581,13 +10632,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10598,13 +10649,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10615,13 +10666,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10632,13 +10683,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10649,13 +10700,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -10666,13 +10717,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -10746,51 +10797,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
         <v>459</v>
       </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>460</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>464</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>465</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -10802,27 +10853,27 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -10834,27 +10885,27 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" t="s">
         <v>583</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>584</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>585</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -10866,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -10901,25 +10952,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10927,7 +10978,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -10941,10 +10992,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" t="s">
         <v>684</v>
-      </c>
-      <c r="B3" t="s">
-        <v>685</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10961,7 +11012,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10978,7 +11029,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10992,10 +11043,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" t="s">
         <v>688</v>
-      </c>
-      <c r="B6" t="s">
-        <v>689</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11009,10 +11060,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>689</v>
+      </c>
+      <c r="B7" t="s">
         <v>690</v>
-      </c>
-      <c r="B7" t="s">
-        <v>691</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -11026,10 +11077,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B8" t="s">
         <v>692</v>
-      </c>
-      <c r="B8" t="s">
-        <v>693</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -11043,10 +11094,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B9" t="s">
         <v>694</v>
-      </c>
-      <c r="B9" t="s">
-        <v>695</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11060,10 +11111,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B10" t="s">
         <v>697</v>
-      </c>
-      <c r="B10" t="s">
-        <v>698</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11077,10 +11128,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B11" t="s">
         <v>699</v>
-      </c>
-      <c r="B11" t="s">
-        <v>700</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11094,10 +11145,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B12" t="s">
         <v>701</v>
-      </c>
-      <c r="B12" t="s">
-        <v>702</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11111,10 +11162,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -11129,15 +11180,15 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -11152,15 +11203,15 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11175,7 +11226,7 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -11200,540 +11251,540 @@
   <sheetData>
     <row r="2" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/config_gen/config.xlsx
+++ b/config_gen/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daejung/work/unity/Lemmings/Assets/Script/AI/config_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920F43E-91AF-C847-A2DD-84038F82B936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D8A202-FEB3-3640-8967-73A3763DECDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -1418,9 +1418,6 @@
     <t>자원1 당근하기</t>
   </si>
   <si>
-    <t>1.Satisfaction.Resource1:max</t>
-  </si>
-  <si>
     <t>자원1 $|-10|% 골드에 쿨거래 가능?</t>
   </si>
   <si>
@@ -1802,9 +1799,6 @@
     <t>떡뽁이집 알바</t>
   </si>
   <si>
-    <t>1.Satisfaction.Gold:max</t>
-  </si>
-  <si>
     <t>안녕~ {to} 너 참 부티나 보인다</t>
   </si>
   <si>
@@ -1815,9 +1809,6 @@
   </si>
   <si>
     <t>광장에서 같이 춤추러 가자고 하기</t>
-  </si>
-  <si>
-    <t>1.Satisfaction.HP:max</t>
   </si>
   <si>
     <t>주변에 체력 좋은 친구에게 수줍게 광장에서 같이 춤추러 가자고 하기</t>
@@ -2522,6 +2513,15 @@
   </si>
   <si>
     <t>Leadership:10</t>
+  </si>
+  <si>
+    <t>1:Satisfaction:Gold:max</t>
+  </si>
+  <si>
+    <t>1:Satisfaction:Resource1:max</t>
+  </si>
+  <si>
+    <t>1:Satisfaction:HP:max</t>
   </si>
 </sst>
 </file>
@@ -3440,9 +3440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3503,7 +3503,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>8</v>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>116</v>
@@ -3524,7 +3524,7 @@
         <v>381</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
@@ -3536,19 +3536,19 @@
         <v>104</v>
       </c>
       <c r="V1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="W1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="X1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="Y1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="Z1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3645,19 +3645,19 @@
     </row>
     <row r="4" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>490</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>491</v>
       </c>
       <c r="H4" t="s">
         <v>289</v>
@@ -3672,20 +3672,20 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S4" s="4">
         <v>109</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V4" t="s">
         <v>73</v>
@@ -3855,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -3879,16 +3879,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V8" t="s">
         <v>73</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="9" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>265</v>
@@ -4388,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>555</v>
+        <v>770</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4397,22 +4397,22 @@
         <v>33</v>
       </c>
       <c r="O18" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="S18" s="4">
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="V18" t="s">
         <v>73</v>
       </c>
       <c r="Y18" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
@@ -4456,10 +4456,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V19" t="s">
         <v>73</v>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V20" t="s">
         <v>73</v>
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>436</v>
+        <v>771</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -4606,13 +4606,13 @@
         <v>433</v>
       </c>
       <c r="O22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V22" t="s">
         <v>73</v>
@@ -4659,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V23" t="s">
         <v>73</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4685,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -4703,19 +4703,19 @@
         <v>7</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V24" t="s">
         <v>73</v>
@@ -4723,10 +4723,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V26" t="s">
         <v>73</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="27" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" t="s">
         <v>469</v>
-      </c>
-      <c r="B27" t="s">
-        <v>470</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4817,10 +4817,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
+        <v>472</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="H27" t="s">
         <v>286</v>
@@ -4835,19 +4835,19 @@
         <v>7</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="V27" t="s">
         <v>73</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -4870,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>8</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="29" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4908,13 +4908,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>496</v>
+      </c>
+      <c r="G29" t="s">
+        <v>498</v>
+      </c>
+      <c r="H29" t="s">
         <v>497</v>
-      </c>
-      <c r="G29" t="s">
-        <v>499</v>
-      </c>
-      <c r="H29" t="s">
-        <v>498</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -4926,25 +4926,25 @@
         <v>2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29" t="s">
+        <v>499</v>
+      </c>
+      <c r="O29" t="s">
         <v>500</v>
       </c>
-      <c r="O29" t="s">
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" t="s">
         <v>502</v>
-      </c>
-      <c r="U29" t="s">
-        <v>503</v>
       </c>
       <c r="V29" t="s">
         <v>73</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4964,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -4985,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
+        <v>504</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>505</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
-        <v>506</v>
       </c>
       <c r="V30" t="s">
         <v>73</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="31" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5011,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>549</v>
+      </c>
+      <c r="G31" t="s">
         <v>550</v>
-      </c>
-      <c r="G31" t="s">
-        <v>551</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -5035,16 +5035,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="V31" t="s">
         <v>73</v>
@@ -5052,28 +5052,28 @@
     </row>
     <row r="32" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B32" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G32" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5085,28 +5085,28 @@
         <v>3</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>559</v>
+      </c>
+      <c r="O32" t="s">
+        <v>561</v>
+      </c>
+      <c r="P32" t="s">
         <v>560</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="O32" t="s">
-        <v>564</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="U32" t="s">
         <v>563</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="U32" t="s">
-        <v>566</v>
       </c>
       <c r="V32" t="s">
         <v>73</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="33" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B33" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5129,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G33" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -5150,16 +5150,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="S33" s="4">
         <v>1</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="V33" t="s">
         <v>73</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="34" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -5179,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H34" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="V34" t="s">
         <v>73</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5223,10 +5223,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G35" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -5241,19 +5241,19 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="S35" s="4">
         <v>1</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="V35" t="s">
         <v>73</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5273,10 +5273,10 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G36" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -5291,19 +5291,19 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="S36" s="4">
         <v>1</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="V36" t="s">
         <v>73</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5323,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G37" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="S37" s="4">
         <v>1</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="V37" t="s">
         <v>73</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
@@ -5388,21 +5388,21 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="S38" s="4">
         <v>1</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="V38" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5414,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G39" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5444,15 +5444,15 @@
         <v>1</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="V39" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5464,13 +5464,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G40" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H40" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5494,15 +5494,15 @@
         <v>200</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="V40" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5514,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G41" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -5544,15 +5544,15 @@
         <v>202</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="V41" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5564,13 +5564,13 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G42" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -5594,15 +5594,15 @@
         <v>1</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="V42" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5614,10 +5614,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G43" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5644,15 +5644,15 @@
         <v>201</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="V43" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5664,13 +5664,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G44" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H44" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -5682,30 +5682,30 @@
         <v>5</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="S44" s="4">
         <v>1</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="V44" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="X44" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5717,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G45" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H45" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -5735,33 +5735,33 @@
         <v>5</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="S45" s="4">
         <v>1</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="V45" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="W45" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="X45" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5773,13 +5773,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G46" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H46" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -5791,33 +5791,33 @@
         <v>5</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="S46" s="4">
         <v>1</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="V46" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="W46" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="X46" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5829,13 +5829,13 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G47" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H47" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -5847,30 +5847,30 @@
         <v>5</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="S47" s="4">
         <v>1</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="V47" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="X47" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5882,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G48" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H48" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -5900,33 +5900,33 @@
         <v>5</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="S48" s="4">
         <v>1</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="V48" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="X48" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C49" s="10">
         <v>0</v>
@@ -5938,10 +5938,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I49" s="10">
         <v>3</v>
@@ -5953,30 +5953,30 @@
         <v>5</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M49" s="10">
         <v>0</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="S49" s="13">
         <v>300</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C50" s="10">
         <v>0</v>
@@ -5988,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I50" s="10">
         <v>1</v>
@@ -6010,18 +6010,18 @@
         <v>300</v>
       </c>
       <c r="T50" s="14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C51" s="10">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>286</v>
@@ -6048,7 +6048,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
@@ -6057,18 +6057,18 @@
         <v>300</v>
       </c>
       <c r="T51" s="14" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="V51" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C52" s="10">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>407</v>
@@ -6095,7 +6095,7 @@
         <v>5</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M52" s="10">
         <v>0</v>
@@ -6104,12 +6104,12 @@
         <v>300</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:22" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C53" s="10">
         <v>0</v>
@@ -6121,10 +6121,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I53" s="10">
         <v>1</v>
@@ -6136,7 +6136,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M53" s="10">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         <v>300</v>
       </c>
       <c r="T53" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -6158,7 +6158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
@@ -6336,7 +6336,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6427,7 +6427,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -6612,16 +6612,16 @@
         <v>109</v>
       </c>
       <c r="F10" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>487</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>90</v>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -6715,10 +6715,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -7081,13 +7081,13 @@
     </row>
     <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D21" s="15" t="b">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>200</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15">
@@ -7106,7 +7106,7 @@
         <v>67</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>90</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
@@ -7126,13 +7126,13 @@
     </row>
     <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B22" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D22" s="15" t="b">
         <v>0</v>
@@ -7141,17 +7141,17 @@
         <v>200</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15">
         <v>1</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>90</v>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B23" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D23" s="15" t="b">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15">
@@ -7196,7 +7196,7 @@
         <v>136</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>90</v>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -7216,13 +7216,13 @@
     </row>
     <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B24" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D24" s="15" t="b">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>202</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15">
@@ -7241,7 +7241,7 @@
         <v>283</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>90</v>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
@@ -7261,13 +7261,13 @@
     </row>
     <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B25" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D25" s="15" t="b">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>201</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15">
@@ -7286,7 +7286,7 @@
         <v>136</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>90</v>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -7306,13 +7306,13 @@
     </row>
     <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B26" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D26" s="15" t="b">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>201</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15">
@@ -7331,7 +7331,7 @@
         <v>283</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>90</v>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -7351,13 +7351,13 @@
     </row>
     <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -7375,16 +7375,16 @@
         <v>283</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q27">
         <v>30</v>
@@ -7673,7 +7673,7 @@
         <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -7718,10 +7718,10 @@
         <v>150</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
